--- a/Useful Resources/Useful Resources DB 2.0.xlsx
+++ b/Useful Resources/Useful Resources DB 2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\Bootcamp\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B854C8D9-0066-488B-A004-009DFBAD931A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D3D8F7-2142-420A-ABC7-C8FEB520F138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6495" yWindow="465" windowWidth="30615" windowHeight="19845" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5265" yWindow="300" windowWidth="19935" windowHeight="20580" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Front" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1231">
   <si>
     <t>Cyber security resources</t>
   </si>
@@ -3761,6 +3761,12 @@
   </si>
   <si>
     <t>Example Playbooks</t>
+  </si>
+  <si>
+    <t>https://betterstack.com/community/guides/logging/how-to-manage-log-files-with-logrotate-on-ubuntu-20-04/</t>
+  </si>
+  <si>
+    <t>A Complete Guide to Managing Log Files with Logrotate</t>
   </si>
 </sst>
 </file>
@@ -5450,102 +5456,6 @@
     <xf numFmtId="0" fontId="124" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="125" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="131" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="118" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="126" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="132" fillId="11" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="132" fillId="11" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5554,10 +5464,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5599,17 +5505,10 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="103" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5629,6 +5528,113 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="133" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="132" fillId="11" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="118" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="129" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="131" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7441,22 +7447,22 @@
     </row>
     <row r="2" spans="1:26" ht="26.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="190" t="s">
+      <c r="B2" s="226" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
-      <c r="N2" s="191"/>
-      <c r="O2" s="192"/>
+      <c r="C2" s="227"/>
+      <c r="D2" s="227"/>
+      <c r="E2" s="227"/>
+      <c r="F2" s="227"/>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="227"/>
+      <c r="L2" s="227"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="227"/>
+      <c r="O2" s="228"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -7471,20 +7477,20 @@
     </row>
     <row r="3" spans="1:26" ht="26.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="193"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="194"/>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
-      <c r="K3" s="194"/>
-      <c r="L3" s="194"/>
-      <c r="M3" s="194"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="195"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="231"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -7499,22 +7505,22 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4"/>
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="197"/>
-      <c r="H4" s="197"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="197"/>
-      <c r="L4" s="197"/>
-      <c r="M4" s="197"/>
-      <c r="N4" s="197"/>
-      <c r="O4" s="198"/>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+      <c r="K4" s="223"/>
+      <c r="L4" s="223"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="223"/>
+      <c r="O4" s="224"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -7529,16 +7535,16 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="5"/>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="200" t="s">
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="198"/>
+      <c r="G5" s="224"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -7561,16 +7567,16 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="1"/>
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="202" t="s">
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="198"/>
+      <c r="G6" s="224"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -7593,16 +7599,16 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="1"/>
-      <c r="B7" s="201" t="s">
+      <c r="B7" s="222" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="198"/>
-      <c r="F7" s="200" t="s">
+      <c r="C7" s="223"/>
+      <c r="D7" s="223"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="225" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="198"/>
+      <c r="G7" s="224"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -7625,12 +7631,12 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="1"/>
-      <c r="B8" s="201" t="s">
+      <c r="B8" s="222" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="198"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="224"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
@@ -7655,12 +7661,12 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="1"/>
-      <c r="B9" s="201" t="s">
+      <c r="B9" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="198"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="223"/>
+      <c r="E9" s="224"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="6"/>
@@ -7685,12 +7691,12 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="1"/>
-      <c r="B10" s="201" t="s">
+      <c r="B10" s="222" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="198"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
@@ -7715,12 +7721,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="1"/>
-      <c r="B11" s="201" t="s">
+      <c r="B11" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="197"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="198"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="224"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
@@ -7745,12 +7751,12 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="1"/>
-      <c r="B12" s="201" t="s">
+      <c r="B12" s="222" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="197"/>
-      <c r="D12" s="197"/>
-      <c r="E12" s="198"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="224"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
@@ -7775,12 +7781,12 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="1"/>
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="222" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="197"/>
-      <c r="D13" s="197"/>
-      <c r="E13" s="198"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="224"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
@@ -7805,12 +7811,12 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="1"/>
-      <c r="B14" s="201" t="s">
+      <c r="B14" s="222" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="198"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="224"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
@@ -7835,12 +7841,12 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="1"/>
-      <c r="B15" s="201" t="s">
+      <c r="B15" s="222" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="198"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="224"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
@@ -7865,12 +7871,12 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="201" t="s">
+      <c r="B16" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="198"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="224"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
@@ -7895,12 +7901,12 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="1"/>
-      <c r="B17" s="201" t="s">
+      <c r="B17" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="197"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="198"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="224"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
@@ -7925,12 +7931,12 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1"/>
-      <c r="B18" s="201" t="s">
+      <c r="B18" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="198"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="224"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
@@ -7955,12 +7961,12 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="201" t="s">
+      <c r="B19" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="197"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="198"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="224"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
@@ -7985,12 +7991,12 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="201" t="s">
+      <c r="B20" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="197"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="198"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="224"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
@@ -15951,6 +15957,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
@@ -15961,17 +15978,6 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="'Security 101'!A1" display="Security 101" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -16021,16 +16027,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="100" t="s">
@@ -16285,25 +16291,25 @@
       <c r="C35" s="38"/>
     </row>
     <row r="36" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B36" s="204" t="s">
+      <c r="B36" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="198"/>
+      <c r="C36" s="224"/>
     </row>
     <row r="37" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B37" s="239" t="s">
+      <c r="B37" s="191" t="s">
         <v>774</v>
       </c>
       <c r="C37" s="58"/>
     </row>
     <row r="38" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B38" s="239" t="s">
+      <c r="B38" s="191" t="s">
         <v>775</v>
       </c>
       <c r="C38" s="51"/>
     </row>
     <row r="39" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B39" s="239" t="s">
+      <c r="B39" s="191" t="s">
         <v>776</v>
       </c>
       <c r="C39" s="51"/>
@@ -17380,16 +17386,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="88" t="s">
@@ -17492,10 +17498,10 @@
       <c r="C16" s="38"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="198"/>
+      <c r="C17" s="224"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="90"/>
@@ -18566,16 +18572,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="88" t="s">
@@ -18722,10 +18728,10 @@
       <c r="C22" s="38"/>
     </row>
     <row r="23" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B23" s="204" t="s">
+      <c r="B23" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="198"/>
+      <c r="C23" s="224"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="115" t="s">
@@ -19830,16 +19836,16 @@
       <c r="A2" s="81"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="235" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="204" t="s">
+      <c r="B4" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C4" s="198"/>
+      <c r="C4" s="224"/>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="88" t="s">
@@ -19894,13 +19900,13 @@
       <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="198"/>
+      <c r="C12" s="224"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="255" t="s">
+      <c r="B13" s="205" t="s">
         <v>856</v>
       </c>
       <c r="C13" s="58"/>
@@ -20984,16 +20990,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>859</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="120" t="s">
@@ -21072,13 +21078,13 @@
       <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="204" t="s">
+      <c r="B14" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="198"/>
+      <c r="C14" s="224"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="255" t="s">
+      <c r="B15" s="205" t="s">
         <v>878</v>
       </c>
       <c r="C15" s="58"/>
@@ -22170,16 +22176,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="88" t="s">
@@ -22254,31 +22260,31 @@
       <c r="C14" s="38"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="198"/>
+      <c r="C15" s="224"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="255" t="s">
+      <c r="B16" s="205" t="s">
         <v>897</v>
       </c>
       <c r="C16" s="58"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="255" t="s">
+      <c r="B17" s="205" t="s">
         <v>898</v>
       </c>
       <c r="C17" s="72"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="255" t="s">
+      <c r="B18" s="205" t="s">
         <v>899</v>
       </c>
       <c r="C18" s="72"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="255" t="s">
+      <c r="B19" s="205" t="s">
         <v>900</v>
       </c>
       <c r="C19" s="72"/>
@@ -22287,7 +22293,7 @@
       <c r="B20" s="127" t="s">
         <v>901</v>
       </c>
-      <c r="C20" s="258" t="s">
+      <c r="C20" s="208" t="s">
         <v>902</v>
       </c>
     </row>
@@ -23352,16 +23358,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>903</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="128" t="s">
@@ -23514,7 +23520,7 @@
       <c r="B22" s="138" t="s">
         <v>940</v>
       </c>
-      <c r="C22" s="211" t="s">
+      <c r="C22" s="247" t="s">
         <v>941</v>
       </c>
     </row>
@@ -23522,13 +23528,13 @@
       <c r="B23" s="138" t="s">
         <v>942</v>
       </c>
-      <c r="C23" s="212"/>
+      <c r="C23" s="248"/>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="138" t="s">
         <v>943</v>
       </c>
-      <c r="C24" s="213"/>
+      <c r="C24" s="249"/>
     </row>
     <row r="25" spans="1:3" ht="30">
       <c r="B25" s="139" t="s">
@@ -23550,7 +23556,7 @@
       <c r="B27" s="139" t="s">
         <v>946</v>
       </c>
-      <c r="C27" s="211" t="s">
+      <c r="C27" s="247" t="s">
         <v>947</v>
       </c>
     </row>
@@ -23558,7 +23564,7 @@
       <c r="B28" s="139" t="s">
         <v>948</v>
       </c>
-      <c r="C28" s="213"/>
+      <c r="C28" s="249"/>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="140" t="s">
@@ -23573,19 +23579,19 @@
       <c r="C30" s="60"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="204" t="s">
+      <c r="B31" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="198"/>
+      <c r="C31" s="224"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="255" t="s">
+      <c r="B32" s="205" t="s">
         <v>951</v>
       </c>
       <c r="C32" s="58"/>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="239" t="s">
+      <c r="B33" s="191" t="s">
         <v>546</v>
       </c>
       <c r="C33" s="51"/>
@@ -23624,10 +23630,10 @@
       <c r="B38" s="118"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="204" t="s">
+      <c r="B39" s="238" t="s">
         <v>958</v>
       </c>
-      <c r="C39" s="198"/>
+      <c r="C39" s="224"/>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="144" t="s">
@@ -24928,16 +24934,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>903</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="147" t="s">
@@ -24976,10 +24982,10 @@
       <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="204" t="s">
+      <c r="B11" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="198"/>
+      <c r="C11" s="224"/>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="90" t="s">
@@ -26082,16 +26088,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="88" t="s">
@@ -26178,10 +26184,10 @@
       <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="198"/>
+      <c r="C18" s="224"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="94"/>
@@ -27246,112 +27252,112 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="259" t="s">
+      <c r="B2" s="250" t="s">
         <v>1045</v>
       </c>
-      <c r="C2" s="192"/>
+      <c r="C2" s="228"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="262" t="s">
+      <c r="B3" s="251" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="263"/>
+      <c r="C3" s="252"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="211" t="s">
         <v>1047</v>
       </c>
-      <c r="C4" s="272" t="s">
+      <c r="C4" s="219" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="265" t="s">
+      <c r="B5" s="212" t="s">
         <v>1049</v>
       </c>
-      <c r="C5" s="272" t="s">
+      <c r="C5" s="219" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="265" t="s">
+      <c r="B6" s="212" t="s">
         <v>1051</v>
       </c>
-      <c r="C6" s="272" t="s">
+      <c r="C6" s="219" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="266" t="s">
+      <c r="B7" s="213" t="s">
         <v>1053</v>
       </c>
-      <c r="C7" s="272" t="s">
+      <c r="C7" s="219" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="266" t="s">
+      <c r="B8" s="213" t="s">
         <v>1054</v>
       </c>
-      <c r="C8" s="273"/>
+      <c r="C8" s="220"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="268" t="s">
+      <c r="B9" s="215" t="s">
         <v>1056</v>
       </c>
-      <c r="C9" s="274" t="s">
+      <c r="C9" s="221" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="266" t="s">
+      <c r="B10" s="213" t="s">
         <v>1058</v>
       </c>
-      <c r="C10" s="272" t="s">
+      <c r="C10" s="219" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="269" t="s">
+      <c r="B11" s="216" t="s">
         <v>1060</v>
       </c>
-      <c r="C11" s="274" t="s">
+      <c r="C11" s="221" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="270" t="s">
+      <c r="B12" s="217" t="s">
         <v>1062</v>
       </c>
-      <c r="C12" s="274" t="s">
+      <c r="C12" s="221" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="267"/>
-      <c r="C13" s="271"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="218"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="267"/>
-      <c r="C14" s="245"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="195"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="267"/>
-      <c r="C15" s="245"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="195"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="260"/>
-      <c r="C16" s="261"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="210"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="198"/>
+      <c r="C18" s="224"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="94"/>
@@ -28423,10 +28429,10 @@
     <row r="1" spans="1:5" ht="1.5" customHeight="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="31"/>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
     </row>
@@ -31321,16 +31327,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>1063</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="155" t="s">
@@ -31421,10 +31427,10 @@
       <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="198"/>
+      <c r="C18" s="224"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="94"/>
@@ -32475,7 +32481,7 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -32490,16 +32496,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>1080</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="156" t="s">
@@ -32566,10 +32572,10 @@
       <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="198"/>
+      <c r="C18" s="224"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="94"/>
@@ -34654,906 +34660,906 @@
   <sheetData>
     <row r="1" spans="2:17" ht="1.5" customHeight="1"/>
     <row r="2" spans="2:17">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="253" t="s">
         <v>1089</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="215"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="254"/>
+      <c r="G2" s="254"/>
+      <c r="H2" s="254"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="254"/>
+      <c r="K2" s="254"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="254"/>
+      <c r="P2" s="254"/>
+      <c r="Q2" s="254"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1">
-      <c r="B3" s="215"/>
-      <c r="C3" s="215"/>
-      <c r="D3" s="215"/>
-      <c r="E3" s="215"/>
-      <c r="F3" s="215"/>
-      <c r="G3" s="215"/>
-      <c r="H3" s="215"/>
-      <c r="I3" s="215"/>
-      <c r="J3" s="215"/>
-      <c r="K3" s="215"/>
-      <c r="L3" s="215"/>
-      <c r="M3" s="215"/>
-      <c r="N3" s="215"/>
-      <c r="O3" s="215"/>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="215"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="254"/>
+      <c r="F3" s="254"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="254"/>
+      <c r="K3" s="254"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="254"/>
     </row>
     <row r="4" spans="2:17" ht="15" customHeight="1">
-      <c r="B4" s="215"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
-      <c r="F4" s="215"/>
-      <c r="G4" s="215"/>
-      <c r="H4" s="215"/>
-      <c r="I4" s="215"/>
-      <c r="J4" s="215"/>
-      <c r="K4" s="215"/>
-      <c r="L4" s="215"/>
-      <c r="M4" s="215"/>
-      <c r="N4" s="215"/>
-      <c r="O4" s="215"/>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="215"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="254"/>
+      <c r="H4" s="254"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="254"/>
+      <c r="N4" s="254"/>
+      <c r="O4" s="254"/>
+      <c r="P4" s="254"/>
+      <c r="Q4" s="254"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1">
-      <c r="B5" s="215"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="215"/>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
+      <c r="B5" s="254"/>
+      <c r="C5" s="254"/>
+      <c r="D5" s="254"/>
+      <c r="E5" s="254"/>
+      <c r="F5" s="254"/>
+      <c r="G5" s="254"/>
+      <c r="H5" s="254"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="254"/>
+      <c r="N5" s="254"/>
+      <c r="O5" s="254"/>
+      <c r="P5" s="254"/>
+      <c r="Q5" s="254"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1">
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="215"/>
-      <c r="I6" s="215"/>
-      <c r="J6" s="215"/>
-      <c r="K6" s="215"/>
-      <c r="L6" s="215"/>
-      <c r="M6" s="215"/>
-      <c r="N6" s="215"/>
-      <c r="O6" s="215"/>
-      <c r="P6" s="215"/>
-      <c r="Q6" s="215"/>
+      <c r="B6" s="254"/>
+      <c r="C6" s="254"/>
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="254"/>
+      <c r="G6" s="254"/>
+      <c r="H6" s="254"/>
+      <c r="I6" s="254"/>
+      <c r="J6" s="254"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="254"/>
+      <c r="M6" s="254"/>
+      <c r="N6" s="254"/>
+      <c r="O6" s="254"/>
+      <c r="P6" s="254"/>
+      <c r="Q6" s="254"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
+      <c r="B7" s="254"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="254"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="254"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="254"/>
+      <c r="P7" s="254"/>
+      <c r="Q7" s="254"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="215"/>
-      <c r="I8" s="215"/>
-      <c r="J8" s="215"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="215"/>
-      <c r="M8" s="215"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="215"/>
-      <c r="P8" s="215"/>
-      <c r="Q8" s="215"/>
+      <c r="B8" s="254"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="254"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="254"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="254"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
     </row>
     <row r="9" spans="2:17" ht="15" customHeight="1">
-      <c r="B9" s="215"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="215"/>
-      <c r="O9" s="215"/>
-      <c r="P9" s="215"/>
-      <c r="Q9" s="215"/>
+      <c r="B9" s="254"/>
+      <c r="C9" s="254"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="254"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="254"/>
+      <c r="I9" s="254"/>
+      <c r="J9" s="254"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="254"/>
+      <c r="M9" s="254"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="B10" s="215"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
-      <c r="P10" s="215"/>
-      <c r="Q10" s="215"/>
+      <c r="B10" s="254"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="254"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="254"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="B11" s="215"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="215"/>
-      <c r="K11" s="215"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="215"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="215"/>
+      <c r="B11" s="254"/>
+      <c r="C11" s="254"/>
+      <c r="D11" s="254"/>
+      <c r="E11" s="254"/>
+      <c r="F11" s="254"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="254"/>
+      <c r="I11" s="254"/>
+      <c r="J11" s="254"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="254"/>
+      <c r="M11" s="254"/>
+      <c r="N11" s="254"/>
+      <c r="O11" s="254"/>
+      <c r="P11" s="254"/>
+      <c r="Q11" s="254"/>
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1">
-      <c r="B12" s="215"/>
-      <c r="C12" s="215"/>
-      <c r="D12" s="215"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="215"/>
-      <c r="G12" s="215"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="215"/>
-      <c r="O12" s="215"/>
-      <c r="P12" s="215"/>
-      <c r="Q12" s="215"/>
+      <c r="B12" s="254"/>
+      <c r="C12" s="254"/>
+      <c r="D12" s="254"/>
+      <c r="E12" s="254"/>
+      <c r="F12" s="254"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="254"/>
+      <c r="I12" s="254"/>
+      <c r="J12" s="254"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="254"/>
+      <c r="M12" s="254"/>
+      <c r="N12" s="254"/>
+      <c r="O12" s="254"/>
+      <c r="P12" s="254"/>
+      <c r="Q12" s="254"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="B13" s="215"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="215"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="215"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="215"/>
-      <c r="N13" s="215"/>
-      <c r="O13" s="215"/>
-      <c r="P13" s="215"/>
-      <c r="Q13" s="215"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="254"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="254"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="254"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="254"/>
+      <c r="N13" s="254"/>
+      <c r="O13" s="254"/>
+      <c r="P13" s="254"/>
+      <c r="Q13" s="254"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="B14" s="215"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="215"/>
-      <c r="F14" s="215"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
-      <c r="I14" s="215"/>
-      <c r="J14" s="215"/>
-      <c r="K14" s="215"/>
-      <c r="L14" s="215"/>
-      <c r="M14" s="215"/>
-      <c r="N14" s="215"/>
-      <c r="O14" s="215"/>
-      <c r="P14" s="215"/>
-      <c r="Q14" s="215"/>
+      <c r="B14" s="254"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="254"/>
+      <c r="E14" s="254"/>
+      <c r="F14" s="254"/>
+      <c r="G14" s="254"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="254"/>
+      <c r="J14" s="254"/>
+      <c r="K14" s="254"/>
+      <c r="L14" s="254"/>
+      <c r="M14" s="254"/>
+      <c r="N14" s="254"/>
+      <c r="O14" s="254"/>
+      <c r="P14" s="254"/>
+      <c r="Q14" s="254"/>
     </row>
     <row r="15" spans="2:17" ht="15" customHeight="1">
-      <c r="B15" s="215"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="215"/>
-      <c r="J15" s="215"/>
-      <c r="K15" s="215"/>
-      <c r="L15" s="215"/>
-      <c r="M15" s="215"/>
-      <c r="N15" s="215"/>
-      <c r="O15" s="215"/>
-      <c r="P15" s="215"/>
-      <c r="Q15" s="215"/>
+      <c r="B15" s="254"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="254"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="254"/>
+      <c r="J15" s="254"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="254"/>
+      <c r="N15" s="254"/>
+      <c r="O15" s="254"/>
+      <c r="P15" s="254"/>
+      <c r="Q15" s="254"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="B16" s="215"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="215"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="215"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="215"/>
-      <c r="N16" s="215"/>
-      <c r="O16" s="215"/>
-      <c r="P16" s="215"/>
-      <c r="Q16" s="215"/>
+      <c r="B16" s="254"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="254"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="254"/>
+      <c r="J16" s="254"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="254"/>
+      <c r="M16" s="254"/>
+      <c r="N16" s="254"/>
+      <c r="O16" s="254"/>
+      <c r="P16" s="254"/>
+      <c r="Q16" s="254"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1">
-      <c r="B17" s="215"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="215"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="215"/>
-      <c r="J17" s="215"/>
-      <c r="K17" s="215"/>
-      <c r="L17" s="215"/>
-      <c r="M17" s="215"/>
-      <c r="N17" s="215"/>
-      <c r="O17" s="215"/>
-      <c r="P17" s="215"/>
-      <c r="Q17" s="215"/>
+      <c r="B17" s="254"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="254"/>
+      <c r="E17" s="254"/>
+      <c r="F17" s="254"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="254"/>
+      <c r="I17" s="254"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="254"/>
+      <c r="M17" s="254"/>
+      <c r="N17" s="254"/>
+      <c r="O17" s="254"/>
+      <c r="P17" s="254"/>
+      <c r="Q17" s="254"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1">
-      <c r="B18" s="215"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="215"/>
-      <c r="G18" s="215"/>
-      <c r="H18" s="215"/>
-      <c r="I18" s="215"/>
-      <c r="J18" s="215"/>
-      <c r="K18" s="215"/>
-      <c r="L18" s="215"/>
-      <c r="M18" s="215"/>
-      <c r="N18" s="215"/>
-      <c r="O18" s="215"/>
-      <c r="P18" s="215"/>
-      <c r="Q18" s="215"/>
+      <c r="B18" s="254"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="254"/>
+      <c r="E18" s="254"/>
+      <c r="F18" s="254"/>
+      <c r="G18" s="254"/>
+      <c r="H18" s="254"/>
+      <c r="I18" s="254"/>
+      <c r="J18" s="254"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="254"/>
+      <c r="M18" s="254"/>
+      <c r="N18" s="254"/>
+      <c r="O18" s="254"/>
+      <c r="P18" s="254"/>
+      <c r="Q18" s="254"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1">
-      <c r="B19" s="215"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="215"/>
-      <c r="N19" s="215"/>
-      <c r="O19" s="215"/>
-      <c r="P19" s="215"/>
-      <c r="Q19" s="215"/>
+      <c r="B19" s="254"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="254"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="254"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="254"/>
+      <c r="J19" s="254"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="254"/>
+      <c r="M19" s="254"/>
+      <c r="N19" s="254"/>
+      <c r="O19" s="254"/>
+      <c r="P19" s="254"/>
+      <c r="Q19" s="254"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1">
-      <c r="B20" s="215"/>
-      <c r="C20" s="215"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="215"/>
-      <c r="J20" s="215"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="215"/>
-      <c r="M20" s="215"/>
-      <c r="N20" s="215"/>
-      <c r="O20" s="215"/>
-      <c r="P20" s="215"/>
-      <c r="Q20" s="215"/>
+      <c r="B20" s="254"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="254"/>
+      <c r="E20" s="254"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="254"/>
+      <c r="H20" s="254"/>
+      <c r="I20" s="254"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="254"/>
+      <c r="M20" s="254"/>
+      <c r="N20" s="254"/>
+      <c r="O20" s="254"/>
+      <c r="P20" s="254"/>
+      <c r="Q20" s="254"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B21" s="215"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="215"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="215"/>
-      <c r="N21" s="215"/>
-      <c r="O21" s="215"/>
-      <c r="P21" s="215"/>
-      <c r="Q21" s="215"/>
+      <c r="B21" s="254"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="254"/>
+      <c r="E21" s="254"/>
+      <c r="F21" s="254"/>
+      <c r="G21" s="254"/>
+      <c r="H21" s="254"/>
+      <c r="I21" s="254"/>
+      <c r="J21" s="254"/>
+      <c r="K21" s="254"/>
+      <c r="L21" s="254"/>
+      <c r="M21" s="254"/>
+      <c r="N21" s="254"/>
+      <c r="O21" s="254"/>
+      <c r="P21" s="254"/>
+      <c r="Q21" s="254"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B22" s="215"/>
-      <c r="C22" s="215"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="215"/>
-      <c r="J22" s="215"/>
-      <c r="K22" s="215"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="215"/>
-      <c r="N22" s="215"/>
-      <c r="O22" s="215"/>
-      <c r="P22" s="215"/>
-      <c r="Q22" s="215"/>
+      <c r="B22" s="254"/>
+      <c r="C22" s="254"/>
+      <c r="D22" s="254"/>
+      <c r="E22" s="254"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="254"/>
+      <c r="H22" s="254"/>
+      <c r="I22" s="254"/>
+      <c r="J22" s="254"/>
+      <c r="K22" s="254"/>
+      <c r="L22" s="254"/>
+      <c r="M22" s="254"/>
+      <c r="N22" s="254"/>
+      <c r="O22" s="254"/>
+      <c r="P22" s="254"/>
+      <c r="Q22" s="254"/>
     </row>
     <row r="23" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B23" s="215"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="215"/>
-      <c r="J23" s="215"/>
-      <c r="K23" s="215"/>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="215"/>
-      <c r="O23" s="215"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="215"/>
+      <c r="B23" s="254"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="254"/>
+      <c r="E23" s="254"/>
+      <c r="F23" s="254"/>
+      <c r="G23" s="254"/>
+      <c r="H23" s="254"/>
+      <c r="I23" s="254"/>
+      <c r="J23" s="254"/>
+      <c r="K23" s="254"/>
+      <c r="L23" s="254"/>
+      <c r="M23" s="254"/>
+      <c r="N23" s="254"/>
+      <c r="O23" s="254"/>
+      <c r="P23" s="254"/>
+      <c r="Q23" s="254"/>
     </row>
     <row r="24" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B24" s="215"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="215"/>
-      <c r="G24" s="215"/>
-      <c r="H24" s="215"/>
-      <c r="I24" s="215"/>
-      <c r="J24" s="215"/>
-      <c r="K24" s="215"/>
-      <c r="L24" s="215"/>
-      <c r="M24" s="215"/>
-      <c r="N24" s="215"/>
-      <c r="O24" s="215"/>
-      <c r="P24" s="215"/>
-      <c r="Q24" s="215"/>
+      <c r="B24" s="254"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="254"/>
+      <c r="E24" s="254"/>
+      <c r="F24" s="254"/>
+      <c r="G24" s="254"/>
+      <c r="H24" s="254"/>
+      <c r="I24" s="254"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="254"/>
+      <c r="L24" s="254"/>
+      <c r="M24" s="254"/>
+      <c r="N24" s="254"/>
+      <c r="O24" s="254"/>
+      <c r="P24" s="254"/>
+      <c r="Q24" s="254"/>
     </row>
     <row r="25" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B25" s="215"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="215"/>
-      <c r="M25" s="215"/>
-      <c r="N25" s="215"/>
-      <c r="O25" s="215"/>
-      <c r="P25" s="215"/>
-      <c r="Q25" s="215"/>
+      <c r="B25" s="254"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="254"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="254"/>
+      <c r="J25" s="254"/>
+      <c r="K25" s="254"/>
+      <c r="L25" s="254"/>
+      <c r="M25" s="254"/>
+      <c r="N25" s="254"/>
+      <c r="O25" s="254"/>
+      <c r="P25" s="254"/>
+      <c r="Q25" s="254"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B26" s="215"/>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="215"/>
-      <c r="O26" s="215"/>
-      <c r="P26" s="215"/>
-      <c r="Q26" s="215"/>
+      <c r="B26" s="254"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="254"/>
+      <c r="F26" s="254"/>
+      <c r="G26" s="254"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="254"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="254"/>
+      <c r="M26" s="254"/>
+      <c r="N26" s="254"/>
+      <c r="O26" s="254"/>
+      <c r="P26" s="254"/>
+      <c r="Q26" s="254"/>
     </row>
     <row r="27" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B27" s="215"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="215"/>
-      <c r="K27" s="215"/>
-      <c r="L27" s="215"/>
-      <c r="M27" s="215"/>
-      <c r="N27" s="215"/>
-      <c r="O27" s="215"/>
-      <c r="P27" s="215"/>
-      <c r="Q27" s="215"/>
+      <c r="B27" s="254"/>
+      <c r="C27" s="254"/>
+      <c r="D27" s="254"/>
+      <c r="E27" s="254"/>
+      <c r="F27" s="254"/>
+      <c r="G27" s="254"/>
+      <c r="H27" s="254"/>
+      <c r="I27" s="254"/>
+      <c r="J27" s="254"/>
+      <c r="K27" s="254"/>
+      <c r="L27" s="254"/>
+      <c r="M27" s="254"/>
+      <c r="N27" s="254"/>
+      <c r="O27" s="254"/>
+      <c r="P27" s="254"/>
+      <c r="Q27" s="254"/>
     </row>
     <row r="28" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B28" s="215"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="215"/>
-      <c r="I28" s="215"/>
-      <c r="J28" s="215"/>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
-      <c r="M28" s="215"/>
-      <c r="N28" s="215"/>
-      <c r="O28" s="215"/>
-      <c r="P28" s="215"/>
-      <c r="Q28" s="215"/>
+      <c r="B28" s="254"/>
+      <c r="C28" s="254"/>
+      <c r="D28" s="254"/>
+      <c r="E28" s="254"/>
+      <c r="F28" s="254"/>
+      <c r="G28" s="254"/>
+      <c r="H28" s="254"/>
+      <c r="I28" s="254"/>
+      <c r="J28" s="254"/>
+      <c r="K28" s="254"/>
+      <c r="L28" s="254"/>
+      <c r="M28" s="254"/>
+      <c r="N28" s="254"/>
+      <c r="O28" s="254"/>
+      <c r="P28" s="254"/>
+      <c r="Q28" s="254"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B29" s="215"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="215"/>
-      <c r="G29" s="215"/>
-      <c r="H29" s="215"/>
-      <c r="I29" s="215"/>
-      <c r="J29" s="215"/>
-      <c r="K29" s="215"/>
-      <c r="L29" s="215"/>
-      <c r="M29" s="215"/>
-      <c r="N29" s="215"/>
-      <c r="O29" s="215"/>
-      <c r="P29" s="215"/>
-      <c r="Q29" s="215"/>
+      <c r="B29" s="254"/>
+      <c r="C29" s="254"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="254"/>
+      <c r="F29" s="254"/>
+      <c r="G29" s="254"/>
+      <c r="H29" s="254"/>
+      <c r="I29" s="254"/>
+      <c r="J29" s="254"/>
+      <c r="K29" s="254"/>
+      <c r="L29" s="254"/>
+      <c r="M29" s="254"/>
+      <c r="N29" s="254"/>
+      <c r="O29" s="254"/>
+      <c r="P29" s="254"/>
+      <c r="Q29" s="254"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B30" s="215"/>
-      <c r="C30" s="215"/>
-      <c r="D30" s="215"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="215"/>
-      <c r="G30" s="215"/>
-      <c r="H30" s="215"/>
-      <c r="I30" s="215"/>
-      <c r="J30" s="215"/>
-      <c r="K30" s="215"/>
-      <c r="L30" s="215"/>
-      <c r="M30" s="215"/>
-      <c r="N30" s="215"/>
-      <c r="O30" s="215"/>
-      <c r="P30" s="215"/>
-      <c r="Q30" s="215"/>
+      <c r="B30" s="254"/>
+      <c r="C30" s="254"/>
+      <c r="D30" s="254"/>
+      <c r="E30" s="254"/>
+      <c r="F30" s="254"/>
+      <c r="G30" s="254"/>
+      <c r="H30" s="254"/>
+      <c r="I30" s="254"/>
+      <c r="J30" s="254"/>
+      <c r="K30" s="254"/>
+      <c r="L30" s="254"/>
+      <c r="M30" s="254"/>
+      <c r="N30" s="254"/>
+      <c r="O30" s="254"/>
+      <c r="P30" s="254"/>
+      <c r="Q30" s="254"/>
     </row>
     <row r="31" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B31" s="215"/>
-      <c r="C31" s="215"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="215"/>
-      <c r="I31" s="215"/>
-      <c r="J31" s="215"/>
-      <c r="K31" s="215"/>
-      <c r="L31" s="215"/>
-      <c r="M31" s="215"/>
-      <c r="N31" s="215"/>
-      <c r="O31" s="215"/>
-      <c r="P31" s="215"/>
-      <c r="Q31" s="215"/>
+      <c r="B31" s="254"/>
+      <c r="C31" s="254"/>
+      <c r="D31" s="254"/>
+      <c r="E31" s="254"/>
+      <c r="F31" s="254"/>
+      <c r="G31" s="254"/>
+      <c r="H31" s="254"/>
+      <c r="I31" s="254"/>
+      <c r="J31" s="254"/>
+      <c r="K31" s="254"/>
+      <c r="L31" s="254"/>
+      <c r="M31" s="254"/>
+      <c r="N31" s="254"/>
+      <c r="O31" s="254"/>
+      <c r="P31" s="254"/>
+      <c r="Q31" s="254"/>
     </row>
     <row r="32" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B32" s="215"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="215"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="215"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="215"/>
-      <c r="J32" s="215"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="215"/>
-      <c r="M32" s="215"/>
-      <c r="N32" s="215"/>
-      <c r="O32" s="215"/>
-      <c r="P32" s="215"/>
-      <c r="Q32" s="215"/>
+      <c r="B32" s="254"/>
+      <c r="C32" s="254"/>
+      <c r="D32" s="254"/>
+      <c r="E32" s="254"/>
+      <c r="F32" s="254"/>
+      <c r="G32" s="254"/>
+      <c r="H32" s="254"/>
+      <c r="I32" s="254"/>
+      <c r="J32" s="254"/>
+      <c r="K32" s="254"/>
+      <c r="L32" s="254"/>
+      <c r="M32" s="254"/>
+      <c r="N32" s="254"/>
+      <c r="O32" s="254"/>
+      <c r="P32" s="254"/>
+      <c r="Q32" s="254"/>
     </row>
     <row r="33" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B33" s="215"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="215"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="215"/>
-      <c r="M33" s="215"/>
-      <c r="N33" s="215"/>
-      <c r="O33" s="215"/>
-      <c r="P33" s="215"/>
-      <c r="Q33" s="215"/>
+      <c r="B33" s="254"/>
+      <c r="C33" s="254"/>
+      <c r="D33" s="254"/>
+      <c r="E33" s="254"/>
+      <c r="F33" s="254"/>
+      <c r="G33" s="254"/>
+      <c r="H33" s="254"/>
+      <c r="I33" s="254"/>
+      <c r="J33" s="254"/>
+      <c r="K33" s="254"/>
+      <c r="L33" s="254"/>
+      <c r="M33" s="254"/>
+      <c r="N33" s="254"/>
+      <c r="O33" s="254"/>
+      <c r="P33" s="254"/>
+      <c r="Q33" s="254"/>
     </row>
     <row r="34" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B34" s="215"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="215"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="215"/>
-      <c r="K34" s="215"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="215"/>
-      <c r="N34" s="215"/>
-      <c r="O34" s="215"/>
-      <c r="P34" s="215"/>
-      <c r="Q34" s="215"/>
+      <c r="B34" s="254"/>
+      <c r="C34" s="254"/>
+      <c r="D34" s="254"/>
+      <c r="E34" s="254"/>
+      <c r="F34" s="254"/>
+      <c r="G34" s="254"/>
+      <c r="H34" s="254"/>
+      <c r="I34" s="254"/>
+      <c r="J34" s="254"/>
+      <c r="K34" s="254"/>
+      <c r="L34" s="254"/>
+      <c r="M34" s="254"/>
+      <c r="N34" s="254"/>
+      <c r="O34" s="254"/>
+      <c r="P34" s="254"/>
+      <c r="Q34" s="254"/>
     </row>
     <row r="35" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B35" s="215"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="215"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="215"/>
-      <c r="L35" s="215"/>
-      <c r="M35" s="215"/>
-      <c r="N35" s="215"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
-      <c r="Q35" s="215"/>
+      <c r="B35" s="254"/>
+      <c r="C35" s="254"/>
+      <c r="D35" s="254"/>
+      <c r="E35" s="254"/>
+      <c r="F35" s="254"/>
+      <c r="G35" s="254"/>
+      <c r="H35" s="254"/>
+      <c r="I35" s="254"/>
+      <c r="J35" s="254"/>
+      <c r="K35" s="254"/>
+      <c r="L35" s="254"/>
+      <c r="M35" s="254"/>
+      <c r="N35" s="254"/>
+      <c r="O35" s="254"/>
+      <c r="P35" s="254"/>
+      <c r="Q35" s="254"/>
     </row>
     <row r="36" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B36" s="215"/>
-      <c r="C36" s="215"/>
-      <c r="D36" s="215"/>
-      <c r="E36" s="215"/>
-      <c r="F36" s="215"/>
-      <c r="G36" s="215"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="215"/>
-      <c r="K36" s="215"/>
-      <c r="L36" s="215"/>
-      <c r="M36" s="215"/>
-      <c r="N36" s="215"/>
-      <c r="O36" s="215"/>
-      <c r="P36" s="215"/>
-      <c r="Q36" s="215"/>
+      <c r="B36" s="254"/>
+      <c r="C36" s="254"/>
+      <c r="D36" s="254"/>
+      <c r="E36" s="254"/>
+      <c r="F36" s="254"/>
+      <c r="G36" s="254"/>
+      <c r="H36" s="254"/>
+      <c r="I36" s="254"/>
+      <c r="J36" s="254"/>
+      <c r="K36" s="254"/>
+      <c r="L36" s="254"/>
+      <c r="M36" s="254"/>
+      <c r="N36" s="254"/>
+      <c r="O36" s="254"/>
+      <c r="P36" s="254"/>
+      <c r="Q36" s="254"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B37" s="215"/>
-      <c r="C37" s="215"/>
-      <c r="D37" s="215"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="215"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="215"/>
-      <c r="M37" s="215"/>
-      <c r="N37" s="215"/>
-      <c r="O37" s="215"/>
-      <c r="P37" s="215"/>
-      <c r="Q37" s="215"/>
+      <c r="B37" s="254"/>
+      <c r="C37" s="254"/>
+      <c r="D37" s="254"/>
+      <c r="E37" s="254"/>
+      <c r="F37" s="254"/>
+      <c r="G37" s="254"/>
+      <c r="H37" s="254"/>
+      <c r="I37" s="254"/>
+      <c r="J37" s="254"/>
+      <c r="K37" s="254"/>
+      <c r="L37" s="254"/>
+      <c r="M37" s="254"/>
+      <c r="N37" s="254"/>
+      <c r="O37" s="254"/>
+      <c r="P37" s="254"/>
+      <c r="Q37" s="254"/>
     </row>
     <row r="38" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B38" s="215"/>
-      <c r="C38" s="215"/>
-      <c r="D38" s="215"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="215"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="215"/>
-      <c r="K38" s="215"/>
-      <c r="L38" s="215"/>
-      <c r="M38" s="215"/>
-      <c r="N38" s="215"/>
-      <c r="O38" s="215"/>
-      <c r="P38" s="215"/>
-      <c r="Q38" s="215"/>
+      <c r="B38" s="254"/>
+      <c r="C38" s="254"/>
+      <c r="D38" s="254"/>
+      <c r="E38" s="254"/>
+      <c r="F38" s="254"/>
+      <c r="G38" s="254"/>
+      <c r="H38" s="254"/>
+      <c r="I38" s="254"/>
+      <c r="J38" s="254"/>
+      <c r="K38" s="254"/>
+      <c r="L38" s="254"/>
+      <c r="M38" s="254"/>
+      <c r="N38" s="254"/>
+      <c r="O38" s="254"/>
+      <c r="P38" s="254"/>
+      <c r="Q38" s="254"/>
     </row>
     <row r="39" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B39" s="215"/>
-      <c r="C39" s="215"/>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="215"/>
-      <c r="K39" s="215"/>
-      <c r="L39" s="215"/>
-      <c r="M39" s="215"/>
-      <c r="N39" s="215"/>
-      <c r="O39" s="215"/>
-      <c r="P39" s="215"/>
-      <c r="Q39" s="215"/>
+      <c r="B39" s="254"/>
+      <c r="C39" s="254"/>
+      <c r="D39" s="254"/>
+      <c r="E39" s="254"/>
+      <c r="F39" s="254"/>
+      <c r="G39" s="254"/>
+      <c r="H39" s="254"/>
+      <c r="I39" s="254"/>
+      <c r="J39" s="254"/>
+      <c r="K39" s="254"/>
+      <c r="L39" s="254"/>
+      <c r="M39" s="254"/>
+      <c r="N39" s="254"/>
+      <c r="O39" s="254"/>
+      <c r="P39" s="254"/>
+      <c r="Q39" s="254"/>
     </row>
     <row r="40" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B40" s="215"/>
-      <c r="C40" s="215"/>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
-      <c r="F40" s="215"/>
-      <c r="G40" s="215"/>
-      <c r="H40" s="215"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="215"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="215"/>
-      <c r="M40" s="215"/>
-      <c r="N40" s="215"/>
-      <c r="O40" s="215"/>
-      <c r="P40" s="215"/>
-      <c r="Q40" s="215"/>
+      <c r="B40" s="254"/>
+      <c r="C40" s="254"/>
+      <c r="D40" s="254"/>
+      <c r="E40" s="254"/>
+      <c r="F40" s="254"/>
+      <c r="G40" s="254"/>
+      <c r="H40" s="254"/>
+      <c r="I40" s="254"/>
+      <c r="J40" s="254"/>
+      <c r="K40" s="254"/>
+      <c r="L40" s="254"/>
+      <c r="M40" s="254"/>
+      <c r="N40" s="254"/>
+      <c r="O40" s="254"/>
+      <c r="P40" s="254"/>
+      <c r="Q40" s="254"/>
     </row>
     <row r="41" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B41" s="215"/>
-      <c r="C41" s="215"/>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="215"/>
-      <c r="H41" s="215"/>
-      <c r="I41" s="215"/>
-      <c r="J41" s="215"/>
-      <c r="K41" s="215"/>
-      <c r="L41" s="215"/>
-      <c r="M41" s="215"/>
-      <c r="N41" s="215"/>
-      <c r="O41" s="215"/>
-      <c r="P41" s="215"/>
-      <c r="Q41" s="215"/>
+      <c r="B41" s="254"/>
+      <c r="C41" s="254"/>
+      <c r="D41" s="254"/>
+      <c r="E41" s="254"/>
+      <c r="F41" s="254"/>
+      <c r="G41" s="254"/>
+      <c r="H41" s="254"/>
+      <c r="I41" s="254"/>
+      <c r="J41" s="254"/>
+      <c r="K41" s="254"/>
+      <c r="L41" s="254"/>
+      <c r="M41" s="254"/>
+      <c r="N41" s="254"/>
+      <c r="O41" s="254"/>
+      <c r="P41" s="254"/>
+      <c r="Q41" s="254"/>
     </row>
     <row r="42" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B42" s="215"/>
-      <c r="C42" s="215"/>
-      <c r="D42" s="215"/>
-      <c r="E42" s="215"/>
-      <c r="F42" s="215"/>
-      <c r="G42" s="215"/>
-      <c r="H42" s="215"/>
-      <c r="I42" s="215"/>
-      <c r="J42" s="215"/>
-      <c r="K42" s="215"/>
-      <c r="L42" s="215"/>
-      <c r="M42" s="215"/>
-      <c r="N42" s="215"/>
-      <c r="O42" s="215"/>
-      <c r="P42" s="215"/>
-      <c r="Q42" s="215"/>
+      <c r="B42" s="254"/>
+      <c r="C42" s="254"/>
+      <c r="D42" s="254"/>
+      <c r="E42" s="254"/>
+      <c r="F42" s="254"/>
+      <c r="G42" s="254"/>
+      <c r="H42" s="254"/>
+      <c r="I42" s="254"/>
+      <c r="J42" s="254"/>
+      <c r="K42" s="254"/>
+      <c r="L42" s="254"/>
+      <c r="M42" s="254"/>
+      <c r="N42" s="254"/>
+      <c r="O42" s="254"/>
+      <c r="P42" s="254"/>
+      <c r="Q42" s="254"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B43" s="215"/>
-      <c r="C43" s="215"/>
-      <c r="D43" s="215"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="215"/>
-      <c r="G43" s="215"/>
-      <c r="H43" s="215"/>
-      <c r="I43" s="215"/>
-      <c r="J43" s="215"/>
-      <c r="K43" s="215"/>
-      <c r="L43" s="215"/>
-      <c r="M43" s="215"/>
-      <c r="N43" s="215"/>
-      <c r="O43" s="215"/>
-      <c r="P43" s="215"/>
-      <c r="Q43" s="215"/>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="254"/>
+      <c r="E43" s="254"/>
+      <c r="F43" s="254"/>
+      <c r="G43" s="254"/>
+      <c r="H43" s="254"/>
+      <c r="I43" s="254"/>
+      <c r="J43" s="254"/>
+      <c r="K43" s="254"/>
+      <c r="L43" s="254"/>
+      <c r="M43" s="254"/>
+      <c r="N43" s="254"/>
+      <c r="O43" s="254"/>
+      <c r="P43" s="254"/>
+      <c r="Q43" s="254"/>
     </row>
     <row r="44" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B44" s="215"/>
-      <c r="C44" s="215"/>
-      <c r="D44" s="215"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="215"/>
-      <c r="G44" s="215"/>
-      <c r="H44" s="215"/>
-      <c r="I44" s="215"/>
-      <c r="J44" s="215"/>
-      <c r="K44" s="215"/>
-      <c r="L44" s="215"/>
-      <c r="M44" s="215"/>
-      <c r="N44" s="215"/>
-      <c r="O44" s="215"/>
-      <c r="P44" s="215"/>
-      <c r="Q44" s="215"/>
+      <c r="B44" s="254"/>
+      <c r="C44" s="254"/>
+      <c r="D44" s="254"/>
+      <c r="E44" s="254"/>
+      <c r="F44" s="254"/>
+      <c r="G44" s="254"/>
+      <c r="H44" s="254"/>
+      <c r="I44" s="254"/>
+      <c r="J44" s="254"/>
+      <c r="K44" s="254"/>
+      <c r="L44" s="254"/>
+      <c r="M44" s="254"/>
+      <c r="N44" s="254"/>
+      <c r="O44" s="254"/>
+      <c r="P44" s="254"/>
+      <c r="Q44" s="254"/>
     </row>
     <row r="45" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B45" s="215"/>
-      <c r="C45" s="215"/>
-      <c r="D45" s="215"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="215"/>
-      <c r="G45" s="215"/>
-      <c r="H45" s="215"/>
-      <c r="I45" s="215"/>
-      <c r="J45" s="215"/>
-      <c r="K45" s="215"/>
-      <c r="L45" s="215"/>
-      <c r="M45" s="215"/>
-      <c r="N45" s="215"/>
-      <c r="O45" s="215"/>
-      <c r="P45" s="215"/>
-      <c r="Q45" s="215"/>
+      <c r="B45" s="254"/>
+      <c r="C45" s="254"/>
+      <c r="D45" s="254"/>
+      <c r="E45" s="254"/>
+      <c r="F45" s="254"/>
+      <c r="G45" s="254"/>
+      <c r="H45" s="254"/>
+      <c r="I45" s="254"/>
+      <c r="J45" s="254"/>
+      <c r="K45" s="254"/>
+      <c r="L45" s="254"/>
+      <c r="M45" s="254"/>
+      <c r="N45" s="254"/>
+      <c r="O45" s="254"/>
+      <c r="P45" s="254"/>
+      <c r="Q45" s="254"/>
     </row>
     <row r="46" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B46" s="215"/>
-      <c r="C46" s="215"/>
-      <c r="D46" s="215"/>
-      <c r="E46" s="215"/>
-      <c r="F46" s="215"/>
-      <c r="G46" s="215"/>
-      <c r="H46" s="215"/>
-      <c r="I46" s="215"/>
-      <c r="J46" s="215"/>
-      <c r="K46" s="215"/>
-      <c r="L46" s="215"/>
-      <c r="M46" s="215"/>
-      <c r="N46" s="215"/>
-      <c r="O46" s="215"/>
-      <c r="P46" s="215"/>
-      <c r="Q46" s="215"/>
+      <c r="B46" s="254"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="254"/>
+      <c r="F46" s="254"/>
+      <c r="G46" s="254"/>
+      <c r="H46" s="254"/>
+      <c r="I46" s="254"/>
+      <c r="J46" s="254"/>
+      <c r="K46" s="254"/>
+      <c r="L46" s="254"/>
+      <c r="M46" s="254"/>
+      <c r="N46" s="254"/>
+      <c r="O46" s="254"/>
+      <c r="P46" s="254"/>
+      <c r="Q46" s="254"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B47" s="215"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="215"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="215"/>
-      <c r="J47" s="215"/>
-      <c r="K47" s="215"/>
-      <c r="L47" s="215"/>
-      <c r="M47" s="215"/>
-      <c r="N47" s="215"/>
-      <c r="O47" s="215"/>
-      <c r="P47" s="215"/>
-      <c r="Q47" s="215"/>
+      <c r="B47" s="254"/>
+      <c r="C47" s="254"/>
+      <c r="D47" s="254"/>
+      <c r="E47" s="254"/>
+      <c r="F47" s="254"/>
+      <c r="G47" s="254"/>
+      <c r="H47" s="254"/>
+      <c r="I47" s="254"/>
+      <c r="J47" s="254"/>
+      <c r="K47" s="254"/>
+      <c r="L47" s="254"/>
+      <c r="M47" s="254"/>
+      <c r="N47" s="254"/>
+      <c r="O47" s="254"/>
+      <c r="P47" s="254"/>
+      <c r="Q47" s="254"/>
     </row>
     <row r="48" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B48" s="215"/>
-      <c r="C48" s="215"/>
-      <c r="D48" s="215"/>
-      <c r="E48" s="215"/>
-      <c r="F48" s="215"/>
-      <c r="G48" s="215"/>
-      <c r="H48" s="215"/>
-      <c r="I48" s="215"/>
-      <c r="J48" s="215"/>
-      <c r="K48" s="215"/>
-      <c r="L48" s="215"/>
-      <c r="M48" s="215"/>
-      <c r="N48" s="215"/>
-      <c r="O48" s="215"/>
-      <c r="P48" s="215"/>
-      <c r="Q48" s="215"/>
+      <c r="B48" s="254"/>
+      <c r="C48" s="254"/>
+      <c r="D48" s="254"/>
+      <c r="E48" s="254"/>
+      <c r="F48" s="254"/>
+      <c r="G48" s="254"/>
+      <c r="H48" s="254"/>
+      <c r="I48" s="254"/>
+      <c r="J48" s="254"/>
+      <c r="K48" s="254"/>
+      <c r="L48" s="254"/>
+      <c r="M48" s="254"/>
+      <c r="N48" s="254"/>
+      <c r="O48" s="254"/>
+      <c r="P48" s="254"/>
+      <c r="Q48" s="254"/>
     </row>
     <row r="49" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B49" s="215"/>
-      <c r="C49" s="215"/>
-      <c r="D49" s="215"/>
-      <c r="E49" s="215"/>
-      <c r="F49" s="215"/>
-      <c r="G49" s="215"/>
-      <c r="H49" s="215"/>
-      <c r="I49" s="215"/>
-      <c r="J49" s="215"/>
-      <c r="K49" s="215"/>
-      <c r="L49" s="215"/>
-      <c r="M49" s="215"/>
-      <c r="N49" s="215"/>
-      <c r="O49" s="215"/>
-      <c r="P49" s="215"/>
-      <c r="Q49" s="215"/>
+      <c r="B49" s="254"/>
+      <c r="C49" s="254"/>
+      <c r="D49" s="254"/>
+      <c r="E49" s="254"/>
+      <c r="F49" s="254"/>
+      <c r="G49" s="254"/>
+      <c r="H49" s="254"/>
+      <c r="I49" s="254"/>
+      <c r="J49" s="254"/>
+      <c r="K49" s="254"/>
+      <c r="L49" s="254"/>
+      <c r="M49" s="254"/>
+      <c r="N49" s="254"/>
+      <c r="O49" s="254"/>
+      <c r="P49" s="254"/>
+      <c r="Q49" s="254"/>
     </row>
     <row r="50" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B50" s="215"/>
-      <c r="C50" s="215"/>
-      <c r="D50" s="215"/>
-      <c r="E50" s="215"/>
-      <c r="F50" s="215"/>
-      <c r="G50" s="215"/>
-      <c r="H50" s="215"/>
-      <c r="I50" s="215"/>
-      <c r="J50" s="215"/>
-      <c r="K50" s="215"/>
-      <c r="L50" s="215"/>
-      <c r="M50" s="215"/>
-      <c r="N50" s="215"/>
-      <c r="O50" s="215"/>
-      <c r="P50" s="215"/>
-      <c r="Q50" s="215"/>
+      <c r="B50" s="254"/>
+      <c r="C50" s="254"/>
+      <c r="D50" s="254"/>
+      <c r="E50" s="254"/>
+      <c r="F50" s="254"/>
+      <c r="G50" s="254"/>
+      <c r="H50" s="254"/>
+      <c r="I50" s="254"/>
+      <c r="J50" s="254"/>
+      <c r="K50" s="254"/>
+      <c r="L50" s="254"/>
+      <c r="M50" s="254"/>
+      <c r="N50" s="254"/>
+      <c r="O50" s="254"/>
+      <c r="P50" s="254"/>
+      <c r="Q50" s="254"/>
     </row>
     <row r="51" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B51" s="215"/>
-      <c r="C51" s="215"/>
-      <c r="D51" s="215"/>
-      <c r="E51" s="215"/>
-      <c r="F51" s="215"/>
-      <c r="G51" s="215"/>
-      <c r="H51" s="215"/>
-      <c r="I51" s="215"/>
-      <c r="J51" s="215"/>
-      <c r="K51" s="215"/>
-      <c r="L51" s="215"/>
-      <c r="M51" s="215"/>
-      <c r="N51" s="215"/>
-      <c r="O51" s="215"/>
-      <c r="P51" s="215"/>
-      <c r="Q51" s="215"/>
+      <c r="B51" s="254"/>
+      <c r="C51" s="254"/>
+      <c r="D51" s="254"/>
+      <c r="E51" s="254"/>
+      <c r="F51" s="254"/>
+      <c r="G51" s="254"/>
+      <c r="H51" s="254"/>
+      <c r="I51" s="254"/>
+      <c r="J51" s="254"/>
+      <c r="K51" s="254"/>
+      <c r="L51" s="254"/>
+      <c r="M51" s="254"/>
+      <c r="N51" s="254"/>
+      <c r="O51" s="254"/>
+      <c r="P51" s="254"/>
+      <c r="Q51" s="254"/>
     </row>
     <row r="52" spans="2:17" ht="15.75" customHeight="1"/>
     <row r="53" spans="2:17" ht="15.75" customHeight="1"/>
@@ -36531,12 +36537,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="1.5" customHeight="1"/>
     <row r="2" spans="2:5">
-      <c r="B2" s="216" t="s">
+      <c r="B2" s="255" t="s">
         <v>1090</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="224"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="166" t="s">
@@ -36739,12 +36745,12 @@
       <c r="E19" s="170"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="219" t="s">
+      <c r="B20" s="258" t="s">
         <v>1124</v>
       </c>
-      <c r="C20" s="197"/>
-      <c r="D20" s="197"/>
-      <c r="E20" s="198"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="224"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1">
       <c r="B21" s="167" t="s">
@@ -36867,82 +36873,82 @@
       <c r="E31" s="170"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B32" s="219" t="s">
+      <c r="B32" s="258" t="s">
         <v>1138</v>
       </c>
-      <c r="C32" s="197"/>
-      <c r="D32" s="197"/>
-      <c r="E32" s="198"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="223"/>
+      <c r="E32" s="224"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1">
       <c r="B33" s="167" t="s">
         <v>1139</v>
       </c>
-      <c r="C33" s="220" t="s">
+      <c r="C33" s="259" t="s">
         <v>1140</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="198"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="224"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1">
       <c r="B34" s="167"/>
-      <c r="C34" s="220" t="s">
+      <c r="C34" s="259" t="s">
         <v>1141</v>
       </c>
-      <c r="D34" s="197"/>
-      <c r="E34" s="198"/>
+      <c r="D34" s="223"/>
+      <c r="E34" s="224"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" customHeight="1">
       <c r="B35" s="167"/>
-      <c r="C35" s="220" t="s">
+      <c r="C35" s="259" t="s">
         <v>1142</v>
       </c>
-      <c r="D35" s="197"/>
-      <c r="E35" s="198"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="224"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" customHeight="1">
       <c r="B36" s="167"/>
-      <c r="C36" s="220" t="s">
+      <c r="C36" s="259" t="s">
         <v>1143</v>
       </c>
-      <c r="D36" s="197"/>
-      <c r="E36" s="198"/>
+      <c r="D36" s="223"/>
+      <c r="E36" s="224"/>
     </row>
     <row r="37" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B37" s="216" t="s">
+      <c r="B37" s="255" t="s">
         <v>1144</v>
       </c>
-      <c r="C37" s="197"/>
-      <c r="D37" s="197"/>
-      <c r="E37" s="198"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="223"/>
+      <c r="E37" s="224"/>
     </row>
     <row r="38" spans="2:5" ht="15.75" customHeight="1">
       <c r="B38" s="167" t="s">
         <v>1144</v>
       </c>
-      <c r="C38" s="217" t="s">
+      <c r="C38" s="256" t="s">
         <v>1145</v>
       </c>
-      <c r="D38" s="197"/>
-      <c r="E38" s="198"/>
+      <c r="D38" s="223"/>
+      <c r="E38" s="224"/>
     </row>
     <row r="39" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B39" s="216" t="s">
+      <c r="B39" s="255" t="s">
         <v>1146</v>
       </c>
-      <c r="C39" s="197"/>
-      <c r="D39" s="197"/>
-      <c r="E39" s="198"/>
+      <c r="C39" s="223"/>
+      <c r="D39" s="223"/>
+      <c r="E39" s="224"/>
     </row>
     <row r="40" spans="2:5" ht="15.75" customHeight="1">
       <c r="B40" s="167" t="s">
         <v>1146</v>
       </c>
-      <c r="C40" s="218" t="s">
+      <c r="C40" s="257" t="s">
         <v>860</v>
       </c>
-      <c r="D40" s="215"/>
-      <c r="E40" s="215"/>
+      <c r="D40" s="254"/>
+      <c r="E40" s="254"/>
     </row>
     <row r="41" spans="2:5" ht="15.75" customHeight="1">
       <c r="B41" s="175"/>
@@ -37977,11 +37983,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="1.5" customHeight="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="260" t="s">
         <v>1147</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="198"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="224"/>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="166" t="s">
@@ -38105,9 +38111,9 @@
       <c r="D19" s="170"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="223"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="198"/>
+      <c r="B20" s="262"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="224"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1">
       <c r="B21" s="167"/>
@@ -38165,39 +38171,39 @@
       <c r="D31" s="170"/>
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B32" s="223"/>
-      <c r="C32" s="197"/>
-      <c r="D32" s="198"/>
+      <c r="B32" s="262"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="224"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1">
       <c r="B33" s="167"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="198"/>
+      <c r="C33" s="263"/>
+      <c r="D33" s="224"/>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1">
       <c r="B34" s="167"/>
-      <c r="C34" s="224"/>
-      <c r="D34" s="198"/>
+      <c r="C34" s="263"/>
+      <c r="D34" s="224"/>
     </row>
     <row r="35" spans="2:4" ht="15.75" customHeight="1">
       <c r="B35" s="167"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="198"/>
+      <c r="C35" s="263"/>
+      <c r="D35" s="224"/>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1">
       <c r="B36" s="167"/>
-      <c r="C36" s="224"/>
-      <c r="D36" s="198"/>
+      <c r="C36" s="263"/>
+      <c r="D36" s="224"/>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B37" s="221"/>
-      <c r="C37" s="197"/>
-      <c r="D37" s="198"/>
+      <c r="B37" s="260"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="224"/>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1">
       <c r="B38" s="167"/>
-      <c r="C38" s="222"/>
-      <c r="D38" s="198"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="224"/>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:4" ht="15.75" customHeight="1"/>
@@ -39205,12 +39211,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="1.5" customHeight="1"/>
     <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="265" t="s">
         <v>1163</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="233"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="178" t="s">
@@ -39411,75 +39417,75 @@
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="225" t="s">
+      <c r="A21" s="268" t="s">
         <v>1218</v>
       </c>
-      <c r="B21" s="198"/>
+      <c r="B21" s="224"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="234" t="s">
+      <c r="A22" s="269" t="s">
         <v>1219</v>
       </c>
-      <c r="B22" s="198"/>
+      <c r="B22" s="224"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="227" t="s">
+      <c r="A23" s="270" t="s">
         <v>1220</v>
       </c>
-      <c r="B23" s="198"/>
+      <c r="B23" s="224"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="235" t="s">
+      <c r="A24" s="271" t="s">
         <v>1221</v>
       </c>
-      <c r="B24" s="198"/>
+      <c r="B24" s="224"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="227" t="s">
+      <c r="A25" s="270" t="s">
         <v>1222</v>
       </c>
-      <c r="B25" s="198"/>
+      <c r="B25" s="224"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="235" t="s">
+      <c r="A26" s="271" t="s">
         <v>1223</v>
       </c>
-      <c r="B26" s="198"/>
+      <c r="B26" s="224"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="225" t="s">
+      <c r="A30" s="268" t="s">
         <v>1224</v>
       </c>
-      <c r="B30" s="198"/>
+      <c r="B30" s="224"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="226" t="s">
+      <c r="A31" s="272" t="s">
         <v>1225</v>
       </c>
-      <c r="B31" s="198"/>
+      <c r="B31" s="224"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="227" t="s">
+      <c r="A32" s="270" t="s">
         <v>1226</v>
       </c>
-      <c r="B32" s="198"/>
+      <c r="B32" s="224"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="228" t="s">
+      <c r="A33" s="273" t="s">
         <v>1227</v>
       </c>
-      <c r="B33" s="198"/>
+      <c r="B33" s="224"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="229"/>
-      <c r="B34" s="198"/>
+      <c r="A34" s="274"/>
+      <c r="B34" s="224"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="230"/>
-      <c r="B35" s="198"/>
+      <c r="A35" s="264"/>
+      <c r="B35" s="224"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:2" ht="15.75" customHeight="1"/>
@@ -40510,19 +40516,19 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="31"/>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="31"/>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
     </row>
@@ -40752,7 +40758,7 @@
     </row>
     <row r="11" spans="1:26" ht="30">
       <c r="A11" s="48"/>
-      <c r="B11" s="246" t="s">
+      <c r="B11" s="196" t="s">
         <v>500</v>
       </c>
       <c r="C11" s="41" t="s">
@@ -40950,10 +40956,10 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="31"/>
-      <c r="B19" s="204" t="s">
+      <c r="B19" s="238" t="s">
         <v>514</v>
       </c>
-      <c r="C19" s="210"/>
+      <c r="C19" s="239"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -41062,10 +41068,10 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="31"/>
-      <c r="B24" s="204" t="s">
+      <c r="B24" s="238" t="s">
         <v>521</v>
       </c>
-      <c r="C24" s="198"/>
+      <c r="C24" s="224"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
     </row>
@@ -41199,24 +41205,24 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="31"/>
-      <c r="B37" s="204" t="s">
+      <c r="B37" s="238" t="s">
         <v>544</v>
       </c>
-      <c r="C37" s="198"/>
+      <c r="C37" s="224"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="60"/>
-      <c r="B38" s="236" t="s">
+      <c r="B38" s="240" t="s">
         <v>545</v>
       </c>
-      <c r="C38" s="237"/>
+      <c r="C38" s="241"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="61"/>
-      <c r="B39" s="209" t="s">
+      <c r="B39" s="237" t="s">
         <v>546</v>
       </c>
-      <c r="C39" s="198"/>
+      <c r="C39" s="224"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="60"/>
@@ -41225,59 +41231,59 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="31"/>
-      <c r="B41" s="204" t="s">
+      <c r="B41" s="238" t="s">
         <v>547</v>
       </c>
-      <c r="C41" s="198"/>
+      <c r="C41" s="224"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="62"/>
-      <c r="B42" s="205" t="s">
+      <c r="B42" s="242" t="s">
         <v>548</v>
       </c>
-      <c r="C42" s="198"/>
+      <c r="C42" s="224"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="62"/>
-      <c r="B43" s="206" t="s">
+      <c r="B43" s="243" t="s">
         <v>549</v>
       </c>
-      <c r="C43" s="198"/>
+      <c r="C43" s="224"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="63"/>
-      <c r="B44" s="207" t="s">
+      <c r="B44" s="244" t="s">
         <v>550</v>
       </c>
-      <c r="C44" s="198"/>
+      <c r="C44" s="224"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="64"/>
-      <c r="B45" s="208" t="s">
+      <c r="B45" s="236" t="s">
         <v>551</v>
       </c>
-      <c r="C45" s="198"/>
+      <c r="C45" s="224"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="64"/>
-      <c r="B46" s="208" t="s">
+      <c r="B46" s="236" t="s">
         <v>552</v>
       </c>
-      <c r="C46" s="198"/>
+      <c r="C46" s="224"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="64"/>
-      <c r="B47" s="208" t="s">
+      <c r="B47" s="236" t="s">
         <v>553</v>
       </c>
-      <c r="C47" s="198"/>
+      <c r="C47" s="224"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="61"/>
-      <c r="B48" s="209" t="s">
+      <c r="B48" s="237" t="s">
         <v>554</v>
       </c>
-      <c r="C48" s="198"/>
+      <c r="C48" s="224"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="12"/>
@@ -42338,21 +42344,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31"/>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>555</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="31"/>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="39"/>
-      <c r="B4" s="247" t="s">
+      <c r="B4" s="197" t="s">
         <v>556</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -42361,7 +42367,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="39"/>
-      <c r="B5" s="248" t="s">
+      <c r="B5" s="198" t="s">
         <v>558</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -42370,7 +42376,7 @@
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="A6" s="65"/>
-      <c r="B6" s="249" t="s">
+      <c r="B6" s="199" t="s">
         <v>560</v>
       </c>
       <c r="C6" s="41" t="s">
@@ -42379,7 +42385,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="54"/>
-      <c r="B7" s="250" t="s">
+      <c r="B7" s="200" t="s">
         <v>562</v>
       </c>
       <c r="C7" s="41" t="s">
@@ -42388,7 +42394,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="54"/>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="199" t="s">
         <v>564</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -42397,7 +42403,7 @@
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="54"/>
-      <c r="B9" s="250" t="s">
+      <c r="B9" s="200" t="s">
         <v>566</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -42406,7 +42412,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="54"/>
-      <c r="B10" s="250" t="s">
+      <c r="B10" s="200" t="s">
         <v>568</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -42415,7 +42421,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="66"/>
-      <c r="B11" s="247" t="s">
+      <c r="B11" s="197" t="s">
         <v>569</v>
       </c>
       <c r="C11" s="41" t="s">
@@ -42424,7 +42430,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="66"/>
-      <c r="B12" s="247" t="s">
+      <c r="B12" s="197" t="s">
         <v>570</v>
       </c>
       <c r="C12" s="41" t="s">
@@ -42433,7 +42439,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="66"/>
-      <c r="B13" s="247" t="s">
+      <c r="B13" s="197" t="s">
         <v>572</v>
       </c>
       <c r="C13" s="41" t="s">
@@ -42444,7 +42450,7 @@
       <c r="A14" s="67" t="s">
         <v>574</v>
       </c>
-      <c r="B14" s="249" t="s">
+      <c r="B14" s="199" t="s">
         <v>575</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -42453,7 +42459,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="31"/>
-      <c r="B15" s="251" t="s">
+      <c r="B15" s="201" t="s">
         <v>577</v>
       </c>
       <c r="C15" s="69" t="s">
@@ -42467,10 +42473,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="31"/>
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="238" t="s">
         <v>579</v>
       </c>
-      <c r="C17" s="210"/>
+      <c r="C17" s="239"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="39"/>
@@ -42497,10 +42503,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="31"/>
-      <c r="B21" s="204" t="s">
+      <c r="B21" s="238" t="s">
         <v>584</v>
       </c>
-      <c r="C21" s="198"/>
+      <c r="C21" s="224"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="39"/>
@@ -42585,59 +42591,59 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="39"/>
-      <c r="B31" s="240" t="s">
+      <c r="B31" s="192" t="s">
         <v>603</v>
       </c>
-      <c r="C31" s="241" t="s">
+      <c r="C31" s="193" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="39"/>
-      <c r="B32" s="244" t="s">
+      <c r="B32" s="194" t="s">
         <v>605</v>
       </c>
-      <c r="C32" s="245" t="s">
+      <c r="C32" s="195" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="39"/>
-      <c r="B33" s="244" t="s">
+      <c r="B33" s="194" t="s">
         <v>607</v>
       </c>
-      <c r="C33" s="245" t="s">
+      <c r="C33" s="195" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="39"/>
-      <c r="B34" s="244" t="s">
+      <c r="B34" s="194" t="s">
         <v>605</v>
       </c>
-      <c r="C34" s="245" t="s">
+      <c r="C34" s="195" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="39"/>
-      <c r="B35" s="244" t="s">
+      <c r="B35" s="194" t="s">
         <v>610</v>
       </c>
-      <c r="C35" s="245" t="s">
+      <c r="C35" s="195" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="31"/>
-      <c r="B36" s="242" t="s">
+      <c r="B36" s="245" t="s">
         <v>544</v>
       </c>
-      <c r="C36" s="243"/>
+      <c r="C36" s="246"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="71"/>
-      <c r="B37" s="239" t="s">
+      <c r="B37" s="191" t="s">
         <v>612</v>
       </c>
       <c r="C37" s="51" t="s">
@@ -42646,28 +42652,28 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="71"/>
-      <c r="B38" s="239" t="s">
+      <c r="B38" s="191" t="s">
         <v>614</v>
       </c>
       <c r="C38" s="72"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="74"/>
-      <c r="B39" s="238" t="s">
+      <c r="B39" s="190" t="s">
         <v>615</v>
       </c>
       <c r="C39" s="75"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="74"/>
-      <c r="B40" s="238" t="s">
+      <c r="B40" s="190" t="s">
         <v>616</v>
       </c>
       <c r="C40" s="75"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="74"/>
-      <c r="B41" s="238" t="s">
+      <c r="B41" s="190" t="s">
         <v>1228</v>
       </c>
       <c r="C41" s="75"/>
@@ -43773,16 +43779,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="59" t="s">
@@ -43845,10 +43851,10 @@
       <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="198"/>
+      <c r="C12" s="224"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="85" t="s">
@@ -44924,16 +44930,16 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>636</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="57" t="s">
@@ -45000,18 +45006,18 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="252" t="s">
+      <c r="B12" s="202" t="s">
         <v>653</v>
       </c>
-      <c r="C12" s="241" t="s">
+      <c r="C12" s="193" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="253" t="s">
+      <c r="B13" s="203" t="s">
         <v>655</v>
       </c>
-      <c r="C13" s="254" t="s">
+      <c r="C13" s="204" t="s">
         <v>656</v>
       </c>
     </row>
@@ -45020,19 +45026,19 @@
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="198"/>
+      <c r="C15" s="224"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="255" t="s">
+      <c r="B16" s="205" t="s">
         <v>657</v>
       </c>
       <c r="C16" s="51"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="255" t="s">
+      <c r="B17" s="205" t="s">
         <v>658</v>
       </c>
       <c r="C17" s="51"/>
@@ -46081,12 +46087,14 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
-    <col min="2" max="2" width="83" customWidth="1"/>
+    <col min="2" max="2" width="103.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="165.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -46094,16 +46102,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="88" t="s">
@@ -46154,8 +46162,12 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="92"/>
-      <c r="C10" s="58"/>
+      <c r="B10" s="92" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>1230</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="92"/>
@@ -46170,10 +46182,10 @@
       <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="204" t="s">
+      <c r="B14" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="198"/>
+      <c r="C14" s="224"/>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="93"/>
@@ -47238,19 +47250,19 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>671</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="256" t="s">
+      <c r="B4" s="206" t="s">
         <v>672</v>
       </c>
       <c r="C4" s="97" t="s">
@@ -47258,7 +47270,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="206" t="s">
         <v>674</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -47266,7 +47278,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="206" t="s">
         <v>676</v>
       </c>
       <c r="C6" s="41" t="s">
@@ -47274,7 +47286,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="206" t="s">
         <v>678</v>
       </c>
       <c r="C7" s="41" t="s">
@@ -47282,7 +47294,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="256" t="s">
+      <c r="B8" s="206" t="s">
         <v>680</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -47290,7 +47302,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="256" t="s">
+      <c r="B9" s="206" t="s">
         <v>682</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -47298,7 +47310,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="256" t="s">
+      <c r="B10" s="206" t="s">
         <v>684</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -47306,7 +47318,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="256" t="s">
+      <c r="B11" s="206" t="s">
         <v>686</v>
       </c>
       <c r="C11" s="41" t="s">
@@ -47314,7 +47326,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
-      <c r="B12" s="257" t="s">
+      <c r="B12" s="207" t="s">
         <v>688</v>
       </c>
       <c r="C12" s="58" t="s">
@@ -47322,7 +47334,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="257" t="s">
+      <c r="B13" s="207" t="s">
         <v>690</v>
       </c>
       <c r="C13" s="58" t="s">
@@ -47330,7 +47342,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="257" t="s">
+      <c r="B14" s="207" t="s">
         <v>692</v>
       </c>
       <c r="C14" s="58" t="s">
@@ -47338,7 +47350,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="45">
-      <c r="B15" s="257" t="s">
+      <c r="B15" s="207" t="s">
         <v>694</v>
       </c>
       <c r="C15" s="58" t="s">
@@ -47350,25 +47362,25 @@
       <c r="C16" s="38"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="198"/>
+      <c r="C17" s="224"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="239" t="s">
+      <c r="B18" s="191" t="s">
         <v>696</v>
       </c>
       <c r="C18" s="73"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="239" t="s">
+      <c r="B19" s="191" t="s">
         <v>697</v>
       </c>
       <c r="C19" s="51"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="239" t="s">
+      <c r="B20" s="191" t="s">
         <v>698</v>
       </c>
       <c r="C20" s="51"/>
@@ -48433,16 +48445,16 @@
       <c r="A1" s="81"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="198"/>
+      <c r="C2" s="224"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="238" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="198"/>
+      <c r="C3" s="224"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="88" t="s">
@@ -48505,10 +48517,10 @@
       <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="204" t="s">
+      <c r="B13" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="198"/>
+      <c r="C13" s="224"/>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="88" t="s">

--- a/Useful Resources/Useful Resources DB 2.0.xlsx
+++ b/Useful Resources/Useful Resources DB 2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\Bootcamp\Useful Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5B227-061B-493E-97BA-F1058F6D6ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DD9A04-89EA-4732-8747-048B3AFFD337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="45" windowWidth="38760" windowHeight="20745" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Front" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1266">
   <si>
     <t>Cyber security resources</t>
   </si>
@@ -3849,6 +3849,30 @@
   <si>
     <t>Payment Card Industry Data Security Standard</t>
   </si>
+  <si>
+    <t>https://www.globaldots.com/resources/blog/how-to-prevent-sql-injection-attacks/</t>
+  </si>
+  <si>
+    <t>Prevent SQL Injection</t>
+  </si>
+  <si>
+    <t>https://portswigger.net/web-security/cross-site-scripting/stored</t>
+  </si>
+  <si>
+    <t>What is XSS</t>
+  </si>
+  <si>
+    <t>https://www.sans.org/blog/the-ultimate-list-of-sans-cheat-sheets/</t>
+  </si>
+  <si>
+    <t>SANS cheat sheets</t>
+  </si>
+  <si>
+    <t>https://github.com/chr3st5an/Google-Dorking</t>
+  </si>
+  <si>
+    <t>Google dorking - Cheat sheet</t>
+  </si>
 </sst>
 </file>
 
@@ -3858,7 +3882,7 @@
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="dddd&quot;, &quot;mmmm&quot; &quot;d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="136">
+  <fonts count="138">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4662,8 +4686,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4746,6 +4781,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5112,7 +5153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="132" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5396,9 +5437,6 @@
     <xf numFmtId="0" fontId="80" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="82" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="83" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5502,9 +5540,6 @@
     <xf numFmtId="0" fontId="82" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5615,6 +5650,19 @@
     <xf numFmtId="0" fontId="132" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5649,6 +5697,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="132" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="132" fillId="11" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5722,21 +5773,48 @@
     <xf numFmtId="0" fontId="131" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="11" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="82" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="137" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="15" borderId="30" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
+  <dxfs count="106">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -6575,212 +6653,212 @@
   </dxfs>
   <tableStyles count="52">
     <tableStyle name="Security 101-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="104"/>
-      <tableStyleElement type="secondRowStripe" dxfId="103"/>
+      <tableStyleElement type="firstRowStripe" dxfId="105"/>
+      <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
     <tableStyle name="GRC-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="102"/>
-      <tableStyleElement type="secondRowStripe" dxfId="101"/>
+      <tableStyleElement type="firstRowStripe" dxfId="103"/>
+      <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
     <tableStyle name="GRC-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="100"/>
-      <tableStyleElement type="secondRowStripe" dxfId="99"/>
+      <tableStyleElement type="firstRowStripe" dxfId="101"/>
+      <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
     <tableStyle name="GRC-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="98"/>
-      <tableStyleElement type="secondRowStripe" dxfId="97"/>
+      <tableStyleElement type="firstRowStripe" dxfId="99"/>
+      <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
     <tableStyle name="GRC-style 4" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="96"/>
-      <tableStyleElement type="secondRowStripe" dxfId="95"/>
+      <tableStyleElement type="firstRowStripe" dxfId="97"/>
+      <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
     <tableStyle name="ITT&amp;B-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="94"/>
-      <tableStyleElement type="secondRowStripe" dxfId="93"/>
+      <tableStyleElement type="firstRowStripe" dxfId="95"/>
+      <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
     <tableStyle name="ITT&amp;B-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="92"/>
-      <tableStyleElement type="secondRowStripe" dxfId="91"/>
+      <tableStyleElement type="firstRowStripe" dxfId="93"/>
+      <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
     <tableStyle name="ITT&amp;B-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="90"/>
-      <tableStyleElement type="secondRowStripe" dxfId="89"/>
+      <tableStyleElement type="firstRowStripe" dxfId="91"/>
+      <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
     <tableStyle name="Linux A&amp;H-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="88"/>
-      <tableStyleElement type="secondRowStripe" dxfId="87"/>
+      <tableStyleElement type="firstRowStripe" dxfId="89"/>
+      <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
     <tableStyle name="Linux A&amp;H-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="86"/>
-      <tableStyleElement type="secondRowStripe" dxfId="85"/>
+      <tableStyleElement type="firstRowStripe" dxfId="87"/>
+      <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
     <tableStyle name="Linux A&amp;L-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0A000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="84"/>
-      <tableStyleElement type="secondRowStripe" dxfId="83"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
     <tableStyle name="Linux A&amp;L-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0B000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="82"/>
-      <tableStyleElement type="secondRowStripe" dxfId="81"/>
+      <tableStyleElement type="firstRowStripe" dxfId="83"/>
+      <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
     <tableStyle name="Linux A&amp;L-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0C000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="80"/>
-      <tableStyleElement type="secondRowStripe" dxfId="79"/>
+      <tableStyleElement type="firstRowStripe" dxfId="81"/>
+      <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
     <tableStyle name="BS&amp;P-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0D000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="78"/>
-      <tableStyleElement type="secondRowStripe" dxfId="77"/>
+      <tableStyleElement type="firstRowStripe" dxfId="79"/>
+      <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
     <tableStyle name="BS&amp;P-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0E000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="76"/>
-      <tableStyleElement type="secondRowStripe" dxfId="75"/>
+      <tableStyleElement type="firstRowStripe" dxfId="77"/>
+      <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
     <tableStyle name="BS&amp;P-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF0F000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="74"/>
-      <tableStyleElement type="secondRowStripe" dxfId="73"/>
+      <tableStyleElement type="firstRowStripe" dxfId="75"/>
+      <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
     <tableStyle name="WA&amp;H-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF10000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="72"/>
-      <tableStyleElement type="secondRowStripe" dxfId="71"/>
+      <tableStyleElement type="firstRowStripe" dxfId="73"/>
+      <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
     <tableStyle name="WA&amp;H-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF11000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="70"/>
-      <tableStyleElement type="secondRowStripe" dxfId="69"/>
+      <tableStyleElement type="firstRowStripe" dxfId="71"/>
+      <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
     <tableStyle name="WA&amp;H-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF12000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="68"/>
-      <tableStyleElement type="secondRowStripe" dxfId="67"/>
+      <tableStyleElement type="firstRowStripe" dxfId="69"/>
+      <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
     <tableStyle name="Networking Fun-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF13000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="66"/>
-      <tableStyleElement type="secondRowStripe" dxfId="65"/>
+      <tableStyleElement type="firstRowStripe" dxfId="67"/>
+      <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
     <tableStyle name="Networking Fun-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF14000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="64"/>
-      <tableStyleElement type="secondRowStripe" dxfId="63"/>
+      <tableStyleElement type="firstRowStripe" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="Networking Fun-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF15000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="62"/>
-      <tableStyleElement type="secondRowStripe" dxfId="61"/>
+      <tableStyleElement type="firstRowStripe" dxfId="63"/>
+      <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
     <tableStyle name="Cryptography-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF16000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="60"/>
-      <tableStyleElement type="secondRowStripe" dxfId="59"/>
+      <tableStyleElement type="firstRowStripe" dxfId="61"/>
+      <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
     <tableStyle name="Cryptography-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF17000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="58"/>
-      <tableStyleElement type="secondRowStripe" dxfId="57"/>
+      <tableStyleElement type="firstRowStripe" dxfId="59"/>
+      <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
     <tableStyle name="Cryptography-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF18000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
+      <tableStyleElement type="firstRowStripe" dxfId="57"/>
+      <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
     <tableStyle name="Network Security-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF19000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="54"/>
-      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+      <tableStyleElement type="firstRowStripe" dxfId="55"/>
+      <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
     <tableStyle name="Network Security-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1A000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="secondRowStripe" dxfId="51"/>
+      <tableStyleElement type="firstRowStripe" dxfId="53"/>
+      <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
     <tableStyle name="Web Dev-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1B000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
-      <tableStyleElement type="secondRowStripe" dxfId="49"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
     <tableStyle name="Web Dev-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1C000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="48"/>
-      <tableStyleElement type="secondRowStripe" dxfId="47"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
     <tableStyle name="Web Dev-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1D000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="46"/>
-      <tableStyleElement type="secondRowStripe" dxfId="45"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
+      <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
     <tableStyle name="Cloud Sec-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1E000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
-      <tableStyleElement type="secondRowStripe" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
     <tableStyle name="Cloud Sec-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF1F000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
     <tableStyle name="Cloud Sec-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF20000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="40"/>
-      <tableStyleElement type="secondRowStripe" dxfId="39"/>
+      <tableStyleElement type="firstRowStripe" dxfId="41"/>
+      <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
     <tableStyle name="Web V&amp;H-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF21000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="38"/>
-      <tableStyleElement type="secondRowStripe" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="39"/>
+      <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
     <tableStyle name="Web V&amp;H-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF22000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="36"/>
-      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="37"/>
+      <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
     <tableStyle name="Web V&amp;H-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF23000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="34"/>
-      <tableStyleElement type="secondRowStripe" dxfId="33"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
     <tableStyle name="PenTest-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF24000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="32"/>
-      <tableStyleElement type="secondRowStripe" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
     <tableStyle name="Offence CTF-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF25000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
     <tableStyle name="Offence CTF-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF26000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
     <tableStyle name="Offence CTF-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF27000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="26"/>
-      <tableStyleElement type="secondRowStripe" dxfId="25"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
     <tableStyle name="SIEMs-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF28000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
     <tableStyle name="SIEMs-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF29000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
     <tableStyle name="SIEMs-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF2A000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="secondRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
     <tableStyle name="Digi Forensics-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF2B000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="Digi Forensics-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF2C000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="17"/>
+      <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
     <tableStyle name="Digi Forensics-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF2D000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
     <tableStyle name="Career prep and sec+-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF2E000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="secondRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="Career prep and sec+-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF2F000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="Career prep and sec+-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF30000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
     <tableStyle name="Project 4-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF31000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
     <tableStyle name="Project 4-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF32000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
     <tableStyle name="Project 4-style 3" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF33000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -6845,7 +6923,7 @@
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table_14" displayName="Table_14" ref="B4:C15" headerRowCount="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Column1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="BS&amp;P-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -7060,7 +7138,7 @@
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Table_34" displayName="Table_34" ref="B4:C13" headerRowCount="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="Column1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="Column1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="Web V&amp;H-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -7088,7 +7166,7 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{00000000-000C-0000-FFFF-FFFF24000000}" name="Table_37" displayName="Table_37" ref="B32:C32" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{00000000-000C-0000-FFFF-FFFF24000000}" name="Table_37" displayName="Table_37" ref="B33:C33" headerRowCount="0">
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-2400-000001000000}" name="Column1" dataCellStyle="Hyperlink"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-2400-000002000000}" name="Column2"/>
@@ -7541,22 +7619,22 @@
     </row>
     <row r="2" spans="1:26" ht="26.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="230"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="232"/>
+      <c r="J2" s="232"/>
+      <c r="K2" s="232"/>
+      <c r="L2" s="232"/>
+      <c r="M2" s="232"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="233"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -7571,20 +7649,20 @@
     </row>
     <row r="3" spans="1:26" ht="26.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="231"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="233"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="236"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -7599,22 +7677,22 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4"/>
-      <c r="B4" s="234" t="s">
+      <c r="B4" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="225"/>
-      <c r="O4" s="226"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="228"/>
+      <c r="F4" s="228"/>
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="228"/>
+      <c r="L4" s="228"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="229"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -7629,16 +7707,16 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="5"/>
-      <c r="B5" s="235" t="s">
+      <c r="B5" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="227" t="s">
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="230" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="226"/>
+      <c r="G5" s="229"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -7661,16 +7739,16 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="1"/>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="226"/>
-      <c r="F6" s="236" t="s">
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="226"/>
+      <c r="G6" s="229"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -7693,16 +7771,16 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="1"/>
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="226"/>
-      <c r="F7" s="227" t="s">
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="230" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="226"/>
+      <c r="G7" s="229"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -7725,12 +7803,12 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="1"/>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="225"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="226"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="229"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
@@ -7755,12 +7833,12 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="1"/>
-      <c r="B9" s="224" t="s">
+      <c r="B9" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="225"/>
-      <c r="D9" s="225"/>
-      <c r="E9" s="226"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="229"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="6"/>
@@ -7785,12 +7863,12 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="1"/>
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="225"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="226"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="229"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
@@ -7815,12 +7893,12 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="1"/>
-      <c r="B11" s="224" t="s">
+      <c r="B11" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="225"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="226"/>
+      <c r="C11" s="228"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="229"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
@@ -7845,12 +7923,12 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="1"/>
-      <c r="B12" s="224" t="s">
+      <c r="B12" s="227" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="225"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="226"/>
+      <c r="C12" s="228"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="229"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
@@ -7875,12 +7953,12 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="1"/>
-      <c r="B13" s="224" t="s">
+      <c r="B13" s="227" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="225"/>
-      <c r="D13" s="225"/>
-      <c r="E13" s="226"/>
+      <c r="C13" s="228"/>
+      <c r="D13" s="228"/>
+      <c r="E13" s="229"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
@@ -7905,12 +7983,12 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="1"/>
-      <c r="B14" s="224" t="s">
+      <c r="B14" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="225"/>
-      <c r="D14" s="225"/>
-      <c r="E14" s="226"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="228"/>
+      <c r="E14" s="229"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
@@ -7935,12 +8013,12 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="1"/>
-      <c r="B15" s="224" t="s">
+      <c r="B15" s="227" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="226"/>
+      <c r="C15" s="228"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="229"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
@@ -7965,12 +8043,12 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="224" t="s">
+      <c r="B16" s="227" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="225"/>
-      <c r="D16" s="225"/>
-      <c r="E16" s="226"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="229"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
@@ -7995,12 +8073,12 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="1"/>
-      <c r="B17" s="224" t="s">
+      <c r="B17" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="225"/>
-      <c r="D17" s="225"/>
-      <c r="E17" s="226"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="229"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
@@ -8025,12 +8103,12 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1"/>
-      <c r="B18" s="224" t="s">
+      <c r="B18" s="227" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="225"/>
-      <c r="D18" s="225"/>
-      <c r="E18" s="226"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="228"/>
+      <c r="E18" s="229"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
@@ -8055,12 +8133,12 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="224" t="s">
+      <c r="B19" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="225"/>
-      <c r="D19" s="225"/>
-      <c r="E19" s="226"/>
+      <c r="C19" s="228"/>
+      <c r="D19" s="228"/>
+      <c r="E19" s="229"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
@@ -8085,12 +8163,12 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="224" t="s">
+      <c r="B20" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="226"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="229"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="10"/>
@@ -16121,16 +16199,16 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="99" t="s">
@@ -16269,7 +16347,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="222" t="s">
+      <c r="A21" s="220" t="s">
         <v>1239</v>
       </c>
       <c r="B21" s="101"/>
@@ -16286,7 +16364,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="221" t="s">
+      <c r="B23" s="219" t="s">
         <v>1236</v>
       </c>
       <c r="C23" s="57" t="s">
@@ -16294,7 +16372,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="221" t="s">
+      <c r="B24" s="219" t="s">
         <v>1237</v>
       </c>
       <c r="C24" s="57" t="s">
@@ -16302,7 +16380,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="221" t="s">
+      <c r="B25" s="219" t="s">
         <v>1231</v>
       </c>
       <c r="C25" s="57" t="s">
@@ -16342,7 +16420,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="223" t="s">
+      <c r="B30" s="221" t="s">
         <v>1241</v>
       </c>
       <c r="C30" s="57" t="s">
@@ -16434,25 +16512,25 @@
       <c r="C41" s="38"/>
     </row>
     <row r="42" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B42" s="240" t="s">
+      <c r="B42" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="226"/>
+      <c r="C42" s="229"/>
     </row>
     <row r="43" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B43" s="190" t="s">
+      <c r="B43" s="188" t="s">
         <v>774</v>
       </c>
       <c r="C43" s="57"/>
     </row>
     <row r="44" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B44" s="190" t="s">
+      <c r="B44" s="188" t="s">
         <v>775</v>
       </c>
       <c r="C44" s="50"/>
     </row>
     <row r="45" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B45" s="190" t="s">
+      <c r="B45" s="188" t="s">
         <v>776</v>
       </c>
       <c r="C45" s="50"/>
@@ -17534,16 +17612,16 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="87" t="s">
@@ -17646,10 +17724,10 @@
       <c r="C16" s="38"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="240" t="s">
+      <c r="B17" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="226"/>
+      <c r="C17" s="229"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="89"/>
@@ -18720,16 +18798,16 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="87" t="s">
@@ -18876,10 +18954,10 @@
       <c r="C22" s="38"/>
     </row>
     <row r="23" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B23" s="240" t="s">
+      <c r="B23" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="226"/>
+      <c r="C23" s="229"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="114" t="s">
@@ -19984,16 +20062,16 @@
       <c r="A2" s="80"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="237" t="s">
+      <c r="B3" s="240" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C4" s="226"/>
+      <c r="C4" s="229"/>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="87" t="s">
@@ -20048,13 +20126,13 @@
       <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="240" t="s">
+      <c r="B12" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="226"/>
+      <c r="C12" s="229"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="204" t="s">
+      <c r="B13" s="202" t="s">
         <v>856</v>
       </c>
       <c r="C13" s="57"/>
@@ -21138,16 +21216,16 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>859</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="119" t="s">
@@ -21226,13 +21304,13 @@
       <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="240" t="s">
+      <c r="B14" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="226"/>
+      <c r="C14" s="229"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="204" t="s">
+      <c r="B15" s="202" t="s">
         <v>878</v>
       </c>
       <c r="C15" s="57"/>
@@ -22310,13 +22388,13 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="0.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="67.5703125" customWidth="1"/>
     <col min="3" max="3" width="102.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22324,19 +22402,19 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="224" t="s">
         <v>883</v>
       </c>
       <c r="C4" s="57" t="s">
@@ -22344,7 +22422,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="224" t="s">
         <v>885</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -22352,30 +22430,30 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="224" t="s">
         <v>887</v>
       </c>
       <c r="C6" s="81" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="87" t="s">
+    <row r="7" spans="1:3" ht="30">
+      <c r="B7" s="224" t="s">
         <v>889</v>
       </c>
       <c r="C7" s="57" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="87" t="s">
+    <row r="8" spans="1:3" ht="45">
+      <c r="B8" s="224" t="s">
         <v>891</v>
       </c>
       <c r="C8" s="57" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45">
+    <row r="9" spans="1:3" ht="30">
       <c r="B9" s="125" t="s">
         <v>893</v>
       </c>
@@ -22384,23 +22462,31 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="204" t="s">
         <v>895</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="91"/>
-      <c r="C11" s="57"/>
+    <row r="11" spans="1:3" ht="30">
+      <c r="B11" s="225" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>1259</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="91"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="221" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C12" s="226" t="s">
+        <v>1261</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="91"/>
+      <c r="B13" s="225"/>
       <c r="C13" s="57"/>
     </row>
     <row r="14" spans="1:3">
@@ -22408,40 +22494,40 @@
       <c r="C14" s="38"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="240" t="s">
+      <c r="B15" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="226"/>
+      <c r="C15" s="229"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="204" t="s">
+      <c r="B16" s="202" t="s">
         <v>897</v>
       </c>
       <c r="C16" s="57"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="202" t="s">
         <v>898</v>
       </c>
       <c r="C17" s="71"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="202" t="s">
         <v>899</v>
       </c>
       <c r="C18" s="71"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="204" t="s">
+      <c r="B19" s="202" t="s">
         <v>900</v>
       </c>
       <c r="C19" s="71"/>
     </row>
-    <row r="20" spans="2:3" ht="30">
+    <row r="20" spans="2:3">
       <c r="B20" s="126" t="s">
         <v>901</v>
       </c>
-      <c r="C20" s="207" t="s">
+      <c r="C20" s="205" t="s">
         <v>902</v>
       </c>
     </row>
@@ -23473,13 +23559,14 @@
     <hyperlink ref="B18" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
     <hyperlink ref="B19" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
     <hyperlink ref="B20" r:id="rId12" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{66E26709-F793-47AC-9C77-562010CEB4B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="3">
-    <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23489,10 +23576,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1022"/>
+  <dimension ref="A1:C1023"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -23506,562 +23593,569 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>903</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="293" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="233"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="295" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C4" s="292" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="294" t="s">
         <v>904</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C5" s="291" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="129" t="s">
+    <row r="6" spans="1:3">
+      <c r="B6" s="128" t="s">
         <v>906</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C6" s="129" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="131" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="130" t="s">
         <v>908</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C7" s="96" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="131" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="130" t="s">
         <v>910</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C8" s="41" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="67" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="67" t="s">
         <v>912</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C9" s="41" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="131" t="s">
+    <row r="10" spans="1:3">
+      <c r="B10" s="130" t="s">
         <v>914</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C10" s="41" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="132" t="s">
+    <row r="11" spans="1:3">
+      <c r="B11" s="131" t="s">
         <v>916</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C11" s="41" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="132" t="s">
+    <row r="12" spans="1:3">
+      <c r="B12" s="131" t="s">
         <v>918</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C12" s="41" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="132" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="131" t="s">
         <v>920</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C13" s="41" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="133" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="132" t="s">
         <v>922</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C14" s="133" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="133" t="s">
+    <row r="15" spans="1:3">
+      <c r="B15" s="132" t="s">
         <v>924</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C15" s="133" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="133" t="s">
+    <row r="16" spans="1:3">
+      <c r="B16" s="132" t="s">
         <v>926</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C16" s="133" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="135" t="s">
+    <row r="17" spans="1:3">
+      <c r="B17" s="134" t="s">
         <v>928</v>
       </c>
-      <c r="C16" s="134" t="s">
+      <c r="C17" s="133" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="136" t="s">
+    <row r="18" spans="1:3">
+      <c r="B18" s="135" t="s">
         <v>930</v>
       </c>
-      <c r="C17" s="134" t="s">
+      <c r="C18" s="133" t="s">
         <v>931</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="136" t="s">
-        <v>932</v>
-      </c>
-      <c r="C18" s="134" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="36"/>
       <c r="B19" s="135" t="s">
-        <v>934</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>935</v>
+        <v>932</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="36"/>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="134" t="s">
+        <v>934</v>
+      </c>
+      <c r="C20" s="133" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="135" t="s">
         <v>936</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C21" s="133" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="36.75">
-      <c r="B21" s="137" t="s">
+    <row r="22" spans="1:3" ht="36.75">
+      <c r="B22" s="136" t="s">
         <v>938</v>
       </c>
-      <c r="C21" s="134" t="s">
+      <c r="C22" s="133" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="B22" s="137" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="136" t="s">
         <v>940</v>
       </c>
-      <c r="C22" s="249" t="s">
+      <c r="C23" s="253" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="137" t="s">
+    <row r="24" spans="1:3">
+      <c r="B24" s="136" t="s">
         <v>942</v>
       </c>
-      <c r="C23" s="250"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24" s="137" t="s">
+      <c r="C24" s="254"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="136" t="s">
         <v>943</v>
       </c>
-      <c r="C24" s="251"/>
-    </row>
-    <row r="25" spans="1:3" ht="30">
-      <c r="B25" s="138" t="s">
+      <c r="C25" s="255"/>
+    </row>
+    <row r="26" spans="1:3" ht="30">
+      <c r="B26" s="137" t="s">
         <v>709</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C26" s="41" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="138" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" s="137" t="s">
         <v>944</v>
       </c>
-      <c r="C26" s="134" t="s">
+      <c r="C27" s="133" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="B27" s="138" t="s">
+    <row r="28" spans="1:3">
+      <c r="B28" s="137" t="s">
         <v>946</v>
       </c>
-      <c r="C27" s="249" t="s">
+      <c r="C28" s="253" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" s="138" t="s">
+    <row r="29" spans="1:3">
+      <c r="B29" s="137" t="s">
         <v>948</v>
       </c>
-      <c r="C28" s="251"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="139" t="s">
+      <c r="C29" s="255"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="138" t="s">
         <v>949</v>
       </c>
-      <c r="C29" s="140" t="s">
+      <c r="C30" s="139" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="31"/>
-      <c r="C30" s="59"/>
-    </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="240" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="59"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="226"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="B32" s="204" t="s">
+      <c r="C32" s="229"/>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="202" t="s">
         <v>951</v>
       </c>
-      <c r="C32" s="57"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="190" t="s">
+      <c r="C33" s="57"/>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="188" t="s">
         <v>546</v>
       </c>
-      <c r="C33" s="50"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="114" t="s">
+      <c r="C34" s="50"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="114" t="s">
         <v>952</v>
       </c>
-      <c r="C34" s="50"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="141" t="s">
+      <c r="C35" s="50"/>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="140" t="s">
         <v>953</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C36" s="50" t="s">
         <v>954</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="47" t="s">
-        <v>955</v>
-      </c>
-      <c r="C36" s="142" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="47" t="s">
+        <v>955</v>
+      </c>
+      <c r="C37" s="141" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="47" t="s">
         <v>558</v>
       </c>
-      <c r="C37" s="142" t="s">
+      <c r="C38" s="141" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="117"/>
-    </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="240" t="s">
+      <c r="B39" s="117"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="243" t="s">
         <v>958</v>
       </c>
-      <c r="C39" s="226"/>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="143" t="s">
+      <c r="C40" s="229"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="142" t="s">
         <v>959</v>
       </c>
-      <c r="C40" s="143" t="s">
+      <c r="C41" s="142" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="144" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" s="143" t="s">
         <v>961</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C42" s="35" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="144" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" s="143" t="s">
         <v>963</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C43" s="35" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="43" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B43" s="144" t="s">
+    <row r="44" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B44" s="143" t="s">
         <v>965</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C44" s="35" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B44" s="144" t="s">
+    <row r="45" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B45" s="143" t="s">
         <v>967</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C45" s="35" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="45" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B45" s="144" t="s">
+    <row r="46" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B46" s="143" t="s">
         <v>969</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C46" s="35" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="46" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B46" s="144" t="s">
+    <row r="47" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B47" s="143" t="s">
         <v>971</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C47" s="35" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="47" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B47" s="144" t="s">
+    <row r="48" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B48" s="143" t="s">
         <v>973</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C48" s="35" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="48" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B48" s="144" t="s">
+    <row r="49" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B49" s="143" t="s">
         <v>975</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C49" s="35" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B49" s="144" t="s">
+    <row r="50" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B50" s="143" t="s">
         <v>977</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C50" s="35" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B50" s="144" t="s">
+    <row r="51" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B51" s="143" t="s">
         <v>979</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C51" s="35" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B51" s="144" t="s">
+    <row r="52" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B52" s="143" t="s">
         <v>981</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C52" s="35" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B52" s="144" t="s">
+    <row r="53" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B53" s="143" t="s">
         <v>983</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C53" s="35" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B53" s="144" t="s">
+    <row r="54" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B54" s="143" t="s">
         <v>985</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C54" s="35" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="54" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B54" s="144" t="s">
+    <row r="55" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B55" s="143" t="s">
         <v>986</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C55" s="35" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B55" s="144" t="s">
+    <row r="56" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B56" s="143" t="s">
         <v>988</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C56" s="35" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B56" s="144" t="s">
+    <row r="57" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B57" s="143" t="s">
         <v>989</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C57" s="35" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B57" s="144" t="s">
+    <row r="58" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B58" s="143" t="s">
         <v>989</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C58" s="35" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B58" s="144" t="s">
+    <row r="59" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B59" s="143" t="s">
         <v>992</v>
       </c>
-      <c r="C58" s="145"/>
-    </row>
-    <row r="59" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B59" s="144" t="s">
+      <c r="C59" s="144"/>
+    </row>
+    <row r="60" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B60" s="143" t="s">
         <v>993</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C60" s="35" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="60" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B60" s="144" t="s">
+    <row r="61" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B61" s="143" t="s">
         <v>995</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C61" s="35" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B61" s="144" t="s">
+    <row r="62" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B62" s="143" t="s">
         <v>997</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C62" s="35" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B62" s="144" t="s">
+    <row r="63" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B63" s="143" t="s">
         <v>999</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C63" s="35" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B63" s="144" t="s">
+    <row r="64" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B64" s="143" t="s">
         <v>1001</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C64" s="35" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B64" s="144" t="s">
+    <row r="65" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B65" s="143" t="s">
         <v>1002</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C65" s="35" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B65" s="144" t="s">
+    <row r="66" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B66" s="143" t="s">
         <v>1004</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C66" s="35" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="66" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B66" s="144" t="s">
+    <row r="67" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B67" s="143" t="s">
         <v>1006</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C67" s="35" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B67" s="144" t="s">
+    <row r="68" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B68" s="143" t="s">
         <v>1007</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C68" s="35" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="68" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B68" s="144" t="s">
+    <row r="69" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B69" s="143" t="s">
         <v>1009</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C69" s="35" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="69" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B69" s="144" t="s">
+    <row r="70" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B70" s="143" t="s">
         <v>1010</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C70" s="35" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B70" s="144" t="s">
+    <row r="71" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B71" s="143" t="s">
         <v>1012</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C71" s="35" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="71" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B71" s="144" t="s">
+    <row r="72" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B72" s="143" t="s">
         <v>1014</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C72" s="35" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="72" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B72" s="144" t="s">
+    <row r="73" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B73" s="143" t="s">
         <v>1015</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C73" s="35" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="73" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B73" s="144" t="s">
+    <row r="74" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B74" s="143" t="s">
         <v>1016</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B74" s="144" t="s">
-        <v>1017</v>
       </c>
       <c r="C74" s="35" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="75" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="75" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B75" s="143" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>987</v>
+      </c>
+    </row>
     <row r="76" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="77" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="78" spans="2:3" ht="15.75" customHeight="1"/>
@@ -25009,53 +25103,55 @@
     <row r="1020" ht="15.75" customHeight="1"/>
     <row r="1021" ht="15.75" customHeight="1"/>
     <row r="1022" ht="15.75" customHeight="1"/>
+    <row r="1023" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
-    <hyperlink ref="B21" r:id="rId18" location=":~:text=Capturing%20the%20NTLMv2%20Hashes,-As%20we%20covered&amp;text=Once%20captured%2C%20the%20hashes%20will,a%20file%20named%20ntlm%2Dhashes." xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{00000000-0004-0000-0F00-000014000000}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{00000000-0004-0000-0F00-000015000000}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{00000000-0004-0000-0F00-000016000000}"/>
-    <hyperlink ref="B27" r:id="rId24" xr:uid="{00000000-0004-0000-0F00-000017000000}"/>
-    <hyperlink ref="B28" r:id="rId25" xr:uid="{00000000-0004-0000-0F00-000018000000}"/>
-    <hyperlink ref="B29" r:id="rId26" xr:uid="{00000000-0004-0000-0F00-000019000000}"/>
-    <hyperlink ref="B32" r:id="rId27" xr:uid="{00000000-0004-0000-0F00-00001A000000}"/>
-    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0F00-00001B000000}"/>
-    <hyperlink ref="B34" location="Resources!A1" display="Sample reports HERE" xr:uid="{00000000-0004-0000-0F00-00001C000000}"/>
-    <hyperlink ref="B35" r:id="rId29" xr:uid="{00000000-0004-0000-0F00-00001D000000}"/>
-    <hyperlink ref="B36" r:id="rId30" xr:uid="{00000000-0004-0000-0F00-00001E000000}"/>
-    <hyperlink ref="B37" r:id="rId31" xr:uid="{00000000-0004-0000-0F00-00001F000000}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
+    <hyperlink ref="B11" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
+    <hyperlink ref="B12" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
+    <hyperlink ref="B22" r:id="rId18" location=":~:text=Capturing%20the%20NTLMv2%20Hashes,-As%20we%20covered&amp;text=Once%20captured%2C%20the%20hashes%20will,a%20file%20named%20ntlm%2Dhashes." xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
+    <hyperlink ref="B23" r:id="rId19" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
+    <hyperlink ref="B24" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
+    <hyperlink ref="B25" r:id="rId21" xr:uid="{00000000-0004-0000-0F00-000014000000}"/>
+    <hyperlink ref="B26" r:id="rId22" xr:uid="{00000000-0004-0000-0F00-000015000000}"/>
+    <hyperlink ref="B27" r:id="rId23" xr:uid="{00000000-0004-0000-0F00-000016000000}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{00000000-0004-0000-0F00-000017000000}"/>
+    <hyperlink ref="B29" r:id="rId25" xr:uid="{00000000-0004-0000-0F00-000018000000}"/>
+    <hyperlink ref="B30" r:id="rId26" xr:uid="{00000000-0004-0000-0F00-000019000000}"/>
+    <hyperlink ref="B33" r:id="rId27" xr:uid="{00000000-0004-0000-0F00-00001A000000}"/>
+    <hyperlink ref="B34" r:id="rId28" xr:uid="{00000000-0004-0000-0F00-00001B000000}"/>
+    <hyperlink ref="B35" location="Resources!A1" display="Sample reports HERE" xr:uid="{00000000-0004-0000-0F00-00001C000000}"/>
+    <hyperlink ref="B36" r:id="rId29" xr:uid="{00000000-0004-0000-0F00-00001D000000}"/>
+    <hyperlink ref="B37" r:id="rId30" xr:uid="{00000000-0004-0000-0F00-00001E000000}"/>
+    <hyperlink ref="B38" r:id="rId31" xr:uid="{00000000-0004-0000-0F00-00001F000000}"/>
+    <hyperlink ref="B4" r:id="rId32" xr:uid="{51070C1A-0991-41B5-BC62-F225499617A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
@@ -25082,30 +25178,30 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>903</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="145" t="s">
         <v>1018</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="127" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="146" t="s">
         <v>1020</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="129" t="s">
         <v>1021</v>
       </c>
     </row>
@@ -25130,10 +25226,10 @@
       <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="240" t="s">
+      <c r="B11" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="226"/>
+      <c r="C11" s="229"/>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="89" t="s">
@@ -25182,36 +25278,36 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="148"/>
-      <c r="C18" s="149"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="148"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="150"/>
-      <c r="C19" s="149"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="148"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="150"/>
-      <c r="C20" s="149"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="148"/>
     </row>
     <row r="21" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B21" s="150"/>
-      <c r="C21" s="149"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="148"/>
     </row>
     <row r="22" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B22" s="150"/>
-      <c r="C22" s="149"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="148"/>
     </row>
     <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="76"/>
-      <c r="C23" s="149"/>
+      <c r="C23" s="148"/>
     </row>
     <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="76"/>
-      <c r="C24" s="149"/>
+      <c r="C24" s="148"/>
     </row>
     <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="76"/>
-      <c r="C25" s="149"/>
+      <c r="C25" s="148"/>
     </row>
     <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="79"/>
@@ -26236,16 +26332,16 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="87" t="s">
@@ -26304,12 +26400,12 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="151"/>
-      <c r="C11" s="128"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="127"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="152"/>
-      <c r="C12" s="130"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="129"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="91"/>
@@ -26332,10 +26428,10 @@
       <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="226"/>
+      <c r="C18" s="229"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="93"/>
@@ -27400,112 +27496,112 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="256" t="s">
         <v>1045</v>
       </c>
-      <c r="C2" s="230"/>
+      <c r="C2" s="233"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="253" t="s">
+      <c r="B3" s="257" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="254"/>
+      <c r="C3" s="258"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="208" t="s">
         <v>1047</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="216" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="211" t="s">
+      <c r="B5" s="209" t="s">
         <v>1049</v>
       </c>
-      <c r="C5" s="218" t="s">
+      <c r="C5" s="216" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="209" t="s">
         <v>1051</v>
       </c>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="216" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="210" t="s">
         <v>1053</v>
       </c>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="216" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="210" t="s">
         <v>1054</v>
       </c>
-      <c r="C8" s="219"/>
+      <c r="C8" s="217"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="214" t="s">
+      <c r="B9" s="212" t="s">
         <v>1056</v>
       </c>
-      <c r="C9" s="220" t="s">
+      <c r="C9" s="218" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="210" t="s">
         <v>1058</v>
       </c>
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="216" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="215" t="s">
+      <c r="B11" s="213" t="s">
         <v>1060</v>
       </c>
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="218" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="214" t="s">
         <v>1062</v>
       </c>
-      <c r="C12" s="220" t="s">
+      <c r="C12" s="218" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="213"/>
-      <c r="C13" s="217"/>
+      <c r="B13" s="211"/>
+      <c r="C13" s="215"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="213"/>
-      <c r="C14" s="194"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="192"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="213"/>
-      <c r="C15" s="194"/>
+      <c r="B15" s="211"/>
+      <c r="C15" s="192"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="208"/>
-      <c r="C16" s="209"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="207"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="226"/>
+      <c r="C18" s="229"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="93"/>
@@ -28579,10 +28675,10 @@
     <row r="1" spans="1:5" ht="1.5" customHeight="1"/>
     <row r="2" spans="1:5">
       <c r="A2" s="31"/>
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
     </row>
@@ -31549,19 +31645,19 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>1063</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="154" t="s">
+      <c r="B4" s="153" t="s">
         <v>1064</v>
       </c>
       <c r="C4" s="57" t="s">
@@ -31569,7 +31665,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="153" t="s">
         <v>1066</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -31577,7 +31673,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="153" t="s">
         <v>1068</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -31585,7 +31681,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="154" t="s">
         <v>1070</v>
       </c>
       <c r="C7" s="81" t="s">
@@ -31593,7 +31689,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="153" t="s">
         <v>1072</v>
       </c>
       <c r="C8" s="81" t="s">
@@ -31601,7 +31697,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="154" t="s">
+      <c r="B9" s="153" t="s">
         <v>1074</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -31609,7 +31705,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="155" t="s">
         <v>1076</v>
       </c>
       <c r="C10" s="81" t="s">
@@ -31617,16 +31713,16 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.25">
-      <c r="B11" s="157" t="s">
+      <c r="B11" s="156" t="s">
         <v>1078</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="157" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="159"/>
-      <c r="C12" s="130"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="129"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="91"/>
@@ -31649,10 +31745,10 @@
       <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="226"/>
+      <c r="C18" s="229"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="93"/>
@@ -32718,19 +32814,19 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>1080</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="154" t="s">
         <v>1081</v>
       </c>
       <c r="C4" s="57" t="s">
@@ -32738,7 +32834,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="153" t="s">
         <v>1083</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -32750,7 +32846,7 @@
       <c r="C6" s="57"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="153"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="81"/>
     </row>
     <row r="8" spans="1:3">
@@ -32766,12 +32862,12 @@
       <c r="C10" s="81"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="160"/>
-      <c r="C11" s="128"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="127"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="159"/>
-      <c r="C12" s="130"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="129"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="91"/>
@@ -32794,10 +32890,10 @@
       <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="226"/>
+      <c r="C18" s="229"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="93"/>
@@ -33861,19 +33957,19 @@
   <sheetData>
     <row r="1" spans="2:4" ht="1.5" customHeight="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="160" t="s">
         <v>1085</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="161" t="s">
         <v>1086</v>
       </c>
       <c r="D2" s="38"/>
     </row>
     <row r="3" spans="2:4" ht="405">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="162" t="s">
         <v>1087</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="163" t="s">
         <v>1088</v>
       </c>
     </row>
@@ -34882,906 +34978,906 @@
   <sheetData>
     <row r="1" spans="2:17" ht="1.5" customHeight="1"/>
     <row r="2" spans="2:17">
-      <c r="B2" s="255" t="s">
+      <c r="B2" s="259" t="s">
         <v>1089</v>
       </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="256"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="256"/>
-      <c r="N2" s="256"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
+      <c r="E2" s="260"/>
+      <c r="F2" s="260"/>
+      <c r="G2" s="260"/>
+      <c r="H2" s="260"/>
+      <c r="I2" s="260"/>
+      <c r="J2" s="260"/>
+      <c r="K2" s="260"/>
+      <c r="L2" s="260"/>
+      <c r="M2" s="260"/>
+      <c r="N2" s="260"/>
+      <c r="O2" s="260"/>
+      <c r="P2" s="260"/>
+      <c r="Q2" s="260"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1">
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="256"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="256"/>
-      <c r="N3" s="256"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="256"/>
-      <c r="Q3" s="256"/>
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="260"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="260"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="260"/>
     </row>
     <row r="4" spans="2:17" ht="15" customHeight="1">
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-      <c r="O4" s="256"/>
-      <c r="P4" s="256"/>
-      <c r="Q4" s="256"/>
+      <c r="B4" s="260"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
+      <c r="P4" s="260"/>
+      <c r="Q4" s="260"/>
     </row>
     <row r="5" spans="2:17" ht="15" customHeight="1">
-      <c r="B5" s="256"/>
-      <c r="C5" s="256"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
-      <c r="H5" s="256"/>
-      <c r="I5" s="256"/>
-      <c r="J5" s="256"/>
-      <c r="K5" s="256"/>
-      <c r="L5" s="256"/>
-      <c r="M5" s="256"/>
-      <c r="N5" s="256"/>
-      <c r="O5" s="256"/>
-      <c r="P5" s="256"/>
-      <c r="Q5" s="256"/>
+      <c r="B5" s="260"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="260"/>
+      <c r="M5" s="260"/>
+      <c r="N5" s="260"/>
+      <c r="O5" s="260"/>
+      <c r="P5" s="260"/>
+      <c r="Q5" s="260"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1">
-      <c r="B6" s="256"/>
-      <c r="C6" s="256"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="256"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="256"/>
-      <c r="P6" s="256"/>
-      <c r="Q6" s="256"/>
+      <c r="B6" s="260"/>
+      <c r="C6" s="260"/>
+      <c r="D6" s="260"/>
+      <c r="E6" s="260"/>
+      <c r="F6" s="260"/>
+      <c r="G6" s="260"/>
+      <c r="H6" s="260"/>
+      <c r="I6" s="260"/>
+      <c r="J6" s="260"/>
+      <c r="K6" s="260"/>
+      <c r="L6" s="260"/>
+      <c r="M6" s="260"/>
+      <c r="N6" s="260"/>
+      <c r="O6" s="260"/>
+      <c r="P6" s="260"/>
+      <c r="Q6" s="260"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1">
-      <c r="B7" s="256"/>
-      <c r="C7" s="256"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="256"/>
-      <c r="J7" s="256"/>
-      <c r="K7" s="256"/>
-      <c r="L7" s="256"/>
-      <c r="M7" s="256"/>
-      <c r="N7" s="256"/>
-      <c r="O7" s="256"/>
-      <c r="P7" s="256"/>
-      <c r="Q7" s="256"/>
+      <c r="B7" s="260"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="260"/>
+      <c r="H7" s="260"/>
+      <c r="I7" s="260"/>
+      <c r="J7" s="260"/>
+      <c r="K7" s="260"/>
+      <c r="L7" s="260"/>
+      <c r="M7" s="260"/>
+      <c r="N7" s="260"/>
+      <c r="O7" s="260"/>
+      <c r="P7" s="260"/>
+      <c r="Q7" s="260"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1">
-      <c r="B8" s="256"/>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="256"/>
-      <c r="K8" s="256"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="256"/>
-      <c r="O8" s="256"/>
-      <c r="P8" s="256"/>
-      <c r="Q8" s="256"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="260"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="260"/>
+      <c r="M8" s="260"/>
+      <c r="N8" s="260"/>
+      <c r="O8" s="260"/>
+      <c r="P8" s="260"/>
+      <c r="Q8" s="260"/>
     </row>
     <row r="9" spans="2:17" ht="15" customHeight="1">
-      <c r="B9" s="256"/>
-      <c r="C9" s="256"/>
-      <c r="D9" s="256"/>
-      <c r="E9" s="256"/>
-      <c r="F9" s="256"/>
-      <c r="G9" s="256"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="256"/>
-      <c r="L9" s="256"/>
-      <c r="M9" s="256"/>
-      <c r="N9" s="256"/>
-      <c r="O9" s="256"/>
-      <c r="P9" s="256"/>
-      <c r="Q9" s="256"/>
+      <c r="B9" s="260"/>
+      <c r="C9" s="260"/>
+      <c r="D9" s="260"/>
+      <c r="E9" s="260"/>
+      <c r="F9" s="260"/>
+      <c r="G9" s="260"/>
+      <c r="H9" s="260"/>
+      <c r="I9" s="260"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="260"/>
+      <c r="L9" s="260"/>
+      <c r="M9" s="260"/>
+      <c r="N9" s="260"/>
+      <c r="O9" s="260"/>
+      <c r="P9" s="260"/>
+      <c r="Q9" s="260"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1">
-      <c r="B10" s="256"/>
-      <c r="C10" s="256"/>
-      <c r="D10" s="256"/>
-      <c r="E10" s="256"/>
-      <c r="F10" s="256"/>
-      <c r="G10" s="256"/>
-      <c r="H10" s="256"/>
-      <c r="I10" s="256"/>
-      <c r="J10" s="256"/>
-      <c r="K10" s="256"/>
-      <c r="L10" s="256"/>
-      <c r="M10" s="256"/>
-      <c r="N10" s="256"/>
-      <c r="O10" s="256"/>
-      <c r="P10" s="256"/>
-      <c r="Q10" s="256"/>
+      <c r="B10" s="260"/>
+      <c r="C10" s="260"/>
+      <c r="D10" s="260"/>
+      <c r="E10" s="260"/>
+      <c r="F10" s="260"/>
+      <c r="G10" s="260"/>
+      <c r="H10" s="260"/>
+      <c r="I10" s="260"/>
+      <c r="J10" s="260"/>
+      <c r="K10" s="260"/>
+      <c r="L10" s="260"/>
+      <c r="M10" s="260"/>
+      <c r="N10" s="260"/>
+      <c r="O10" s="260"/>
+      <c r="P10" s="260"/>
+      <c r="Q10" s="260"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1">
-      <c r="B11" s="256"/>
-      <c r="C11" s="256"/>
-      <c r="D11" s="256"/>
-      <c r="E11" s="256"/>
-      <c r="F11" s="256"/>
-      <c r="G11" s="256"/>
-      <c r="H11" s="256"/>
-      <c r="I11" s="256"/>
-      <c r="J11" s="256"/>
-      <c r="K11" s="256"/>
-      <c r="L11" s="256"/>
-      <c r="M11" s="256"/>
-      <c r="N11" s="256"/>
-      <c r="O11" s="256"/>
-      <c r="P11" s="256"/>
-      <c r="Q11" s="256"/>
+      <c r="B11" s="260"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="260"/>
+      <c r="G11" s="260"/>
+      <c r="H11" s="260"/>
+      <c r="I11" s="260"/>
+      <c r="J11" s="260"/>
+      <c r="K11" s="260"/>
+      <c r="L11" s="260"/>
+      <c r="M11" s="260"/>
+      <c r="N11" s="260"/>
+      <c r="O11" s="260"/>
+      <c r="P11" s="260"/>
+      <c r="Q11" s="260"/>
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1">
-      <c r="B12" s="256"/>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
-      <c r="H12" s="256"/>
-      <c r="I12" s="256"/>
-      <c r="J12" s="256"/>
-      <c r="K12" s="256"/>
-      <c r="L12" s="256"/>
-      <c r="M12" s="256"/>
-      <c r="N12" s="256"/>
-      <c r="O12" s="256"/>
-      <c r="P12" s="256"/>
-      <c r="Q12" s="256"/>
+      <c r="B12" s="260"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="260"/>
+      <c r="E12" s="260"/>
+      <c r="F12" s="260"/>
+      <c r="G12" s="260"/>
+      <c r="H12" s="260"/>
+      <c r="I12" s="260"/>
+      <c r="J12" s="260"/>
+      <c r="K12" s="260"/>
+      <c r="L12" s="260"/>
+      <c r="M12" s="260"/>
+      <c r="N12" s="260"/>
+      <c r="O12" s="260"/>
+      <c r="P12" s="260"/>
+      <c r="Q12" s="260"/>
     </row>
     <row r="13" spans="2:17" ht="15" customHeight="1">
-      <c r="B13" s="256"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="256"/>
-      <c r="M13" s="256"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="256"/>
-      <c r="P13" s="256"/>
-      <c r="Q13" s="256"/>
+      <c r="B13" s="260"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="260"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="260"/>
+      <c r="K13" s="260"/>
+      <c r="L13" s="260"/>
+      <c r="M13" s="260"/>
+      <c r="N13" s="260"/>
+      <c r="O13" s="260"/>
+      <c r="P13" s="260"/>
+      <c r="Q13" s="260"/>
     </row>
     <row r="14" spans="2:17" ht="15" customHeight="1">
-      <c r="B14" s="256"/>
-      <c r="C14" s="256"/>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="256"/>
-      <c r="Q14" s="256"/>
+      <c r="B14" s="260"/>
+      <c r="C14" s="260"/>
+      <c r="D14" s="260"/>
+      <c r="E14" s="260"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="260"/>
+      <c r="K14" s="260"/>
+      <c r="L14" s="260"/>
+      <c r="M14" s="260"/>
+      <c r="N14" s="260"/>
+      <c r="O14" s="260"/>
+      <c r="P14" s="260"/>
+      <c r="Q14" s="260"/>
     </row>
     <row r="15" spans="2:17" ht="15" customHeight="1">
-      <c r="B15" s="256"/>
-      <c r="C15" s="256"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="256"/>
-      <c r="M15" s="256"/>
-      <c r="N15" s="256"/>
-      <c r="O15" s="256"/>
-      <c r="P15" s="256"/>
-      <c r="Q15" s="256"/>
+      <c r="B15" s="260"/>
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="260"/>
+      <c r="O15" s="260"/>
+      <c r="P15" s="260"/>
+      <c r="Q15" s="260"/>
     </row>
     <row r="16" spans="2:17" ht="15" customHeight="1">
-      <c r="B16" s="256"/>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
+      <c r="B16" s="260"/>
+      <c r="C16" s="260"/>
+      <c r="D16" s="260"/>
+      <c r="E16" s="260"/>
+      <c r="F16" s="260"/>
+      <c r="G16" s="260"/>
+      <c r="H16" s="260"/>
+      <c r="I16" s="260"/>
+      <c r="J16" s="260"/>
+      <c r="K16" s="260"/>
+      <c r="L16" s="260"/>
+      <c r="M16" s="260"/>
+      <c r="N16" s="260"/>
+      <c r="O16" s="260"/>
+      <c r="P16" s="260"/>
+      <c r="Q16" s="260"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1">
-      <c r="B17" s="256"/>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="256"/>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
+      <c r="B17" s="260"/>
+      <c r="C17" s="260"/>
+      <c r="D17" s="260"/>
+      <c r="E17" s="260"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="260"/>
+      <c r="H17" s="260"/>
+      <c r="I17" s="260"/>
+      <c r="J17" s="260"/>
+      <c r="K17" s="260"/>
+      <c r="L17" s="260"/>
+      <c r="M17" s="260"/>
+      <c r="N17" s="260"/>
+      <c r="O17" s="260"/>
+      <c r="P17" s="260"/>
+      <c r="Q17" s="260"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1">
-      <c r="B18" s="256"/>
-      <c r="C18" s="256"/>
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
+      <c r="B18" s="260"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="260"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="260"/>
+      <c r="J18" s="260"/>
+      <c r="K18" s="260"/>
+      <c r="L18" s="260"/>
+      <c r="M18" s="260"/>
+      <c r="N18" s="260"/>
+      <c r="O18" s="260"/>
+      <c r="P18" s="260"/>
+      <c r="Q18" s="260"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1">
-      <c r="B19" s="256"/>
-      <c r="C19" s="256"/>
-      <c r="D19" s="256"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="256"/>
-      <c r="G19" s="256"/>
-      <c r="H19" s="256"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="256"/>
-      <c r="K19" s="256"/>
-      <c r="L19" s="256"/>
-      <c r="M19" s="256"/>
-      <c r="N19" s="256"/>
-      <c r="O19" s="256"/>
-      <c r="P19" s="256"/>
-      <c r="Q19" s="256"/>
+      <c r="B19" s="260"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="260"/>
+      <c r="E19" s="260"/>
+      <c r="F19" s="260"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="260"/>
+      <c r="K19" s="260"/>
+      <c r="L19" s="260"/>
+      <c r="M19" s="260"/>
+      <c r="N19" s="260"/>
+      <c r="O19" s="260"/>
+      <c r="P19" s="260"/>
+      <c r="Q19" s="260"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1">
-      <c r="B20" s="256"/>
-      <c r="C20" s="256"/>
-      <c r="D20" s="256"/>
-      <c r="E20" s="256"/>
-      <c r="F20" s="256"/>
-      <c r="G20" s="256"/>
-      <c r="H20" s="256"/>
-      <c r="I20" s="256"/>
-      <c r="J20" s="256"/>
-      <c r="K20" s="256"/>
-      <c r="L20" s="256"/>
-      <c r="M20" s="256"/>
-      <c r="N20" s="256"/>
-      <c r="O20" s="256"/>
-      <c r="P20" s="256"/>
-      <c r="Q20" s="256"/>
+      <c r="B20" s="260"/>
+      <c r="C20" s="260"/>
+      <c r="D20" s="260"/>
+      <c r="E20" s="260"/>
+      <c r="F20" s="260"/>
+      <c r="G20" s="260"/>
+      <c r="H20" s="260"/>
+      <c r="I20" s="260"/>
+      <c r="J20" s="260"/>
+      <c r="K20" s="260"/>
+      <c r="L20" s="260"/>
+      <c r="M20" s="260"/>
+      <c r="N20" s="260"/>
+      <c r="O20" s="260"/>
+      <c r="P20" s="260"/>
+      <c r="Q20" s="260"/>
     </row>
     <row r="21" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B21" s="256"/>
-      <c r="C21" s="256"/>
-      <c r="D21" s="256"/>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="256"/>
-      <c r="I21" s="256"/>
-      <c r="J21" s="256"/>
-      <c r="K21" s="256"/>
-      <c r="L21" s="256"/>
-      <c r="M21" s="256"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="256"/>
-      <c r="P21" s="256"/>
-      <c r="Q21" s="256"/>
+      <c r="B21" s="260"/>
+      <c r="C21" s="260"/>
+      <c r="D21" s="260"/>
+      <c r="E21" s="260"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="260"/>
+      <c r="H21" s="260"/>
+      <c r="I21" s="260"/>
+      <c r="J21" s="260"/>
+      <c r="K21" s="260"/>
+      <c r="L21" s="260"/>
+      <c r="M21" s="260"/>
+      <c r="N21" s="260"/>
+      <c r="O21" s="260"/>
+      <c r="P21" s="260"/>
+      <c r="Q21" s="260"/>
     </row>
     <row r="22" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B22" s="256"/>
-      <c r="C22" s="256"/>
-      <c r="D22" s="256"/>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
-      <c r="H22" s="256"/>
-      <c r="I22" s="256"/>
-      <c r="J22" s="256"/>
-      <c r="K22" s="256"/>
-      <c r="L22" s="256"/>
-      <c r="M22" s="256"/>
-      <c r="N22" s="256"/>
-      <c r="O22" s="256"/>
-      <c r="P22" s="256"/>
-      <c r="Q22" s="256"/>
+      <c r="B22" s="260"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="260"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
+      <c r="H22" s="260"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="260"/>
+      <c r="K22" s="260"/>
+      <c r="L22" s="260"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="260"/>
+      <c r="O22" s="260"/>
+      <c r="P22" s="260"/>
+      <c r="Q22" s="260"/>
     </row>
     <row r="23" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B23" s="256"/>
-      <c r="C23" s="256"/>
-      <c r="D23" s="256"/>
-      <c r="E23" s="256"/>
-      <c r="F23" s="256"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="256"/>
-      <c r="K23" s="256"/>
-      <c r="L23" s="256"/>
-      <c r="M23" s="256"/>
-      <c r="N23" s="256"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="256"/>
-      <c r="Q23" s="256"/>
+      <c r="B23" s="260"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="260"/>
+      <c r="E23" s="260"/>
+      <c r="F23" s="260"/>
+      <c r="G23" s="260"/>
+      <c r="H23" s="260"/>
+      <c r="I23" s="260"/>
+      <c r="J23" s="260"/>
+      <c r="K23" s="260"/>
+      <c r="L23" s="260"/>
+      <c r="M23" s="260"/>
+      <c r="N23" s="260"/>
+      <c r="O23" s="260"/>
+      <c r="P23" s="260"/>
+      <c r="Q23" s="260"/>
     </row>
     <row r="24" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B24" s="256"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="256"/>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
-      <c r="H24" s="256"/>
-      <c r="I24" s="256"/>
-      <c r="J24" s="256"/>
-      <c r="K24" s="256"/>
-      <c r="L24" s="256"/>
-      <c r="M24" s="256"/>
-      <c r="N24" s="256"/>
-      <c r="O24" s="256"/>
-      <c r="P24" s="256"/>
-      <c r="Q24" s="256"/>
+      <c r="B24" s="260"/>
+      <c r="C24" s="260"/>
+      <c r="D24" s="260"/>
+      <c r="E24" s="260"/>
+      <c r="F24" s="260"/>
+      <c r="G24" s="260"/>
+      <c r="H24" s="260"/>
+      <c r="I24" s="260"/>
+      <c r="J24" s="260"/>
+      <c r="K24" s="260"/>
+      <c r="L24" s="260"/>
+      <c r="M24" s="260"/>
+      <c r="N24" s="260"/>
+      <c r="O24" s="260"/>
+      <c r="P24" s="260"/>
+      <c r="Q24" s="260"/>
     </row>
     <row r="25" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B25" s="256"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="256"/>
-      <c r="H25" s="256"/>
-      <c r="I25" s="256"/>
-      <c r="J25" s="256"/>
-      <c r="K25" s="256"/>
-      <c r="L25" s="256"/>
-      <c r="M25" s="256"/>
-      <c r="N25" s="256"/>
-      <c r="O25" s="256"/>
-      <c r="P25" s="256"/>
-      <c r="Q25" s="256"/>
+      <c r="B25" s="260"/>
+      <c r="C25" s="260"/>
+      <c r="D25" s="260"/>
+      <c r="E25" s="260"/>
+      <c r="F25" s="260"/>
+      <c r="G25" s="260"/>
+      <c r="H25" s="260"/>
+      <c r="I25" s="260"/>
+      <c r="J25" s="260"/>
+      <c r="K25" s="260"/>
+      <c r="L25" s="260"/>
+      <c r="M25" s="260"/>
+      <c r="N25" s="260"/>
+      <c r="O25" s="260"/>
+      <c r="P25" s="260"/>
+      <c r="Q25" s="260"/>
     </row>
     <row r="26" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B26" s="256"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="256"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
-      <c r="H26" s="256"/>
-      <c r="I26" s="256"/>
-      <c r="J26" s="256"/>
-      <c r="K26" s="256"/>
-      <c r="L26" s="256"/>
-      <c r="M26" s="256"/>
-      <c r="N26" s="256"/>
-      <c r="O26" s="256"/>
-      <c r="P26" s="256"/>
-      <c r="Q26" s="256"/>
+      <c r="B26" s="260"/>
+      <c r="C26" s="260"/>
+      <c r="D26" s="260"/>
+      <c r="E26" s="260"/>
+      <c r="F26" s="260"/>
+      <c r="G26" s="260"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="260"/>
+      <c r="J26" s="260"/>
+      <c r="K26" s="260"/>
+      <c r="L26" s="260"/>
+      <c r="M26" s="260"/>
+      <c r="N26" s="260"/>
+      <c r="O26" s="260"/>
+      <c r="P26" s="260"/>
+      <c r="Q26" s="260"/>
     </row>
     <row r="27" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B27" s="256"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
-      <c r="H27" s="256"/>
-      <c r="I27" s="256"/>
-      <c r="J27" s="256"/>
-      <c r="K27" s="256"/>
-      <c r="L27" s="256"/>
-      <c r="M27" s="256"/>
-      <c r="N27" s="256"/>
-      <c r="O27" s="256"/>
-      <c r="P27" s="256"/>
-      <c r="Q27" s="256"/>
+      <c r="B27" s="260"/>
+      <c r="C27" s="260"/>
+      <c r="D27" s="260"/>
+      <c r="E27" s="260"/>
+      <c r="F27" s="260"/>
+      <c r="G27" s="260"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="260"/>
+      <c r="J27" s="260"/>
+      <c r="K27" s="260"/>
+      <c r="L27" s="260"/>
+      <c r="M27" s="260"/>
+      <c r="N27" s="260"/>
+      <c r="O27" s="260"/>
+      <c r="P27" s="260"/>
+      <c r="Q27" s="260"/>
     </row>
     <row r="28" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B28" s="256"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="256"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="256"/>
-      <c r="I28" s="256"/>
-      <c r="J28" s="256"/>
-      <c r="K28" s="256"/>
-      <c r="L28" s="256"/>
-      <c r="M28" s="256"/>
-      <c r="N28" s="256"/>
-      <c r="O28" s="256"/>
-      <c r="P28" s="256"/>
-      <c r="Q28" s="256"/>
+      <c r="B28" s="260"/>
+      <c r="C28" s="260"/>
+      <c r="D28" s="260"/>
+      <c r="E28" s="260"/>
+      <c r="F28" s="260"/>
+      <c r="G28" s="260"/>
+      <c r="H28" s="260"/>
+      <c r="I28" s="260"/>
+      <c r="J28" s="260"/>
+      <c r="K28" s="260"/>
+      <c r="L28" s="260"/>
+      <c r="M28" s="260"/>
+      <c r="N28" s="260"/>
+      <c r="O28" s="260"/>
+      <c r="P28" s="260"/>
+      <c r="Q28" s="260"/>
     </row>
     <row r="29" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B29" s="256"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="256"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="256"/>
-      <c r="H29" s="256"/>
-      <c r="I29" s="256"/>
-      <c r="J29" s="256"/>
-      <c r="K29" s="256"/>
-      <c r="L29" s="256"/>
-      <c r="M29" s="256"/>
-      <c r="N29" s="256"/>
-      <c r="O29" s="256"/>
-      <c r="P29" s="256"/>
-      <c r="Q29" s="256"/>
+      <c r="B29" s="260"/>
+      <c r="C29" s="260"/>
+      <c r="D29" s="260"/>
+      <c r="E29" s="260"/>
+      <c r="F29" s="260"/>
+      <c r="G29" s="260"/>
+      <c r="H29" s="260"/>
+      <c r="I29" s="260"/>
+      <c r="J29" s="260"/>
+      <c r="K29" s="260"/>
+      <c r="L29" s="260"/>
+      <c r="M29" s="260"/>
+      <c r="N29" s="260"/>
+      <c r="O29" s="260"/>
+      <c r="P29" s="260"/>
+      <c r="Q29" s="260"/>
     </row>
     <row r="30" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B30" s="256"/>
-      <c r="C30" s="256"/>
-      <c r="D30" s="256"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
-      <c r="H30" s="256"/>
-      <c r="I30" s="256"/>
-      <c r="J30" s="256"/>
-      <c r="K30" s="256"/>
-      <c r="L30" s="256"/>
-      <c r="M30" s="256"/>
-      <c r="N30" s="256"/>
-      <c r="O30" s="256"/>
-      <c r="P30" s="256"/>
-      <c r="Q30" s="256"/>
+      <c r="B30" s="260"/>
+      <c r="C30" s="260"/>
+      <c r="D30" s="260"/>
+      <c r="E30" s="260"/>
+      <c r="F30" s="260"/>
+      <c r="G30" s="260"/>
+      <c r="H30" s="260"/>
+      <c r="I30" s="260"/>
+      <c r="J30" s="260"/>
+      <c r="K30" s="260"/>
+      <c r="L30" s="260"/>
+      <c r="M30" s="260"/>
+      <c r="N30" s="260"/>
+      <c r="O30" s="260"/>
+      <c r="P30" s="260"/>
+      <c r="Q30" s="260"/>
     </row>
     <row r="31" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B31" s="256"/>
-      <c r="C31" s="256"/>
-      <c r="D31" s="256"/>
-      <c r="E31" s="256"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
-      <c r="H31" s="256"/>
-      <c r="I31" s="256"/>
-      <c r="J31" s="256"/>
-      <c r="K31" s="256"/>
-      <c r="L31" s="256"/>
-      <c r="M31" s="256"/>
-      <c r="N31" s="256"/>
-      <c r="O31" s="256"/>
-      <c r="P31" s="256"/>
-      <c r="Q31" s="256"/>
+      <c r="B31" s="260"/>
+      <c r="C31" s="260"/>
+      <c r="D31" s="260"/>
+      <c r="E31" s="260"/>
+      <c r="F31" s="260"/>
+      <c r="G31" s="260"/>
+      <c r="H31" s="260"/>
+      <c r="I31" s="260"/>
+      <c r="J31" s="260"/>
+      <c r="K31" s="260"/>
+      <c r="L31" s="260"/>
+      <c r="M31" s="260"/>
+      <c r="N31" s="260"/>
+      <c r="O31" s="260"/>
+      <c r="P31" s="260"/>
+      <c r="Q31" s="260"/>
     </row>
     <row r="32" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B32" s="256"/>
-      <c r="C32" s="256"/>
-      <c r="D32" s="256"/>
-      <c r="E32" s="256"/>
-      <c r="F32" s="256"/>
-      <c r="G32" s="256"/>
-      <c r="H32" s="256"/>
-      <c r="I32" s="256"/>
-      <c r="J32" s="256"/>
-      <c r="K32" s="256"/>
-      <c r="L32" s="256"/>
-      <c r="M32" s="256"/>
-      <c r="N32" s="256"/>
-      <c r="O32" s="256"/>
-      <c r="P32" s="256"/>
-      <c r="Q32" s="256"/>
+      <c r="B32" s="260"/>
+      <c r="C32" s="260"/>
+      <c r="D32" s="260"/>
+      <c r="E32" s="260"/>
+      <c r="F32" s="260"/>
+      <c r="G32" s="260"/>
+      <c r="H32" s="260"/>
+      <c r="I32" s="260"/>
+      <c r="J32" s="260"/>
+      <c r="K32" s="260"/>
+      <c r="L32" s="260"/>
+      <c r="M32" s="260"/>
+      <c r="N32" s="260"/>
+      <c r="O32" s="260"/>
+      <c r="P32" s="260"/>
+      <c r="Q32" s="260"/>
     </row>
     <row r="33" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B33" s="256"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="256"/>
-      <c r="F33" s="256"/>
-      <c r="G33" s="256"/>
-      <c r="H33" s="256"/>
-      <c r="I33" s="256"/>
-      <c r="J33" s="256"/>
-      <c r="K33" s="256"/>
-      <c r="L33" s="256"/>
-      <c r="M33" s="256"/>
-      <c r="N33" s="256"/>
-      <c r="O33" s="256"/>
-      <c r="P33" s="256"/>
-      <c r="Q33" s="256"/>
+      <c r="B33" s="260"/>
+      <c r="C33" s="260"/>
+      <c r="D33" s="260"/>
+      <c r="E33" s="260"/>
+      <c r="F33" s="260"/>
+      <c r="G33" s="260"/>
+      <c r="H33" s="260"/>
+      <c r="I33" s="260"/>
+      <c r="J33" s="260"/>
+      <c r="K33" s="260"/>
+      <c r="L33" s="260"/>
+      <c r="M33" s="260"/>
+      <c r="N33" s="260"/>
+      <c r="O33" s="260"/>
+      <c r="P33" s="260"/>
+      <c r="Q33" s="260"/>
     </row>
     <row r="34" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B34" s="256"/>
-      <c r="C34" s="256"/>
-      <c r="D34" s="256"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="256"/>
-      <c r="G34" s="256"/>
-      <c r="H34" s="256"/>
-      <c r="I34" s="256"/>
-      <c r="J34" s="256"/>
-      <c r="K34" s="256"/>
-      <c r="L34" s="256"/>
-      <c r="M34" s="256"/>
-      <c r="N34" s="256"/>
-      <c r="O34" s="256"/>
-      <c r="P34" s="256"/>
-      <c r="Q34" s="256"/>
+      <c r="B34" s="260"/>
+      <c r="C34" s="260"/>
+      <c r="D34" s="260"/>
+      <c r="E34" s="260"/>
+      <c r="F34" s="260"/>
+      <c r="G34" s="260"/>
+      <c r="H34" s="260"/>
+      <c r="I34" s="260"/>
+      <c r="J34" s="260"/>
+      <c r="K34" s="260"/>
+      <c r="L34" s="260"/>
+      <c r="M34" s="260"/>
+      <c r="N34" s="260"/>
+      <c r="O34" s="260"/>
+      <c r="P34" s="260"/>
+      <c r="Q34" s="260"/>
     </row>
     <row r="35" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B35" s="256"/>
-      <c r="C35" s="256"/>
-      <c r="D35" s="256"/>
-      <c r="E35" s="256"/>
-      <c r="F35" s="256"/>
-      <c r="G35" s="256"/>
-      <c r="H35" s="256"/>
-      <c r="I35" s="256"/>
-      <c r="J35" s="256"/>
-      <c r="K35" s="256"/>
-      <c r="L35" s="256"/>
-      <c r="M35" s="256"/>
-      <c r="N35" s="256"/>
-      <c r="O35" s="256"/>
-      <c r="P35" s="256"/>
-      <c r="Q35" s="256"/>
+      <c r="B35" s="260"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="260"/>
+      <c r="E35" s="260"/>
+      <c r="F35" s="260"/>
+      <c r="G35" s="260"/>
+      <c r="H35" s="260"/>
+      <c r="I35" s="260"/>
+      <c r="J35" s="260"/>
+      <c r="K35" s="260"/>
+      <c r="L35" s="260"/>
+      <c r="M35" s="260"/>
+      <c r="N35" s="260"/>
+      <c r="O35" s="260"/>
+      <c r="P35" s="260"/>
+      <c r="Q35" s="260"/>
     </row>
     <row r="36" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B36" s="256"/>
-      <c r="C36" s="256"/>
-      <c r="D36" s="256"/>
-      <c r="E36" s="256"/>
-      <c r="F36" s="256"/>
-      <c r="G36" s="256"/>
-      <c r="H36" s="256"/>
-      <c r="I36" s="256"/>
-      <c r="J36" s="256"/>
-      <c r="K36" s="256"/>
-      <c r="L36" s="256"/>
-      <c r="M36" s="256"/>
-      <c r="N36" s="256"/>
-      <c r="O36" s="256"/>
-      <c r="P36" s="256"/>
-      <c r="Q36" s="256"/>
+      <c r="B36" s="260"/>
+      <c r="C36" s="260"/>
+      <c r="D36" s="260"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="260"/>
+      <c r="H36" s="260"/>
+      <c r="I36" s="260"/>
+      <c r="J36" s="260"/>
+      <c r="K36" s="260"/>
+      <c r="L36" s="260"/>
+      <c r="M36" s="260"/>
+      <c r="N36" s="260"/>
+      <c r="O36" s="260"/>
+      <c r="P36" s="260"/>
+      <c r="Q36" s="260"/>
     </row>
     <row r="37" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B37" s="256"/>
-      <c r="C37" s="256"/>
-      <c r="D37" s="256"/>
-      <c r="E37" s="256"/>
-      <c r="F37" s="256"/>
-      <c r="G37" s="256"/>
-      <c r="H37" s="256"/>
-      <c r="I37" s="256"/>
-      <c r="J37" s="256"/>
-      <c r="K37" s="256"/>
-      <c r="L37" s="256"/>
-      <c r="M37" s="256"/>
-      <c r="N37" s="256"/>
-      <c r="O37" s="256"/>
-      <c r="P37" s="256"/>
-      <c r="Q37" s="256"/>
+      <c r="B37" s="260"/>
+      <c r="C37" s="260"/>
+      <c r="D37" s="260"/>
+      <c r="E37" s="260"/>
+      <c r="F37" s="260"/>
+      <c r="G37" s="260"/>
+      <c r="H37" s="260"/>
+      <c r="I37" s="260"/>
+      <c r="J37" s="260"/>
+      <c r="K37" s="260"/>
+      <c r="L37" s="260"/>
+      <c r="M37" s="260"/>
+      <c r="N37" s="260"/>
+      <c r="O37" s="260"/>
+      <c r="P37" s="260"/>
+      <c r="Q37" s="260"/>
     </row>
     <row r="38" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B38" s="256"/>
-      <c r="C38" s="256"/>
-      <c r="D38" s="256"/>
-      <c r="E38" s="256"/>
-      <c r="F38" s="256"/>
-      <c r="G38" s="256"/>
-      <c r="H38" s="256"/>
-      <c r="I38" s="256"/>
-      <c r="J38" s="256"/>
-      <c r="K38" s="256"/>
-      <c r="L38" s="256"/>
-      <c r="M38" s="256"/>
-      <c r="N38" s="256"/>
-      <c r="O38" s="256"/>
-      <c r="P38" s="256"/>
-      <c r="Q38" s="256"/>
+      <c r="B38" s="260"/>
+      <c r="C38" s="260"/>
+      <c r="D38" s="260"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="260"/>
+      <c r="G38" s="260"/>
+      <c r="H38" s="260"/>
+      <c r="I38" s="260"/>
+      <c r="J38" s="260"/>
+      <c r="K38" s="260"/>
+      <c r="L38" s="260"/>
+      <c r="M38" s="260"/>
+      <c r="N38" s="260"/>
+      <c r="O38" s="260"/>
+      <c r="P38" s="260"/>
+      <c r="Q38" s="260"/>
     </row>
     <row r="39" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B39" s="256"/>
-      <c r="C39" s="256"/>
-      <c r="D39" s="256"/>
-      <c r="E39" s="256"/>
-      <c r="F39" s="256"/>
-      <c r="G39" s="256"/>
-      <c r="H39" s="256"/>
-      <c r="I39" s="256"/>
-      <c r="J39" s="256"/>
-      <c r="K39" s="256"/>
-      <c r="L39" s="256"/>
-      <c r="M39" s="256"/>
-      <c r="N39" s="256"/>
-      <c r="O39" s="256"/>
-      <c r="P39" s="256"/>
-      <c r="Q39" s="256"/>
+      <c r="B39" s="260"/>
+      <c r="C39" s="260"/>
+      <c r="D39" s="260"/>
+      <c r="E39" s="260"/>
+      <c r="F39" s="260"/>
+      <c r="G39" s="260"/>
+      <c r="H39" s="260"/>
+      <c r="I39" s="260"/>
+      <c r="J39" s="260"/>
+      <c r="K39" s="260"/>
+      <c r="L39" s="260"/>
+      <c r="M39" s="260"/>
+      <c r="N39" s="260"/>
+      <c r="O39" s="260"/>
+      <c r="P39" s="260"/>
+      <c r="Q39" s="260"/>
     </row>
     <row r="40" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B40" s="256"/>
-      <c r="C40" s="256"/>
-      <c r="D40" s="256"/>
-      <c r="E40" s="256"/>
-      <c r="F40" s="256"/>
-      <c r="G40" s="256"/>
-      <c r="H40" s="256"/>
-      <c r="I40" s="256"/>
-      <c r="J40" s="256"/>
-      <c r="K40" s="256"/>
-      <c r="L40" s="256"/>
-      <c r="M40" s="256"/>
-      <c r="N40" s="256"/>
-      <c r="O40" s="256"/>
-      <c r="P40" s="256"/>
-      <c r="Q40" s="256"/>
+      <c r="B40" s="260"/>
+      <c r="C40" s="260"/>
+      <c r="D40" s="260"/>
+      <c r="E40" s="260"/>
+      <c r="F40" s="260"/>
+      <c r="G40" s="260"/>
+      <c r="H40" s="260"/>
+      <c r="I40" s="260"/>
+      <c r="J40" s="260"/>
+      <c r="K40" s="260"/>
+      <c r="L40" s="260"/>
+      <c r="M40" s="260"/>
+      <c r="N40" s="260"/>
+      <c r="O40" s="260"/>
+      <c r="P40" s="260"/>
+      <c r="Q40" s="260"/>
     </row>
     <row r="41" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B41" s="256"/>
-      <c r="C41" s="256"/>
-      <c r="D41" s="256"/>
-      <c r="E41" s="256"/>
-      <c r="F41" s="256"/>
-      <c r="G41" s="256"/>
-      <c r="H41" s="256"/>
-      <c r="I41" s="256"/>
-      <c r="J41" s="256"/>
-      <c r="K41" s="256"/>
-      <c r="L41" s="256"/>
-      <c r="M41" s="256"/>
-      <c r="N41" s="256"/>
-      <c r="O41" s="256"/>
-      <c r="P41" s="256"/>
-      <c r="Q41" s="256"/>
+      <c r="B41" s="260"/>
+      <c r="C41" s="260"/>
+      <c r="D41" s="260"/>
+      <c r="E41" s="260"/>
+      <c r="F41" s="260"/>
+      <c r="G41" s="260"/>
+      <c r="H41" s="260"/>
+      <c r="I41" s="260"/>
+      <c r="J41" s="260"/>
+      <c r="K41" s="260"/>
+      <c r="L41" s="260"/>
+      <c r="M41" s="260"/>
+      <c r="N41" s="260"/>
+      <c r="O41" s="260"/>
+      <c r="P41" s="260"/>
+      <c r="Q41" s="260"/>
     </row>
     <row r="42" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B42" s="256"/>
-      <c r="C42" s="256"/>
-      <c r="D42" s="256"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="256"/>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="256"/>
-      <c r="L42" s="256"/>
-      <c r="M42" s="256"/>
-      <c r="N42" s="256"/>
-      <c r="O42" s="256"/>
-      <c r="P42" s="256"/>
-      <c r="Q42" s="256"/>
+      <c r="B42" s="260"/>
+      <c r="C42" s="260"/>
+      <c r="D42" s="260"/>
+      <c r="E42" s="260"/>
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="260"/>
+      <c r="J42" s="260"/>
+      <c r="K42" s="260"/>
+      <c r="L42" s="260"/>
+      <c r="M42" s="260"/>
+      <c r="N42" s="260"/>
+      <c r="O42" s="260"/>
+      <c r="P42" s="260"/>
+      <c r="Q42" s="260"/>
     </row>
     <row r="43" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B43" s="256"/>
-      <c r="C43" s="256"/>
-      <c r="D43" s="256"/>
-      <c r="E43" s="256"/>
-      <c r="F43" s="256"/>
-      <c r="G43" s="256"/>
-      <c r="H43" s="256"/>
-      <c r="I43" s="256"/>
-      <c r="J43" s="256"/>
-      <c r="K43" s="256"/>
-      <c r="L43" s="256"/>
-      <c r="M43" s="256"/>
-      <c r="N43" s="256"/>
-      <c r="O43" s="256"/>
-      <c r="P43" s="256"/>
-      <c r="Q43" s="256"/>
+      <c r="B43" s="260"/>
+      <c r="C43" s="260"/>
+      <c r="D43" s="260"/>
+      <c r="E43" s="260"/>
+      <c r="F43" s="260"/>
+      <c r="G43" s="260"/>
+      <c r="H43" s="260"/>
+      <c r="I43" s="260"/>
+      <c r="J43" s="260"/>
+      <c r="K43" s="260"/>
+      <c r="L43" s="260"/>
+      <c r="M43" s="260"/>
+      <c r="N43" s="260"/>
+      <c r="O43" s="260"/>
+      <c r="P43" s="260"/>
+      <c r="Q43" s="260"/>
     </row>
     <row r="44" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B44" s="256"/>
-      <c r="C44" s="256"/>
-      <c r="D44" s="256"/>
-      <c r="E44" s="256"/>
-      <c r="F44" s="256"/>
-      <c r="G44" s="256"/>
-      <c r="H44" s="256"/>
-      <c r="I44" s="256"/>
-      <c r="J44" s="256"/>
-      <c r="K44" s="256"/>
-      <c r="L44" s="256"/>
-      <c r="M44" s="256"/>
-      <c r="N44" s="256"/>
-      <c r="O44" s="256"/>
-      <c r="P44" s="256"/>
-      <c r="Q44" s="256"/>
+      <c r="B44" s="260"/>
+      <c r="C44" s="260"/>
+      <c r="D44" s="260"/>
+      <c r="E44" s="260"/>
+      <c r="F44" s="260"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="260"/>
+      <c r="I44" s="260"/>
+      <c r="J44" s="260"/>
+      <c r="K44" s="260"/>
+      <c r="L44" s="260"/>
+      <c r="M44" s="260"/>
+      <c r="N44" s="260"/>
+      <c r="O44" s="260"/>
+      <c r="P44" s="260"/>
+      <c r="Q44" s="260"/>
     </row>
     <row r="45" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B45" s="256"/>
-      <c r="C45" s="256"/>
-      <c r="D45" s="256"/>
-      <c r="E45" s="256"/>
-      <c r="F45" s="256"/>
-      <c r="G45" s="256"/>
-      <c r="H45" s="256"/>
-      <c r="I45" s="256"/>
-      <c r="J45" s="256"/>
-      <c r="K45" s="256"/>
-      <c r="L45" s="256"/>
-      <c r="M45" s="256"/>
-      <c r="N45" s="256"/>
-      <c r="O45" s="256"/>
-      <c r="P45" s="256"/>
-      <c r="Q45" s="256"/>
+      <c r="B45" s="260"/>
+      <c r="C45" s="260"/>
+      <c r="D45" s="260"/>
+      <c r="E45" s="260"/>
+      <c r="F45" s="260"/>
+      <c r="G45" s="260"/>
+      <c r="H45" s="260"/>
+      <c r="I45" s="260"/>
+      <c r="J45" s="260"/>
+      <c r="K45" s="260"/>
+      <c r="L45" s="260"/>
+      <c r="M45" s="260"/>
+      <c r="N45" s="260"/>
+      <c r="O45" s="260"/>
+      <c r="P45" s="260"/>
+      <c r="Q45" s="260"/>
     </row>
     <row r="46" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B46" s="256"/>
-      <c r="C46" s="256"/>
-      <c r="D46" s="256"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="256"/>
-      <c r="H46" s="256"/>
-      <c r="I46" s="256"/>
-      <c r="J46" s="256"/>
-      <c r="K46" s="256"/>
-      <c r="L46" s="256"/>
-      <c r="M46" s="256"/>
-      <c r="N46" s="256"/>
-      <c r="O46" s="256"/>
-      <c r="P46" s="256"/>
-      <c r="Q46" s="256"/>
+      <c r="B46" s="260"/>
+      <c r="C46" s="260"/>
+      <c r="D46" s="260"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="260"/>
+      <c r="G46" s="260"/>
+      <c r="H46" s="260"/>
+      <c r="I46" s="260"/>
+      <c r="J46" s="260"/>
+      <c r="K46" s="260"/>
+      <c r="L46" s="260"/>
+      <c r="M46" s="260"/>
+      <c r="N46" s="260"/>
+      <c r="O46" s="260"/>
+      <c r="P46" s="260"/>
+      <c r="Q46" s="260"/>
     </row>
     <row r="47" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B47" s="256"/>
-      <c r="C47" s="256"/>
-      <c r="D47" s="256"/>
-      <c r="E47" s="256"/>
-      <c r="F47" s="256"/>
-      <c r="G47" s="256"/>
-      <c r="H47" s="256"/>
-      <c r="I47" s="256"/>
-      <c r="J47" s="256"/>
-      <c r="K47" s="256"/>
-      <c r="L47" s="256"/>
-      <c r="M47" s="256"/>
-      <c r="N47" s="256"/>
-      <c r="O47" s="256"/>
-      <c r="P47" s="256"/>
-      <c r="Q47" s="256"/>
+      <c r="B47" s="260"/>
+      <c r="C47" s="260"/>
+      <c r="D47" s="260"/>
+      <c r="E47" s="260"/>
+      <c r="F47" s="260"/>
+      <c r="G47" s="260"/>
+      <c r="H47" s="260"/>
+      <c r="I47" s="260"/>
+      <c r="J47" s="260"/>
+      <c r="K47" s="260"/>
+      <c r="L47" s="260"/>
+      <c r="M47" s="260"/>
+      <c r="N47" s="260"/>
+      <c r="O47" s="260"/>
+      <c r="P47" s="260"/>
+      <c r="Q47" s="260"/>
     </row>
     <row r="48" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B48" s="256"/>
-      <c r="C48" s="256"/>
-      <c r="D48" s="256"/>
-      <c r="E48" s="256"/>
-      <c r="F48" s="256"/>
-      <c r="G48" s="256"/>
-      <c r="H48" s="256"/>
-      <c r="I48" s="256"/>
-      <c r="J48" s="256"/>
-      <c r="K48" s="256"/>
-      <c r="L48" s="256"/>
-      <c r="M48" s="256"/>
-      <c r="N48" s="256"/>
-      <c r="O48" s="256"/>
-      <c r="P48" s="256"/>
-      <c r="Q48" s="256"/>
+      <c r="B48" s="260"/>
+      <c r="C48" s="260"/>
+      <c r="D48" s="260"/>
+      <c r="E48" s="260"/>
+      <c r="F48" s="260"/>
+      <c r="G48" s="260"/>
+      <c r="H48" s="260"/>
+      <c r="I48" s="260"/>
+      <c r="J48" s="260"/>
+      <c r="K48" s="260"/>
+      <c r="L48" s="260"/>
+      <c r="M48" s="260"/>
+      <c r="N48" s="260"/>
+      <c r="O48" s="260"/>
+      <c r="P48" s="260"/>
+      <c r="Q48" s="260"/>
     </row>
     <row r="49" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B49" s="256"/>
-      <c r="C49" s="256"/>
-      <c r="D49" s="256"/>
-      <c r="E49" s="256"/>
-      <c r="F49" s="256"/>
-      <c r="G49" s="256"/>
-      <c r="H49" s="256"/>
-      <c r="I49" s="256"/>
-      <c r="J49" s="256"/>
-      <c r="K49" s="256"/>
-      <c r="L49" s="256"/>
-      <c r="M49" s="256"/>
-      <c r="N49" s="256"/>
-      <c r="O49" s="256"/>
-      <c r="P49" s="256"/>
-      <c r="Q49" s="256"/>
+      <c r="B49" s="260"/>
+      <c r="C49" s="260"/>
+      <c r="D49" s="260"/>
+      <c r="E49" s="260"/>
+      <c r="F49" s="260"/>
+      <c r="G49" s="260"/>
+      <c r="H49" s="260"/>
+      <c r="I49" s="260"/>
+      <c r="J49" s="260"/>
+      <c r="K49" s="260"/>
+      <c r="L49" s="260"/>
+      <c r="M49" s="260"/>
+      <c r="N49" s="260"/>
+      <c r="O49" s="260"/>
+      <c r="P49" s="260"/>
+      <c r="Q49" s="260"/>
     </row>
     <row r="50" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B50" s="256"/>
-      <c r="C50" s="256"/>
-      <c r="D50" s="256"/>
-      <c r="E50" s="256"/>
-      <c r="F50" s="256"/>
-      <c r="G50" s="256"/>
-      <c r="H50" s="256"/>
-      <c r="I50" s="256"/>
-      <c r="J50" s="256"/>
-      <c r="K50" s="256"/>
-      <c r="L50" s="256"/>
-      <c r="M50" s="256"/>
-      <c r="N50" s="256"/>
-      <c r="O50" s="256"/>
-      <c r="P50" s="256"/>
-      <c r="Q50" s="256"/>
+      <c r="B50" s="260"/>
+      <c r="C50" s="260"/>
+      <c r="D50" s="260"/>
+      <c r="E50" s="260"/>
+      <c r="F50" s="260"/>
+      <c r="G50" s="260"/>
+      <c r="H50" s="260"/>
+      <c r="I50" s="260"/>
+      <c r="J50" s="260"/>
+      <c r="K50" s="260"/>
+      <c r="L50" s="260"/>
+      <c r="M50" s="260"/>
+      <c r="N50" s="260"/>
+      <c r="O50" s="260"/>
+      <c r="P50" s="260"/>
+      <c r="Q50" s="260"/>
     </row>
     <row r="51" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B51" s="256"/>
-      <c r="C51" s="256"/>
-      <c r="D51" s="256"/>
-      <c r="E51" s="256"/>
-      <c r="F51" s="256"/>
-      <c r="G51" s="256"/>
-      <c r="H51" s="256"/>
-      <c r="I51" s="256"/>
-      <c r="J51" s="256"/>
-      <c r="K51" s="256"/>
-      <c r="L51" s="256"/>
-      <c r="M51" s="256"/>
-      <c r="N51" s="256"/>
-      <c r="O51" s="256"/>
-      <c r="P51" s="256"/>
-      <c r="Q51" s="256"/>
+      <c r="B51" s="260"/>
+      <c r="C51" s="260"/>
+      <c r="D51" s="260"/>
+      <c r="E51" s="260"/>
+      <c r="F51" s="260"/>
+      <c r="G51" s="260"/>
+      <c r="H51" s="260"/>
+      <c r="I51" s="260"/>
+      <c r="J51" s="260"/>
+      <c r="K51" s="260"/>
+      <c r="L51" s="260"/>
+      <c r="M51" s="260"/>
+      <c r="N51" s="260"/>
+      <c r="O51" s="260"/>
+      <c r="P51" s="260"/>
+      <c r="Q51" s="260"/>
     </row>
     <row r="52" spans="2:17" ht="15.75" customHeight="1"/>
     <row r="53" spans="2:17" ht="15.75" customHeight="1"/>
@@ -36743,9 +36839,11 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="B1:E1000"/>
+  <dimension ref="B1:E1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -36759,423 +36857,432 @@
   <sheetData>
     <row r="1" spans="2:5" ht="1.5" customHeight="1"/>
     <row r="2" spans="2:5">
-      <c r="B2" s="257" t="s">
+      <c r="B2" s="261" t="s">
         <v>1090</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="226"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="228"/>
+      <c r="E2" s="229"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="164" t="s">
         <v>1091</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="164" t="s">
         <v>1092</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="164" t="s">
         <v>1093</v>
       </c>
-      <c r="E3" s="165" t="s">
+      <c r="E3" s="164" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="165" t="s">
         <v>1095</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="166" t="s">
         <v>1096</v>
       </c>
-      <c r="D4" s="168">
+      <c r="D4" s="167">
         <v>44943</v>
       </c>
-      <c r="E4" s="169"/>
+      <c r="E4" s="168"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="166"/>
-      <c r="C5" s="167" t="s">
+      <c r="B5" s="165"/>
+      <c r="C5" s="166" t="s">
         <v>1097</v>
       </c>
-      <c r="D5" s="168">
+      <c r="D5" s="167">
         <v>44943</v>
       </c>
-      <c r="E5" s="169"/>
+      <c r="E5" s="168"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="166"/>
-      <c r="C6" s="167" t="s">
+      <c r="B6" s="165"/>
+      <c r="C6" s="166" t="s">
         <v>1098</v>
       </c>
-      <c r="D6" s="168">
+      <c r="D6" s="167">
         <v>44943</v>
       </c>
-      <c r="E6" s="169"/>
+      <c r="E6" s="168"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="165" t="s">
         <v>1099</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="166" t="s">
         <v>1100</v>
       </c>
-      <c r="D7" s="168">
+      <c r="D7" s="167">
         <v>44943</v>
       </c>
-      <c r="E7" s="169"/>
+      <c r="E7" s="168"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="166"/>
-      <c r="C8" s="167" t="s">
+      <c r="B8" s="165"/>
+      <c r="C8" s="166" t="s">
         <v>1101</v>
       </c>
-      <c r="D8" s="168">
+      <c r="D8" s="167">
         <v>44943</v>
       </c>
-      <c r="E8" s="169"/>
+      <c r="E8" s="168"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="165" t="s">
         <v>1102</v>
       </c>
-      <c r="C9" s="167" t="s">
+      <c r="C9" s="166" t="s">
         <v>1103</v>
       </c>
-      <c r="D9" s="168">
+      <c r="D9" s="167">
         <v>44943</v>
       </c>
-      <c r="E9" s="169"/>
+      <c r="E9" s="168"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167" t="s">
+      <c r="B10" s="165"/>
+      <c r="C10" s="166" t="s">
         <v>1104</v>
       </c>
-      <c r="D10" s="168">
+      <c r="D10" s="167">
         <v>44943</v>
       </c>
-      <c r="E10" s="169"/>
+      <c r="E10" s="168"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="165" t="s">
         <v>1105</v>
       </c>
-      <c r="C11" s="167" t="s">
+      <c r="C11" s="166" t="s">
         <v>1106</v>
       </c>
-      <c r="D11" s="168">
+      <c r="D11" s="167">
         <v>44943</v>
       </c>
-      <c r="E11" s="169"/>
+      <c r="E11" s="168"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="166" t="s">
+      <c r="B12" s="165" t="s">
         <v>1107</v>
       </c>
-      <c r="C12" s="167" t="s">
+      <c r="C12" s="166" t="s">
         <v>1108</v>
       </c>
-      <c r="D12" s="168">
+      <c r="D12" s="167">
         <v>44943</v>
       </c>
-      <c r="E12" s="169"/>
+      <c r="E12" s="168"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="165" t="s">
         <v>1109</v>
       </c>
-      <c r="C13" s="167" t="s">
+      <c r="C13" s="166" t="s">
         <v>1110</v>
       </c>
-      <c r="D13" s="168">
+      <c r="D13" s="167">
         <v>44943</v>
       </c>
-      <c r="E13" s="169" t="s">
+      <c r="E13" s="168" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="165" t="s">
         <v>1112</v>
       </c>
-      <c r="C14" s="167" t="s">
+      <c r="C14" s="166" t="s">
         <v>1113</v>
       </c>
-      <c r="D14" s="168">
+      <c r="D14" s="167">
         <v>44943</v>
       </c>
-      <c r="E14" s="169"/>
+      <c r="E14" s="168"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="165" t="s">
         <v>1114</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="166" t="s">
         <v>1115</v>
       </c>
-      <c r="D15" s="168">
+      <c r="D15" s="167">
         <v>44943</v>
       </c>
-      <c r="E15" s="169"/>
+      <c r="E15" s="168"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="169" t="s">
         <v>1116</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="166" t="s">
         <v>1117</v>
       </c>
-      <c r="D16" s="168">
+      <c r="D16" s="167">
         <v>44943</v>
       </c>
-      <c r="E16" s="169"/>
+      <c r="E16" s="168"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="169" t="s">
         <v>1118</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="166" t="s">
         <v>1119</v>
       </c>
-      <c r="D17" s="168">
+      <c r="D17" s="167">
         <v>44943</v>
       </c>
-      <c r="E17" s="169"/>
+      <c r="E17" s="168"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="166" t="s">
+      <c r="B18" s="165" t="s">
         <v>1120</v>
       </c>
-      <c r="C18" s="167" t="s">
+      <c r="C18" s="166" t="s">
         <v>1121</v>
       </c>
-      <c r="D18" s="168">
+      <c r="D18" s="167">
         <v>44943</v>
       </c>
-      <c r="E18" s="169"/>
+      <c r="E18" s="168"/>
     </row>
     <row r="19" spans="2:5" ht="45">
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="281" t="s">
         <v>1122</v>
       </c>
-      <c r="C19" s="172" t="s">
+      <c r="C19" s="282" t="s">
         <v>1123</v>
       </c>
-      <c r="D19" s="173">
+      <c r="D19" s="283">
         <v>44943</v>
       </c>
-      <c r="E19" s="169"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="260" t="s">
+      <c r="E19" s="284"/>
+    </row>
+    <row r="20" spans="2:5" ht="15" customHeight="1">
+      <c r="B20" s="287" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C20" s="288" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D20" s="289"/>
+      <c r="E20" s="290"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="285" t="s">
         <v>1124</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="226"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B21" s="166" t="s">
+      <c r="C21" s="286"/>
+      <c r="D21" s="286"/>
+      <c r="E21" s="252"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B22" s="165" t="s">
         <v>1125</v>
       </c>
-      <c r="C21" s="167" t="s">
+      <c r="C22" s="166" t="s">
         <v>1126</v>
       </c>
-      <c r="D21" s="173">
+      <c r="D22" s="171">
         <v>44943</v>
       </c>
-      <c r="E21" s="169"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B22" s="166" t="s">
+      <c r="E22" s="168"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B23" s="165" t="s">
         <v>1127</v>
       </c>
-      <c r="C22" s="167" t="s">
+      <c r="C23" s="166" t="s">
         <v>1128</v>
       </c>
-      <c r="D22" s="173">
+      <c r="D23" s="171">
         <v>44943</v>
       </c>
-      <c r="E22" s="169"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B23" s="166" t="s">
+      <c r="E23" s="168"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B24" s="165" t="s">
         <v>1099</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C24" s="166" t="s">
         <v>1129</v>
       </c>
-      <c r="D23" s="173">
+      <c r="D24" s="171">
         <v>44943</v>
       </c>
-      <c r="E23" s="169"/>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B24" s="166"/>
-      <c r="C24" s="167" t="s">
+      <c r="E24" s="168"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B25" s="165"/>
+      <c r="C25" s="166" t="s">
         <v>1130</v>
       </c>
-      <c r="D24" s="173">
+      <c r="D25" s="171">
         <v>44943</v>
       </c>
-      <c r="E24" s="169"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B25" s="166"/>
-      <c r="C25" s="167" t="s">
+      <c r="E25" s="168"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B26" s="165"/>
+      <c r="C26" s="166" t="s">
         <v>1131</v>
       </c>
-      <c r="D25" s="173">
+      <c r="D26" s="171">
         <v>44943</v>
       </c>
-      <c r="E25" s="169"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B26" s="166"/>
-      <c r="C26" s="167" t="s">
+      <c r="E26" s="168"/>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B27" s="165"/>
+      <c r="C27" s="166" t="s">
         <v>1132</v>
       </c>
-      <c r="D26" s="173">
+      <c r="D27" s="171">
         <v>44943</v>
       </c>
-      <c r="E26" s="169"/>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B27" s="166" t="s">
+      <c r="E27" s="168"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B28" s="165" t="s">
         <v>1133</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C28" s="166" t="s">
         <v>1134</v>
       </c>
-      <c r="D27" s="173">
+      <c r="D28" s="171">
         <v>44943</v>
       </c>
-      <c r="E27" s="169"/>
-    </row>
-    <row r="28" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B28" s="166" t="s">
+      <c r="E28" s="168"/>
+    </row>
+    <row r="29" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B29" s="165" t="s">
         <v>1135</v>
       </c>
-      <c r="C28" s="167" t="s">
+      <c r="C29" s="166" t="s">
         <v>1136</v>
       </c>
-      <c r="D28" s="173">
+      <c r="D29" s="171">
         <v>44943</v>
       </c>
-      <c r="E28" s="169"/>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B29" s="166"/>
-      <c r="C29" s="167" t="s">
+      <c r="E29" s="168"/>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B30" s="165"/>
+      <c r="C30" s="166" t="s">
         <v>1024</v>
       </c>
-      <c r="D29" s="173">
+      <c r="D30" s="171">
         <v>44943</v>
       </c>
-      <c r="E29" s="169"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B30" s="166"/>
-      <c r="C30" s="167" t="s">
+      <c r="E30" s="168"/>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B31" s="165"/>
+      <c r="C31" s="166" t="s">
         <v>1137</v>
       </c>
-      <c r="D30" s="173">
+      <c r="D31" s="171">
         <v>44943</v>
       </c>
-      <c r="E30" s="169"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B31" s="166"/>
-      <c r="C31" s="167" t="s">
+      <c r="E31" s="168"/>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B32" s="165"/>
+      <c r="C32" s="166" t="s">
         <v>1121</v>
       </c>
-      <c r="D31" s="173">
+      <c r="D32" s="171">
         <v>44943</v>
       </c>
-      <c r="E31" s="169"/>
-    </row>
-    <row r="32" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B32" s="260" t="s">
+      <c r="E32" s="168"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B33" s="264" t="s">
         <v>1138</v>
       </c>
-      <c r="C32" s="225"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="226"/>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B33" s="166" t="s">
+      <c r="C33" s="228"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="229"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B34" s="165" t="s">
         <v>1139</v>
       </c>
-      <c r="C33" s="261" t="s">
+      <c r="C34" s="265" t="s">
         <v>1140</v>
       </c>
-      <c r="D33" s="225"/>
-      <c r="E33" s="226"/>
-    </row>
-    <row r="34" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B34" s="166"/>
-      <c r="C34" s="261" t="s">
+      <c r="D34" s="228"/>
+      <c r="E34" s="229"/>
+    </row>
+    <row r="35" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B35" s="165"/>
+      <c r="C35" s="265" t="s">
         <v>1141</v>
       </c>
-      <c r="D34" s="225"/>
-      <c r="E34" s="226"/>
-    </row>
-    <row r="35" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B35" s="166"/>
-      <c r="C35" s="261" t="s">
+      <c r="D35" s="228"/>
+      <c r="E35" s="229"/>
+    </row>
+    <row r="36" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B36" s="165"/>
+      <c r="C36" s="265" t="s">
         <v>1142</v>
       </c>
-      <c r="D35" s="225"/>
-      <c r="E35" s="226"/>
-    </row>
-    <row r="36" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B36" s="166"/>
-      <c r="C36" s="261" t="s">
+      <c r="D36" s="228"/>
+      <c r="E36" s="229"/>
+    </row>
+    <row r="37" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B37" s="165"/>
+      <c r="C37" s="265" t="s">
         <v>1143</v>
       </c>
-      <c r="D36" s="225"/>
-      <c r="E36" s="226"/>
-    </row>
-    <row r="37" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B37" s="257" t="s">
+      <c r="D37" s="228"/>
+      <c r="E37" s="229"/>
+    </row>
+    <row r="38" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B38" s="261" t="s">
         <v>1144</v>
       </c>
-      <c r="C37" s="225"/>
-      <c r="D37" s="225"/>
-      <c r="E37" s="226"/>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B38" s="166" t="s">
+      <c r="C38" s="228"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="229"/>
+    </row>
+    <row r="39" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B39" s="165" t="s">
         <v>1144</v>
       </c>
-      <c r="C38" s="258" t="s">
+      <c r="C39" s="262" t="s">
         <v>1145</v>
       </c>
-      <c r="D38" s="225"/>
-      <c r="E38" s="226"/>
-    </row>
-    <row r="39" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B39" s="257" t="s">
+      <c r="D39" s="228"/>
+      <c r="E39" s="229"/>
+    </row>
+    <row r="40" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B40" s="261" t="s">
         <v>1146</v>
       </c>
-      <c r="C39" s="225"/>
-      <c r="D39" s="225"/>
-      <c r="E39" s="226"/>
-    </row>
-    <row r="40" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B40" s="166" t="s">
+      <c r="C40" s="228"/>
+      <c r="D40" s="228"/>
+      <c r="E40" s="229"/>
+    </row>
+    <row r="41" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B41" s="165" t="s">
         <v>1146</v>
       </c>
-      <c r="C40" s="259" t="s">
+      <c r="C41" s="263" t="s">
         <v>860</v>
       </c>
-      <c r="D40" s="256"/>
-      <c r="E40" s="256"/>
-    </row>
-    <row r="41" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B41" s="174"/>
-    </row>
-    <row r="42" spans="2:5" ht="15.75" customHeight="1"/>
+      <c r="D41" s="260"/>
+      <c r="E41" s="260"/>
+    </row>
+    <row r="42" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B42" s="172"/>
+    </row>
     <row r="43" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="44" spans="2:5" ht="15.75" customHeight="1"/>
     <row r="45" spans="2:5" ht="15.75" customHeight="1"/>
@@ -38134,19 +38241,20 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="C41:E41"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
@@ -38165,26 +38273,26 @@
     <hyperlink ref="C17" r:id="rId14" xr:uid="{00000000-0004-0000-1700-00000D000000}"/>
     <hyperlink ref="C18" r:id="rId15" xr:uid="{00000000-0004-0000-1700-00000E000000}"/>
     <hyperlink ref="C19" r:id="rId16" xr:uid="{00000000-0004-0000-1700-00000F000000}"/>
-    <hyperlink ref="C21" r:id="rId17" xr:uid="{00000000-0004-0000-1700-000010000000}"/>
-    <hyperlink ref="C22" r:id="rId18" xr:uid="{00000000-0004-0000-1700-000011000000}"/>
-    <hyperlink ref="C23" r:id="rId19" xr:uid="{00000000-0004-0000-1700-000012000000}"/>
-    <hyperlink ref="C24" r:id="rId20" xr:uid="{00000000-0004-0000-1700-000013000000}"/>
-    <hyperlink ref="C25" r:id="rId21" xr:uid="{00000000-0004-0000-1700-000014000000}"/>
-    <hyperlink ref="C26" r:id="rId22" xr:uid="{00000000-0004-0000-1700-000015000000}"/>
-    <hyperlink ref="C27" r:id="rId23" xr:uid="{00000000-0004-0000-1700-000016000000}"/>
-    <hyperlink ref="C28" r:id="rId24" xr:uid="{00000000-0004-0000-1700-000017000000}"/>
-    <hyperlink ref="C29" r:id="rId25" xr:uid="{00000000-0004-0000-1700-000018000000}"/>
-    <hyperlink ref="C30" r:id="rId26" xr:uid="{00000000-0004-0000-1700-000019000000}"/>
-    <hyperlink ref="C31" r:id="rId27" xr:uid="{00000000-0004-0000-1700-00001A000000}"/>
-    <hyperlink ref="C33" r:id="rId28" xr:uid="{00000000-0004-0000-1700-00001B000000}"/>
-    <hyperlink ref="C34" r:id="rId29" xr:uid="{00000000-0004-0000-1700-00001C000000}"/>
-    <hyperlink ref="C35" r:id="rId30" xr:uid="{00000000-0004-0000-1700-00001D000000}"/>
-    <hyperlink ref="C36" r:id="rId31" xr:uid="{00000000-0004-0000-1700-00001E000000}"/>
-    <hyperlink ref="C38" r:id="rId32" xr:uid="{00000000-0004-0000-1700-00001F000000}"/>
-    <hyperlink ref="C40" r:id="rId33" xr:uid="{00000000-0004-0000-1700-000020000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-1700-000010000000}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{00000000-0004-0000-1700-000011000000}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-1700-000012000000}"/>
+    <hyperlink ref="C25" r:id="rId20" xr:uid="{00000000-0004-0000-1700-000013000000}"/>
+    <hyperlink ref="C26" r:id="rId21" xr:uid="{00000000-0004-0000-1700-000014000000}"/>
+    <hyperlink ref="C27" r:id="rId22" xr:uid="{00000000-0004-0000-1700-000015000000}"/>
+    <hyperlink ref="C28" r:id="rId23" xr:uid="{00000000-0004-0000-1700-000016000000}"/>
+    <hyperlink ref="C29" r:id="rId24" xr:uid="{00000000-0004-0000-1700-000017000000}"/>
+    <hyperlink ref="C30" r:id="rId25" xr:uid="{00000000-0004-0000-1700-000018000000}"/>
+    <hyperlink ref="C31" r:id="rId26" xr:uid="{00000000-0004-0000-1700-000019000000}"/>
+    <hyperlink ref="C32" r:id="rId27" xr:uid="{00000000-0004-0000-1700-00001A000000}"/>
+    <hyperlink ref="C34" r:id="rId28" xr:uid="{00000000-0004-0000-1700-00001B000000}"/>
+    <hyperlink ref="C35" r:id="rId29" xr:uid="{00000000-0004-0000-1700-00001C000000}"/>
+    <hyperlink ref="C36" r:id="rId30" xr:uid="{00000000-0004-0000-1700-00001D000000}"/>
+    <hyperlink ref="C37" r:id="rId31" xr:uid="{00000000-0004-0000-1700-00001E000000}"/>
+    <hyperlink ref="C39" r:id="rId32" xr:uid="{00000000-0004-0000-1700-00001F000000}"/>
+    <hyperlink ref="C41" r:id="rId33" xr:uid="{00000000-0004-0000-1700-000020000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -38205,227 +38313,227 @@
   <sheetData>
     <row r="1" spans="2:4" ht="1.5" customHeight="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="262" t="s">
+      <c r="B2" s="266" t="s">
         <v>1147</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="226"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="229"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="165" t="s">
+      <c r="B3" s="164" t="s">
         <v>1091</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="164" t="s">
         <v>1092</v>
       </c>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="164" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="165" t="s">
         <v>1148</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="173" t="s">
         <v>1149</v>
       </c>
-      <c r="D4" s="169"/>
+      <c r="D4" s="168"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="165" t="s">
         <v>1150</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="173" t="s">
         <v>1151</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="168"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="165" t="s">
         <v>1152</v>
       </c>
-      <c r="C6" s="175" t="s">
+      <c r="C6" s="173" t="s">
         <v>1153</v>
       </c>
-      <c r="D6" s="169"/>
+      <c r="D6" s="168"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="165" t="s">
         <v>1154</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="173" t="s">
         <v>1155</v>
       </c>
-      <c r="D7" s="169"/>
+      <c r="D7" s="168"/>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="165" t="s">
         <v>1156</v>
       </c>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="173" t="s">
         <v>1157</v>
       </c>
-      <c r="D8" s="169"/>
+      <c r="D8" s="168"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="165" t="s">
         <v>1158</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="173" t="s">
         <v>1159</v>
       </c>
-      <c r="D9" s="169"/>
+      <c r="D9" s="168"/>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="166" t="s">
+      <c r="B10" s="165" t="s">
         <v>1160</v>
       </c>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="173" t="s">
         <v>1161</v>
       </c>
-      <c r="D10" s="169"/>
+      <c r="D10" s="168"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="166"/>
-      <c r="C11" s="175" t="s">
+      <c r="B11" s="165"/>
+      <c r="C11" s="173" t="s">
         <v>1162</v>
       </c>
-      <c r="D11" s="169"/>
+      <c r="D11" s="168"/>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="166"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="93"/>
-      <c r="D12" s="169"/>
+      <c r="D12" s="168"/>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="166"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="93"/>
-      <c r="D13" s="169"/>
+      <c r="D13" s="168"/>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="166"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="93"/>
-      <c r="D14" s="169"/>
+      <c r="D14" s="168"/>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="166"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="93"/>
-      <c r="D15" s="169"/>
+      <c r="D15" s="168"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="170"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="93"/>
-      <c r="D16" s="169"/>
+      <c r="D16" s="168"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="170"/>
+      <c r="B17" s="169"/>
       <c r="C17" s="93"/>
-      <c r="D17" s="169"/>
+      <c r="D17" s="168"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="166"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="93"/>
-      <c r="D18" s="169"/>
+      <c r="D18" s="168"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="171"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="169"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="168"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="264"/>
-      <c r="C20" s="225"/>
-      <c r="D20" s="226"/>
+      <c r="B20" s="268"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="229"/>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B21" s="166"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="93"/>
-      <c r="D21" s="169"/>
+      <c r="D21" s="168"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B22" s="166"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="93"/>
-      <c r="D22" s="169"/>
+      <c r="D22" s="168"/>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B23" s="166"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="93"/>
-      <c r="D23" s="169"/>
+      <c r="D23" s="168"/>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B24" s="166"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="93"/>
-      <c r="D24" s="169"/>
+      <c r="D24" s="168"/>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B25" s="166"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="93"/>
-      <c r="D25" s="169"/>
+      <c r="D25" s="168"/>
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B26" s="166"/>
+      <c r="B26" s="165"/>
       <c r="C26" s="93"/>
-      <c r="D26" s="169"/>
+      <c r="D26" s="168"/>
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B27" s="166"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="93"/>
-      <c r="D27" s="169"/>
+      <c r="D27" s="168"/>
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B28" s="166"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="93"/>
-      <c r="D28" s="169"/>
+      <c r="D28" s="168"/>
     </row>
     <row r="29" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B29" s="166"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="93"/>
-      <c r="D29" s="169"/>
+      <c r="D29" s="168"/>
     </row>
     <row r="30" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B30" s="166"/>
+      <c r="B30" s="165"/>
       <c r="C30" s="93"/>
-      <c r="D30" s="169"/>
+      <c r="D30" s="168"/>
     </row>
     <row r="31" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B31" s="166"/>
+      <c r="B31" s="165"/>
       <c r="C31" s="93"/>
-      <c r="D31" s="169"/>
+      <c r="D31" s="168"/>
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B32" s="264"/>
-      <c r="C32" s="225"/>
-      <c r="D32" s="226"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="229"/>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B33" s="166"/>
-      <c r="C33" s="265"/>
-      <c r="D33" s="226"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="229"/>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B34" s="166"/>
-      <c r="C34" s="265"/>
-      <c r="D34" s="226"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="229"/>
     </row>
     <row r="35" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B35" s="166"/>
-      <c r="C35" s="265"/>
-      <c r="D35" s="226"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="229"/>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B36" s="166"/>
-      <c r="C36" s="265"/>
-      <c r="D36" s="226"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="269"/>
+      <c r="D36" s="229"/>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B37" s="262"/>
-      <c r="C37" s="225"/>
-      <c r="D37" s="226"/>
+      <c r="B37" s="266"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="229"/>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B38" s="166"/>
-      <c r="C38" s="263"/>
-      <c r="D38" s="226"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="267"/>
+      <c r="D38" s="229"/>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:4" ht="15.75" customHeight="1"/>
@@ -39433,24 +39541,24 @@
   <sheetData>
     <row r="1" spans="1:4" ht="1.5" customHeight="1"/>
     <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="271" t="s">
         <v>1163</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="269"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="273"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="177" t="s">
+      <c r="A3" s="175" t="s">
         <v>1164</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="176" t="s">
         <v>1165</v>
       </c>
-      <c r="C3" s="165" t="s">
+      <c r="C3" s="164" t="s">
         <v>1092</v>
       </c>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="177" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -39458,13 +39566,13 @@
       <c r="A4" s="81" t="s">
         <v>1167</v>
       </c>
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="178" t="s">
         <v>1168</v>
       </c>
-      <c r="C4" s="181" t="s">
+      <c r="C4" s="179" t="s">
         <v>1169</v>
       </c>
-      <c r="D4" s="182" t="s">
+      <c r="D4" s="180" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -39472,13 +39580,13 @@
       <c r="A5" s="81" t="s">
         <v>1171</v>
       </c>
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="178" t="s">
         <v>1172</v>
       </c>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="179" t="s">
         <v>1173</v>
       </c>
-      <c r="D5" s="182" t="s">
+      <c r="D5" s="180" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -39486,13 +39594,13 @@
       <c r="A6" s="81" t="s">
         <v>1175</v>
       </c>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="178" t="s">
         <v>1176</v>
       </c>
-      <c r="C6" s="183" t="s">
+      <c r="C6" s="181" t="s">
         <v>1177</v>
       </c>
-      <c r="D6" s="182" t="s">
+      <c r="D6" s="180" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -39500,214 +39608,214 @@
       <c r="A7" s="81" t="s">
         <v>1179</v>
       </c>
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="178" t="s">
         <v>1180</v>
       </c>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="181" t="s">
         <v>1181</v>
       </c>
-      <c r="D7" s="182" t="s">
+      <c r="D7" s="180" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="184" t="s">
+      <c r="A8" s="182" t="s">
         <v>1183</v>
       </c>
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="178" t="s">
         <v>1184</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="183" t="s">
         <v>1185</v>
       </c>
-      <c r="D8" s="182" t="s">
+      <c r="D8" s="180" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="182" t="s">
         <v>1187</v>
       </c>
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="178" t="s">
         <v>1188</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="184" t="s">
         <v>1189</v>
       </c>
-      <c r="D9" s="182" t="s">
+      <c r="D9" s="180" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="187" t="s">
+      <c r="A10" s="185" t="s">
         <v>1191</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="178" t="s">
         <v>1192</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="184" t="s">
         <v>1193</v>
       </c>
-      <c r="D10" s="182" t="s">
+      <c r="D10" s="180" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="187" t="s">
+      <c r="A11" s="185" t="s">
         <v>1195</v>
       </c>
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="178" t="s">
         <v>1196</v>
       </c>
-      <c r="C11" s="186" t="s">
+      <c r="C11" s="184" t="s">
         <v>1197</v>
       </c>
-      <c r="D11" s="182" t="s">
+      <c r="D11" s="180" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="187" t="s">
+      <c r="A12" s="185" t="s">
         <v>1199</v>
       </c>
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="178" t="s">
         <v>1200</v>
       </c>
-      <c r="C12" s="186" t="s">
+      <c r="C12" s="184" t="s">
         <v>1201</v>
       </c>
-      <c r="D12" s="182" t="s">
+      <c r="D12" s="180" t="s">
         <v>1202</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="187" t="s">
+      <c r="A13" s="185" t="s">
         <v>1203</v>
       </c>
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="178" t="s">
         <v>1204</v>
       </c>
-      <c r="C13" s="186" t="s">
+      <c r="C13" s="184" t="s">
         <v>1205</v>
       </c>
-      <c r="D13" s="182" t="s">
+      <c r="D13" s="180" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="185" t="s">
         <v>1207</v>
       </c>
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="178" t="s">
         <v>1208</v>
       </c>
-      <c r="C14" s="186" t="s">
+      <c r="C14" s="184" t="s">
         <v>1209</v>
       </c>
-      <c r="D14" s="182" t="s">
+      <c r="D14" s="180" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="187" t="s">
+      <c r="A15" s="185" t="s">
         <v>1211</v>
       </c>
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="178" t="s">
         <v>1212</v>
       </c>
-      <c r="C15" s="186" t="s">
+      <c r="C15" s="184" t="s">
         <v>1213</v>
       </c>
-      <c r="D15" s="182" t="s">
+      <c r="D15" s="180" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="164" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="186" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="188" t="s">
+      <c r="A19" s="186" t="s">
         <v>1217</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="270" t="s">
+      <c r="A21" s="274" t="s">
         <v>1218</v>
       </c>
-      <c r="B21" s="226"/>
+      <c r="B21" s="229"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="271" t="s">
+      <c r="A22" s="275" t="s">
         <v>1219</v>
       </c>
-      <c r="B22" s="226"/>
+      <c r="B22" s="229"/>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="272" t="s">
+      <c r="A23" s="276" t="s">
         <v>1220</v>
       </c>
-      <c r="B23" s="226"/>
+      <c r="B23" s="229"/>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="273" t="s">
+      <c r="A24" s="277" t="s">
         <v>1221</v>
       </c>
-      <c r="B24" s="226"/>
+      <c r="B24" s="229"/>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="272" t="s">
+      <c r="A25" s="276" t="s">
         <v>1222</v>
       </c>
-      <c r="B25" s="226"/>
+      <c r="B25" s="229"/>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="273" t="s">
+      <c r="A26" s="277" t="s">
         <v>1223</v>
       </c>
-      <c r="B26" s="226"/>
+      <c r="B26" s="229"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="270" t="s">
+      <c r="A30" s="274" t="s">
         <v>1224</v>
       </c>
-      <c r="B30" s="226"/>
+      <c r="B30" s="229"/>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="274" t="s">
+      <c r="A31" s="278" t="s">
         <v>1225</v>
       </c>
-      <c r="B31" s="226"/>
+      <c r="B31" s="229"/>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="272" t="s">
+      <c r="A32" s="276" t="s">
         <v>1226</v>
       </c>
-      <c r="B32" s="226"/>
+      <c r="B32" s="229"/>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="275" t="s">
+      <c r="A33" s="279" t="s">
         <v>1227</v>
       </c>
-      <c r="B33" s="226"/>
+      <c r="B33" s="229"/>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="276"/>
-      <c r="B34" s="226"/>
+      <c r="A34" s="280"/>
+      <c r="B34" s="229"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="266"/>
-      <c r="B35" s="226"/>
+      <c r="A35" s="270"/>
+      <c r="B35" s="229"/>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="37" spans="1:2" ht="15.75" customHeight="1"/>
@@ -40721,7 +40829,7 @@
   </sheetPr>
   <dimension ref="A1:Z1021"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -40738,25 +40846,25 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="31"/>
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="31"/>
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="39"/>
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="195" t="s">
         <v>486</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -40788,7 +40896,7 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="39"/>
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="195" t="s">
         <v>488</v>
       </c>
       <c r="C5" s="44" t="s">
@@ -40820,7 +40928,7 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="39"/>
-      <c r="B6" s="197" t="s">
+      <c r="B6" s="195" t="s">
         <v>490</v>
       </c>
       <c r="C6" s="41" t="s">
@@ -40852,7 +40960,7 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="39"/>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="194" t="s">
         <v>492</v>
       </c>
       <c r="C7" s="41" t="s">
@@ -40884,7 +40992,7 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="39"/>
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="194" t="s">
         <v>494</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -40916,7 +41024,7 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="39"/>
-      <c r="B9" s="197" t="s">
+      <c r="B9" s="195" t="s">
         <v>496</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -40948,7 +41056,7 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="48"/>
-      <c r="B10" s="277" t="s">
+      <c r="B10" s="222" t="s">
         <v>498</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -40980,7 +41088,7 @@
     </row>
     <row r="11" spans="1:26" ht="45">
       <c r="A11" s="48"/>
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="193" t="s">
         <v>500</v>
       </c>
       <c r="C11" s="41" t="s">
@@ -41012,7 +41120,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="48"/>
-      <c r="B12" s="277" t="s">
+      <c r="B12" s="222" t="s">
         <v>502</v>
       </c>
       <c r="C12" s="41" t="s">
@@ -41044,7 +41152,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="5"/>
-      <c r="B13" s="278" t="s">
+      <c r="B13" s="223" t="s">
         <v>504</v>
       </c>
       <c r="C13" s="50" t="s">
@@ -41067,7 +41175,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="5"/>
-      <c r="B14" s="278" t="s">
+      <c r="B14" s="223" t="s">
         <v>506</v>
       </c>
       <c r="C14" s="50" t="s">
@@ -41090,7 +41198,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="5"/>
-      <c r="B15" s="278" t="s">
+      <c r="B15" s="223" t="s">
         <v>508</v>
       </c>
       <c r="C15" s="50" t="s">
@@ -41113,7 +41221,7 @@
     </row>
     <row r="16" spans="1:26" ht="30">
       <c r="A16" s="5"/>
-      <c r="B16" s="278" t="s">
+      <c r="B16" s="223" t="s">
         <v>510</v>
       </c>
       <c r="C16" s="50" t="s">
@@ -41136,7 +41244,7 @@
     </row>
     <row r="17" spans="1:26" ht="30">
       <c r="A17" s="5"/>
-      <c r="B17" s="278" t="s">
+      <c r="B17" s="223" t="s">
         <v>512</v>
       </c>
       <c r="C17" s="51" t="s">
@@ -41178,10 +41286,10 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="31"/>
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="243" t="s">
         <v>514</v>
       </c>
-      <c r="C19" s="241"/>
+      <c r="C19" s="244"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -41290,10 +41398,10 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="31"/>
-      <c r="B24" s="240" t="s">
+      <c r="B24" s="243" t="s">
         <v>521</v>
       </c>
-      <c r="C24" s="226"/>
+      <c r="C24" s="229"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
     </row>
@@ -41427,24 +41535,24 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="31"/>
-      <c r="B37" s="240" t="s">
+      <c r="B37" s="243" t="s">
         <v>544</v>
       </c>
-      <c r="C37" s="226"/>
+      <c r="C37" s="229"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="59"/>
-      <c r="B38" s="242" t="s">
+      <c r="B38" s="245" t="s">
         <v>545</v>
       </c>
-      <c r="C38" s="243"/>
+      <c r="C38" s="246"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="60"/>
-      <c r="B39" s="279" t="s">
+      <c r="B39" s="247" t="s">
         <v>546</v>
       </c>
-      <c r="C39" s="243"/>
+      <c r="C39" s="246"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="59"/>
@@ -41453,59 +41561,59 @@
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="31"/>
-      <c r="B41" s="240" t="s">
+      <c r="B41" s="243" t="s">
         <v>547</v>
       </c>
-      <c r="C41" s="226"/>
+      <c r="C41" s="229"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="61"/>
-      <c r="B42" s="244" t="s">
+      <c r="B42" s="248" t="s">
         <v>548</v>
       </c>
-      <c r="C42" s="226"/>
+      <c r="C42" s="229"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="61"/>
-      <c r="B43" s="245" t="s">
+      <c r="B43" s="249" t="s">
         <v>549</v>
       </c>
-      <c r="C43" s="226"/>
+      <c r="C43" s="229"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="62"/>
-      <c r="B44" s="246" t="s">
+      <c r="B44" s="250" t="s">
         <v>550</v>
       </c>
-      <c r="C44" s="226"/>
+      <c r="C44" s="229"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="63"/>
-      <c r="B45" s="238" t="s">
+      <c r="B45" s="241" t="s">
         <v>551</v>
       </c>
-      <c r="C45" s="226"/>
+      <c r="C45" s="229"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="63"/>
-      <c r="B46" s="238" t="s">
+      <c r="B46" s="241" t="s">
         <v>552</v>
       </c>
-      <c r="C46" s="226"/>
+      <c r="C46" s="229"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="63"/>
-      <c r="B47" s="238" t="s">
+      <c r="B47" s="241" t="s">
         <v>553</v>
       </c>
-      <c r="C47" s="226"/>
+      <c r="C47" s="229"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="60"/>
-      <c r="B48" s="239" t="s">
+      <c r="B48" s="242" t="s">
         <v>554</v>
       </c>
-      <c r="C48" s="226"/>
+      <c r="C48" s="229"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="12"/>
@@ -42567,21 +42675,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="31"/>
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>555</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="31"/>
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="39"/>
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="194" t="s">
         <v>556</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -42590,7 +42698,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="39"/>
-      <c r="B5" s="197" t="s">
+      <c r="B5" s="195" t="s">
         <v>558</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -42599,7 +42707,7 @@
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="A6" s="64"/>
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="196" t="s">
         <v>560</v>
       </c>
       <c r="C6" s="41" t="s">
@@ -42608,7 +42716,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="53"/>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="197" t="s">
         <v>562</v>
       </c>
       <c r="C7" s="41" t="s">
@@ -42617,7 +42725,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="53"/>
-      <c r="B8" s="198" t="s">
+      <c r="B8" s="196" t="s">
         <v>564</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -42626,7 +42734,7 @@
     </row>
     <row r="9" spans="1:3" ht="30">
       <c r="A9" s="53"/>
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="197" t="s">
         <v>566</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -42635,7 +42743,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="53"/>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="197" t="s">
         <v>568</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -42644,7 +42752,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="65"/>
-      <c r="B11" s="196" t="s">
+      <c r="B11" s="194" t="s">
         <v>569</v>
       </c>
       <c r="C11" s="41" t="s">
@@ -42653,7 +42761,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="65"/>
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="194" t="s">
         <v>570</v>
       </c>
       <c r="C12" s="41" t="s">
@@ -42662,7 +42770,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="65"/>
-      <c r="B13" s="196" t="s">
+      <c r="B13" s="194" t="s">
         <v>572</v>
       </c>
       <c r="C13" s="41" t="s">
@@ -42673,7 +42781,7 @@
       <c r="A14" s="66" t="s">
         <v>574</v>
       </c>
-      <c r="B14" s="198" t="s">
+      <c r="B14" s="196" t="s">
         <v>575</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -42682,7 +42790,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="31"/>
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="198" t="s">
         <v>577</v>
       </c>
       <c r="C15" s="68" t="s">
@@ -42696,10 +42804,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="31"/>
-      <c r="B17" s="240" t="s">
+      <c r="B17" s="243" t="s">
         <v>579</v>
       </c>
-      <c r="C17" s="241"/>
+      <c r="C17" s="244"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="39"/>
@@ -42726,10 +42834,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="31"/>
-      <c r="B21" s="240" t="s">
+      <c r="B21" s="243" t="s">
         <v>584</v>
       </c>
-      <c r="C21" s="226"/>
+      <c r="C21" s="229"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="39"/>
@@ -42814,59 +42922,59 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="39"/>
-      <c r="B31" s="191" t="s">
+      <c r="B31" s="189" t="s">
         <v>603</v>
       </c>
-      <c r="C31" s="192" t="s">
+      <c r="C31" s="190" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="39"/>
-      <c r="B32" s="193" t="s">
+      <c r="B32" s="191" t="s">
         <v>605</v>
       </c>
-      <c r="C32" s="194" t="s">
+      <c r="C32" s="192" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="39"/>
-      <c r="B33" s="193" t="s">
+      <c r="B33" s="191" t="s">
         <v>607</v>
       </c>
-      <c r="C33" s="194" t="s">
+      <c r="C33" s="192" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="39"/>
-      <c r="B34" s="193" t="s">
+      <c r="B34" s="191" t="s">
         <v>605</v>
       </c>
-      <c r="C34" s="194" t="s">
+      <c r="C34" s="192" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="39"/>
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="191" t="s">
         <v>610</v>
       </c>
-      <c r="C35" s="194" t="s">
+      <c r="C35" s="192" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="31"/>
-      <c r="B36" s="247" t="s">
+      <c r="B36" s="251" t="s">
         <v>544</v>
       </c>
-      <c r="C36" s="248"/>
+      <c r="C36" s="252"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="70"/>
-      <c r="B37" s="190" t="s">
+      <c r="B37" s="188" t="s">
         <v>612</v>
       </c>
       <c r="C37" s="50" t="s">
@@ -42875,28 +42983,28 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="70"/>
-      <c r="B38" s="190" t="s">
+      <c r="B38" s="188" t="s">
         <v>614</v>
       </c>
       <c r="C38" s="71"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="73"/>
-      <c r="B39" s="189" t="s">
+      <c r="B39" s="187" t="s">
         <v>615</v>
       </c>
       <c r="C39" s="74"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="73"/>
-      <c r="B40" s="189" t="s">
+      <c r="B40" s="187" t="s">
         <v>616</v>
       </c>
       <c r="C40" s="74"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="73"/>
-      <c r="B41" s="189" t="s">
+      <c r="B41" s="187" t="s">
         <v>1228</v>
       </c>
       <c r="C41" s="74"/>
@@ -44002,16 +44110,16 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="58" t="s">
@@ -44074,10 +44182,10 @@
       <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="240" t="s">
+      <c r="B12" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="226"/>
+      <c r="C12" s="229"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="84" t="s">
@@ -45153,16 +45261,16 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>636</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="56" t="s">
@@ -45229,18 +45337,18 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="B12" s="201" t="s">
+      <c r="B12" s="199" t="s">
         <v>653</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="190" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="202" t="s">
+      <c r="B13" s="200" t="s">
         <v>655</v>
       </c>
-      <c r="C13" s="203" t="s">
+      <c r="C13" s="201" t="s">
         <v>656</v>
       </c>
     </row>
@@ -45249,19 +45357,19 @@
       <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="240" t="s">
+      <c r="B15" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="226"/>
+      <c r="C15" s="229"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="B16" s="204" t="s">
+      <c r="B16" s="202" t="s">
         <v>657</v>
       </c>
       <c r="C16" s="50"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="202" t="s">
         <v>658</v>
       </c>
       <c r="C17" s="50"/>
@@ -46325,16 +46433,16 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="87" t="s">
@@ -46405,10 +46513,10 @@
       <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="240" t="s">
+      <c r="B14" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="226"/>
+      <c r="C14" s="229"/>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="92"/>
@@ -47473,19 +47581,19 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>671</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="203" t="s">
         <v>672</v>
       </c>
       <c r="C4" s="96" t="s">
@@ -47493,7 +47601,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" s="205" t="s">
+      <c r="B5" s="203" t="s">
         <v>674</v>
       </c>
       <c r="C5" s="41" t="s">
@@ -47501,7 +47609,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="203" t="s">
         <v>676</v>
       </c>
       <c r="C6" s="41" t="s">
@@ -47509,7 +47617,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="205" t="s">
+      <c r="B7" s="203" t="s">
         <v>678</v>
       </c>
       <c r="C7" s="41" t="s">
@@ -47517,7 +47625,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="203" t="s">
         <v>680</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -47525,7 +47633,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="203" t="s">
         <v>682</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -47533,7 +47641,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="203" t="s">
         <v>684</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -47541,7 +47649,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="203" t="s">
         <v>686</v>
       </c>
       <c r="C11" s="41" t="s">
@@ -47549,7 +47657,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="30">
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="204" t="s">
         <v>688</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -47557,7 +47665,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="204" t="s">
         <v>690</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -47565,7 +47673,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="206" t="s">
+      <c r="B14" s="204" t="s">
         <v>692</v>
       </c>
       <c r="C14" s="57" t="s">
@@ -47573,7 +47681,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="45">
-      <c r="B15" s="206" t="s">
+      <c r="B15" s="204" t="s">
         <v>694</v>
       </c>
       <c r="C15" s="57" t="s">
@@ -47585,25 +47693,25 @@
       <c r="C16" s="38"/>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="240" t="s">
+      <c r="B17" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="226"/>
+      <c r="C17" s="229"/>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="190" t="s">
+      <c r="B18" s="188" t="s">
         <v>696</v>
       </c>
       <c r="C18" s="72"/>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="188" t="s">
         <v>697</v>
       </c>
       <c r="C19" s="50"/>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="190" t="s">
+      <c r="B20" s="188" t="s">
         <v>698</v>
       </c>
       <c r="C20" s="50"/>
@@ -48668,16 +48776,16 @@
       <c r="A1" s="80"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="226"/>
+      <c r="C2" s="229"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="240" t="s">
+      <c r="B3" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="226"/>
+      <c r="C3" s="229"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="87" t="s">
@@ -48740,10 +48848,10 @@
       <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="240" t="s">
+      <c r="B13" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="226"/>
+      <c r="C13" s="229"/>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="87" t="s">
